--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9162D6-1E02-CA4B-BA84-34E348F36394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE7961-1251-1145-AC4F-50971F75C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2060" windowWidth="30240" windowHeight="17980" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="1980" yWindow="2060" windowWidth="30240" windowHeight="17980" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="1899">
   <si>
     <t>component_name</t>
   </si>
@@ -2552,6 +2552,9 @@
   </si>
   <si>
     <t>expression_data_file</t>
+  </si>
+  <si>
+    <t>Expression Data File</t>
   </si>
   <si>
     <t>tissue</t>
@@ -5906,6 +5909,9 @@
   </si>
   <si>
     <t>the download link for GRCh38.p13, GRCm39, TAIR10 …</t>
+  </si>
+  <si>
+    <t>Expression Data Process Setting</t>
   </si>
 </sst>
 </file>
@@ -7789,10 +7795,10 @@
   </sheetPr>
   <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="I210" sqref="I210"/>
+      <selection pane="topRight" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -18327,7 +18333,7 @@
         <v>806</v>
       </c>
       <c r="I191" s="136" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -18383,7 +18389,7 @@
         <v>809</v>
       </c>
       <c r="I192" s="136" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -18573,7 +18579,7 @@
     </row>
     <row r="196" spans="1:24" s="162" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="A196" s="150" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B196" s="146" t="s">
         <v>25</v>
@@ -18637,25 +18643,25 @@
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C197" s="136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F197" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J197" s="163" t="s">
         <v>30</v>
@@ -18690,23 +18696,23 @@
     </row>
     <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="136" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="F198" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H198" s="136"/>
       <c r="I198" s="136" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="L198" s="147" t="s">
         <v>32</v>
@@ -18738,7 +18744,7 @@
     </row>
     <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>25</v>
@@ -18753,10 +18759,10 @@
         <v>0</v>
       </c>
       <c r="H199" s="136" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I199" s="136" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>223</v>
@@ -18791,25 +18797,25 @@
     </row>
     <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="136" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="F200" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H200" s="136" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I200" s="136" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="L200" s="147" t="s">
         <v>32</v>
@@ -18841,22 +18847,22 @@
     </row>
     <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C201" s="136" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="136" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L201" s="147" t="s">
         <v>32</v>
@@ -18888,25 +18894,25 @@
     </row>
     <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C202" s="136" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D202" s="136" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="136" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I202" s="136" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="L202" s="147" t="s">
         <v>32</v>
@@ -18938,22 +18944,22 @@
     </row>
     <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C203" s="136" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D203" s="136" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H203" s="136" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="L203" s="147" t="s">
         <v>32</v>
@@ -18985,25 +18991,25 @@
     </row>
     <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D204" s="136" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H204" s="136" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I204" s="149" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="L204" s="147" t="s">
         <v>32</v>
@@ -19035,22 +19041,22 @@
     </row>
     <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C205" s="136" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D205" s="136" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H205" s="136" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="L205" s="147" t="s">
         <v>32</v>
@@ -19082,28 +19088,28 @@
     </row>
     <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C206" s="136" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D206" s="136" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H206" s="136" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I206" s="136" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J206" s="164" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="L206" s="147" t="s">
         <v>32</v>
@@ -19135,25 +19141,25 @@
     </row>
     <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C207" s="136" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D207" s="136" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H207" s="136" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I207" s="136" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="L207" s="147" t="s">
         <v>32</v>
@@ -19185,22 +19191,22 @@
     </row>
     <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C208" s="136" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D208" s="136" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="136" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="L208" s="147" t="s">
         <v>32</v>
@@ -19232,22 +19238,22 @@
     </row>
     <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C209" s="136" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D209" s="136" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="136" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="L209" s="147" t="s">
         <v>32</v>
@@ -19279,22 +19285,22 @@
     </row>
     <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="136" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D210" s="136" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H210" s="136" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J210" s="3" t="s">
         <v>223</v>
@@ -19329,22 +19335,22 @@
     </row>
     <row r="211" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A211" s="21" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C211" s="136" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D211" s="136" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="F211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H211" s="136" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="L211" s="147" t="s">
         <v>32</v>
@@ -19376,7 +19382,7 @@
     </row>
     <row r="212" spans="1:24" s="162" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A212" s="162" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B212" s="162" t="s">
         <v>25</v>
@@ -19439,7 +19445,7 @@
     </row>
     <row r="213" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
       <c r="A213" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>25</v>
@@ -19457,7 +19463,7 @@
         <v>308</v>
       </c>
       <c r="H213" s="146" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J213" s="163" t="s">
         <v>30</v>
@@ -19492,25 +19498,25 @@
     </row>
     <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F214" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="L214" s="147" t="s">
         <v>32</v>
@@ -19542,13 +19548,13 @@
     </row>
     <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D215" t="s">
         <v>786</v>
@@ -19557,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="L215" s="147" t="s">
         <v>32</v>
@@ -19589,7 +19595,7 @@
     </row>
     <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>25</v>
@@ -19604,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="L216" s="147" t="s">
         <v>32</v>
@@ -19636,25 +19642,25 @@
     </row>
     <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C217" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="F217" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H217" s="136" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="I217" s="136" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="L217" s="147" t="s">
         <v>32</v>
@@ -19686,22 +19692,22 @@
     </row>
     <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C218" s="136" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F218" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="L218" s="147" t="s">
         <v>32</v>
@@ -19733,22 +19739,22 @@
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C219" s="136" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D219" s="136" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="F219" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H219" s="136" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>271</v>
@@ -19783,22 +19789,22 @@
     </row>
     <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C220" s="136" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D220" s="136" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="F220" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H220" s="136" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>271</v>
@@ -19833,22 +19839,22 @@
     </row>
     <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C221" s="136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D221" s="136" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="F221" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H221" s="136" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>271</v>
@@ -19883,22 +19889,22 @@
     </row>
     <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="136" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D222" s="136" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F222" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H222" s="136" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>61</v>
@@ -20083,52 +20089,52 @@
         <v>65</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C1" s="107" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D1" s="107" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E1" s="107" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F1" s="107" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G1" s="107" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1" s="107" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I1" s="107" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J1" s="107" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K1" s="107" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L1" s="107" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M1" s="107" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N1" s="107" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O1" s="107" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P1" s="107" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q1" s="107" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="R1" s="107" t="s">
         <v>747</v>
@@ -20176,7 +20182,7 @@
         <v>518</v>
       </c>
       <c r="AG1" s="107" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AH1" s="107" t="s">
         <v>563</v>
@@ -20185,16 +20191,16 @@
         <v>567</v>
       </c>
       <c r="AJ1" s="107" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AK1" s="107" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AL1" s="107" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AM1" s="107" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AN1" s="107" t="s">
         <v>636</v>
@@ -20203,19 +20209,19 @@
         <v>75</v>
       </c>
       <c r="AP1" s="107" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AQ1" s="107" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AR1" s="107" t="s">
         <v>101</v>
       </c>
       <c r="AS1" s="111" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AT1" s="111" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AU1" s="111" t="s">
         <v>243</v>
@@ -20236,25 +20242,25 @@
         <v>467</v>
       </c>
       <c r="BA1" s="124" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="BB1" s="124" t="s">
         <v>115</v>
       </c>
       <c r="BC1" s="136" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="BD1" s="136" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="BE1" s="47" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="BF1" s="47" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="BG1" s="47" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="20">
@@ -20262,70 +20268,70 @@
         <v>68</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G2" s="108" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2" s="108" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I2" s="108" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J2" s="108" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K2" s="108" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="L2" s="108" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M2" s="108" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N2" s="108" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O2" s="108" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P2" s="108" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="Q2" s="108" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="R2" s="108" t="s">
         <v>364</v>
       </c>
       <c r="S2" s="108" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="T2" s="108" t="s">
         <v>262</v>
       </c>
       <c r="U2" s="109" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="V2" s="108" t="s">
         <v>732</v>
       </c>
       <c r="W2" s="108" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="X2" s="108">
         <v>3</v>
@@ -20358,129 +20364,129 @@
         <v>509</v>
       </c>
       <c r="AH2" s="108" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AI2" s="108" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AJ2" s="108" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AK2" s="108" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AL2" s="108" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AM2" s="108" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AN2" s="108" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AO2" s="108" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AP2" s="108" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AQ2" s="108" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AR2" s="113" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AS2" s="113" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AT2" s="113" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AU2" s="113" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AV2" s="113" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AW2" s="57" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AX2" s="57" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AY2" s="57" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AZ2" s="119" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="BA2" s="120" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="BB2" s="118" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="BC2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="BD2" s="149" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="BE2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="BF2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="BG2" s="149" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20">
       <c r="A3" s="108" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E3" s="108" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G3" s="108" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I3" s="108" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J3" s="108" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K3" s="108" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L3" s="108" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M3" s="108" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N3" s="108" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="O3" s="108" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="P3" s="108"/>
       <c r="Q3" s="108"/>
@@ -20488,13 +20494,13 @@
         <v>750</v>
       </c>
       <c r="S3" s="108" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="T3" s="108" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="U3" s="109" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="V3" s="108" t="s">
         <v>348</v>
@@ -20506,19 +20512,19 @@
         <v>5</v>
       </c>
       <c r="Y3" s="108" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="Z3" s="108" t="s">
         <v>750</v>
       </c>
       <c r="AA3" s="110" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AB3" s="110" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC3" s="108" t="s">
         <v>903</v>
-      </c>
-      <c r="AC3" s="108" t="s">
-        <v>902</v>
       </c>
       <c r="AD3" s="108" t="s">
         <v>498</v>
@@ -20533,153 +20539,153 @@
         <v>498</v>
       </c>
       <c r="AH3" s="108" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AI3" s="108" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AJ3" s="108" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AK3" s="108" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AL3" s="108" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AM3" s="108" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AN3" s="108" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AO3" s="108" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AP3" s="108" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AQ3" s="108" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AR3" s="113" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AS3" s="113" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AT3" s="113" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AU3" s="113" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AV3" s="113" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AW3" s="57" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AX3" s="57" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AY3" s="57" t="s">
         <v>328</v>
       </c>
       <c r="AZ3" s="119" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="BA3" s="120" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="BB3" s="118" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="BC3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="BD3" s="149" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="BE3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="BF3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="BG3" s="149" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="21" customHeight="1">
       <c r="A4" s="108" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G4" s="108" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H4" s="108" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I4" s="108" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="J4" s="108" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="K4" s="108" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L4" s="108" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M4" s="108"/>
       <c r="N4" s="108" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O4" s="108" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P4" s="108"/>
       <c r="Q4" s="108"/>
       <c r="R4" s="108"/>
       <c r="S4" s="108" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T4" s="108" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="U4" s="109" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="V4" s="108"/>
       <c r="W4" s="108" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="X4" s="108"/>
       <c r="Y4" s="108" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="Z4" s="108"/>
       <c r="AA4" s="108"/>
       <c r="AB4" s="108"/>
       <c r="AC4" s="108" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AD4" s="108" t="s">
         <v>521</v>
@@ -20695,124 +20701,124 @@
       </c>
       <c r="AH4" s="108"/>
       <c r="AI4" s="108" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AJ4" s="108" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AK4" s="108" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AL4" s="108" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AM4" s="108" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AN4" s="108" t="s">
         <v>639</v>
       </c>
       <c r="AO4" s="108" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AP4" s="108" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AQ4" s="108" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AR4" s="113" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AS4" s="113" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AT4" s="113" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AU4" s="113" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AV4" s="113" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AW4" s="57" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AX4" s="57" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AY4" s="57" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AZ4" s="119" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="BA4" s="120" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="BB4" s="118" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="BC4" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="BD4" s="148" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="BE4" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="BF4" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="BG4" s="148" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="22">
       <c r="A5" s="108" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I5" s="108" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J5" s="108" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="K5" s="108" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L5" s="108" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M5" s="108"/>
       <c r="N5" s="108" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O5" s="108" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P5" s="108"/>
       <c r="Q5" s="108"/>
@@ -20820,145 +20826,145 @@
       <c r="S5" s="108"/>
       <c r="T5" s="108"/>
       <c r="U5" s="109" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="V5" s="108"/>
       <c r="W5" s="108"/>
       <c r="X5" s="108"/>
       <c r="Y5" s="108" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Z5" s="108"/>
       <c r="AA5" s="108"/>
       <c r="AB5" s="108"/>
       <c r="AC5" s="108" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AD5" s="108" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AE5" s="108" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AF5" s="108" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AG5" s="108" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AH5" s="108"/>
       <c r="AI5" s="108" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AJ5" s="108" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AK5" s="108"/>
       <c r="AL5" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AM5" s="108" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN5" s="108" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO5" s="108" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AP5" s="108"/>
       <c r="AQ5" s="108" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AR5" s="113" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AS5" s="113" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AT5" s="113" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AU5" s="113" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AV5" s="113" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AW5" s="57" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AX5" s="57" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AY5" s="57" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AZ5" s="119" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="BA5" s="120" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="BB5" s="118" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="BC5" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="BD5" s="148" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="BE5" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="BF5" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="BG5" s="148" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="22">
       <c r="A6" s="108" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E6" s="108" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I6" s="108" t="s">
         <v>106</v>
       </c>
       <c r="J6" s="108" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K6" s="108" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L6" s="108" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M6" s="108"/>
       <c r="N6" s="108" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O6" s="108"/>
       <c r="P6" s="108"/>
@@ -20967,7 +20973,7 @@
       <c r="S6" s="108"/>
       <c r="T6" s="108"/>
       <c r="U6" s="109" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="V6" s="108"/>
       <c r="W6" s="108"/>
@@ -20983,113 +20989,113 @@
       <c r="AG6" s="108"/>
       <c r="AH6" s="108"/>
       <c r="AI6" s="108" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AJ6" s="108" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AK6" s="108"/>
       <c r="AL6" s="108" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AM6" s="108" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AN6" s="108" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AO6" s="108" t="s">
         <v>78</v>
       </c>
       <c r="AP6" s="108"/>
       <c r="AQ6" s="108" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AR6" s="113" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AS6" s="113" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AT6" s="113" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AU6" s="113" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AV6" s="113" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AW6" s="57" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AX6" s="57" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AY6" s="57" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AZ6" s="119" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="BA6" s="120" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="BB6" s="118" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="BC6" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="BD6" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="BE6" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="BF6" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="BG6" s="148" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="22">
       <c r="A7" s="108" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H7" s="108" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I7" s="108" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="108"/>
       <c r="L7" s="108" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="108" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O7" s="108"/>
       <c r="P7" s="108"/>
@@ -21098,7 +21104,7 @@
       <c r="S7" s="108"/>
       <c r="T7" s="108"/>
       <c r="U7" s="109" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="V7" s="108"/>
       <c r="W7" s="108"/>
@@ -21117,90 +21123,90 @@
       <c r="AJ7" s="108"/>
       <c r="AK7" s="108"/>
       <c r="AL7" s="108" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AM7" s="108"/>
       <c r="AN7" s="108"/>
       <c r="AO7" s="108" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AP7" s="108"/>
       <c r="AQ7" s="108" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AR7" s="113" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AS7" s="113" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AT7" s="113" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AU7" s="113"/>
       <c r="AV7" s="113" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AW7" s="57" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AX7" s="57" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AY7" s="57" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AZ7" s="119" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="BA7" s="120" t="s">
         <v>118</v>
       </c>
       <c r="BB7" s="118" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="BC7" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="BF7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="BG7" s="148" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="19">
       <c r="A8" s="108" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="108"/>
       <c r="I8" s="108" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="J8" s="108"/>
       <c r="K8" s="108"/>
       <c r="L8" s="108" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M8" s="108"/>
       <c r="N8" s="108" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O8" s="108"/>
       <c r="P8" s="108"/>
@@ -21209,7 +21215,7 @@
       <c r="S8" s="108"/>
       <c r="T8" s="108"/>
       <c r="U8" s="109" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="V8" s="108"/>
       <c r="W8" s="108"/>
@@ -21228,75 +21234,75 @@
       <c r="AJ8" s="108"/>
       <c r="AK8" s="108"/>
       <c r="AL8" s="108" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AM8" s="108"/>
       <c r="AN8" s="108"/>
       <c r="AO8" s="108" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AP8" s="108"/>
       <c r="AQ8" s="108" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AR8" s="113" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AS8" s="113" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="AT8" s="113" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AU8" s="113"/>
       <c r="AV8" s="113"/>
       <c r="AW8" s="57" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AX8" s="57" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AY8" s="57" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AZ8" s="119" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="BA8" s="120"/>
       <c r="BB8" s="118"/>
     </row>
     <row r="9" spans="1:59" ht="19">
       <c r="A9" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G9" s="108"/>
       <c r="H9" s="108"/>
       <c r="I9" s="108" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J9" s="108"/>
       <c r="K9" s="108"/>
       <c r="L9" s="108" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M9" s="108"/>
       <c r="N9" s="108" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="O9" s="108"/>
       <c r="P9" s="108"/>
@@ -21305,7 +21311,7 @@
       <c r="S9" s="108"/>
       <c r="T9" s="108"/>
       <c r="U9" s="109" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="V9" s="108"/>
       <c r="W9" s="108"/>
@@ -21329,27 +21335,27 @@
       <c r="AO9" s="108"/>
       <c r="AP9" s="108"/>
       <c r="AQ9" s="108" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AR9" s="113" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AS9" s="113" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AT9" s="113" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AU9" s="113"/>
       <c r="AV9" s="113"/>
       <c r="AW9" s="57" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AX9" s="57" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AY9" s="57" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AZ9" s="57"/>
       <c r="BA9" s="120"/>
@@ -21357,19 +21363,19 @@
     <row r="10" spans="1:59" ht="19">
       <c r="A10" s="108"/>
       <c r="B10" s="108" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G10" s="108"/>
       <c r="H10" s="108"/>
@@ -21379,7 +21385,7 @@
       <c r="L10" s="108"/>
       <c r="M10" s="108"/>
       <c r="N10" s="108" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O10" s="108"/>
       <c r="P10" s="108"/>
@@ -21388,7 +21394,7 @@
       <c r="S10" s="108"/>
       <c r="T10" s="108"/>
       <c r="U10" s="109" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="V10" s="108"/>
       <c r="W10" s="108"/>
@@ -21412,23 +21418,23 @@
       <c r="AO10" s="108"/>
       <c r="AP10" s="108"/>
       <c r="AQ10" s="108" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AR10" s="113"/>
       <c r="AS10" s="113"/>
       <c r="AT10" s="113" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AU10" s="113"/>
       <c r="AV10" s="113"/>
       <c r="AW10" s="57" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AX10" s="57" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AY10" s="57" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AZ10" s="57"/>
       <c r="BA10" s="120"/>
@@ -21436,19 +21442,19 @@
     <row r="11" spans="1:59" ht="19">
       <c r="A11" s="108"/>
       <c r="B11" s="108" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="108"/>
@@ -21458,7 +21464,7 @@
       <c r="L11" s="108"/>
       <c r="M11" s="108"/>
       <c r="N11" s="108" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O11" s="108"/>
       <c r="P11" s="108"/>
@@ -21467,7 +21473,7 @@
       <c r="S11" s="108"/>
       <c r="T11" s="108"/>
       <c r="U11" s="109" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="V11" s="108"/>
       <c r="W11" s="108"/>
@@ -21491,23 +21497,23 @@
       <c r="AO11" s="108"/>
       <c r="AP11" s="108"/>
       <c r="AQ11" s="108" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AR11" s="113"/>
       <c r="AS11" s="113"/>
       <c r="AT11" s="113" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="AU11" s="113"/>
       <c r="AV11" s="113"/>
       <c r="AW11" s="57" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AX11" s="57" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AY11" s="57" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AZ11" s="57"/>
       <c r="BA11" s="120"/>
@@ -21515,15 +21521,15 @@
     <row r="12" spans="1:59" ht="19">
       <c r="A12" s="108"/>
       <c r="B12" s="108" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
       <c r="F12" s="108" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G12" s="108"/>
       <c r="H12" s="108"/>
@@ -21533,7 +21539,7 @@
       <c r="L12" s="108"/>
       <c r="M12" s="108"/>
       <c r="N12" s="108" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="O12" s="108"/>
       <c r="P12" s="108"/>
@@ -21564,23 +21570,23 @@
       <c r="AO12" s="108"/>
       <c r="AP12" s="108"/>
       <c r="AQ12" s="108" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="AR12" s="113"/>
       <c r="AS12" s="113"/>
       <c r="AT12" s="113" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AU12" s="113"/>
       <c r="AV12" s="113"/>
       <c r="AW12" s="57" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AX12" s="57" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AY12" s="57" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="AZ12" s="57"/>
       <c r="BA12" s="120"/>
@@ -21588,10 +21594,10 @@
     <row r="13" spans="1:59" ht="19">
       <c r="A13" s="108"/>
       <c r="B13" s="113" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
@@ -21604,7 +21610,7 @@
       <c r="L13" s="108"/>
       <c r="M13" s="108"/>
       <c r="N13" s="108" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="O13" s="108"/>
       <c r="P13" s="108"/>
@@ -21635,23 +21641,23 @@
       <c r="AO13" s="108"/>
       <c r="AP13" s="108"/>
       <c r="AQ13" s="108" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="AR13" s="113"/>
       <c r="AS13" s="113"/>
       <c r="AT13" s="113" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AU13" s="113"/>
       <c r="AV13" s="113"/>
       <c r="AW13" s="57" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="AX13" s="57" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="AY13" s="57" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AZ13" s="57"/>
       <c r="BA13" s="120"/>
@@ -21659,10 +21665,10 @@
     <row r="14" spans="1:59" ht="19">
       <c r="A14" s="108"/>
       <c r="B14" s="113" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C14" s="113" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="108"/>
@@ -21675,7 +21681,7 @@
       <c r="L14" s="108"/>
       <c r="M14" s="108"/>
       <c r="N14" s="108" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O14" s="108"/>
       <c r="P14" s="108"/>
@@ -21706,23 +21712,23 @@
       <c r="AO14" s="108"/>
       <c r="AP14" s="108"/>
       <c r="AQ14" s="108" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AR14" s="113"/>
       <c r="AS14" s="113"/>
       <c r="AT14" s="113" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="AU14" s="113"/>
       <c r="AV14" s="113"/>
       <c r="AW14" s="57" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AX14" s="57" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="AY14" s="57" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AZ14" s="57"/>
       <c r="BA14" s="120"/>
@@ -21730,10 +21736,10 @@
     <row r="15" spans="1:59" ht="19">
       <c r="A15" s="108"/>
       <c r="B15" s="113" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
@@ -21775,23 +21781,23 @@
       <c r="AO15" s="108"/>
       <c r="AP15" s="108"/>
       <c r="AQ15" s="108" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AR15" s="113"/>
       <c r="AS15" s="113"/>
       <c r="AT15" s="113" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AU15" s="113"/>
       <c r="AV15" s="113"/>
       <c r="AW15" s="57" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="AX15" s="57" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="AY15" s="57" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AZ15" s="57"/>
       <c r="BA15" s="120"/>
@@ -21799,10 +21805,10 @@
     <row r="16" spans="1:59" ht="19">
       <c r="A16" s="108"/>
       <c r="B16" s="113" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
@@ -21844,23 +21850,23 @@
       <c r="AO16" s="108"/>
       <c r="AP16" s="108"/>
       <c r="AQ16" s="108" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="AR16" s="113"/>
       <c r="AS16" s="113"/>
       <c r="AT16" s="113" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="AU16" s="113"/>
       <c r="AV16" s="113"/>
       <c r="AW16" s="57" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AX16" s="57" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AY16" s="57" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AZ16" s="57"/>
       <c r="BA16" s="120"/>
@@ -21868,10 +21874,10 @@
     <row r="17" spans="1:53" ht="19">
       <c r="A17" s="108"/>
       <c r="B17" s="108" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -21913,23 +21919,23 @@
       <c r="AO17" s="108"/>
       <c r="AP17" s="108"/>
       <c r="AQ17" s="108" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AR17" s="113"/>
       <c r="AS17" s="113"/>
       <c r="AT17" s="113" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="AU17" s="113"/>
       <c r="AV17" s="113"/>
       <c r="AW17" s="57" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AX17" s="57" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AY17" s="57" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AZ17" s="57"/>
       <c r="BA17" s="120"/>
@@ -21937,10 +21943,10 @@
     <row r="18" spans="1:53" ht="19">
       <c r="A18" s="108"/>
       <c r="B18" s="108" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -21982,23 +21988,23 @@
       <c r="AO18" s="108"/>
       <c r="AP18" s="108"/>
       <c r="AQ18" s="108" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AR18" s="113"/>
       <c r="AS18" s="113"/>
       <c r="AT18" s="113" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="AU18" s="113"/>
       <c r="AV18" s="113"/>
       <c r="AW18" s="57" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="AX18" s="57" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="AY18" s="57" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AZ18" s="57"/>
       <c r="BA18" s="120"/>
@@ -22006,10 +22012,10 @@
     <row r="19" spans="1:53" ht="19">
       <c r="A19" s="108"/>
       <c r="B19" s="108" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -22051,23 +22057,23 @@
       <c r="AO19" s="108"/>
       <c r="AP19" s="108"/>
       <c r="AQ19" s="108" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AR19" s="113"/>
       <c r="AS19" s="113"/>
       <c r="AT19" s="113" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AU19" s="113"/>
       <c r="AV19" s="113"/>
       <c r="AW19" s="57" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AX19" s="57" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="AY19" s="57" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AZ19" s="57"/>
       <c r="BA19" s="120"/>
@@ -22075,10 +22081,10 @@
     <row r="20" spans="1:53" ht="19">
       <c r="A20" s="108"/>
       <c r="B20" s="113" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C20" s="113" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
@@ -22120,23 +22126,23 @@
       <c r="AO20" s="108"/>
       <c r="AP20" s="108"/>
       <c r="AQ20" s="108" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AR20" s="113"/>
       <c r="AS20" s="113"/>
       <c r="AT20" s="113" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AU20" s="113"/>
       <c r="AV20" s="113"/>
       <c r="AW20" s="57" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AX20" s="57" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AY20" s="57" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AZ20" s="57"/>
       <c r="BA20" s="120"/>
@@ -22144,10 +22150,10 @@
     <row r="21" spans="1:53" ht="19">
       <c r="A21" s="108"/>
       <c r="B21" s="108" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D21" s="108"/>
       <c r="E21" s="108"/>
@@ -22189,23 +22195,23 @@
       <c r="AO21" s="108"/>
       <c r="AP21" s="108"/>
       <c r="AQ21" s="108" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="AR21" s="113"/>
       <c r="AS21" s="113"/>
       <c r="AT21" s="113" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="AU21" s="113"/>
       <c r="AV21" s="113"/>
       <c r="AW21" s="57" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AX21" s="57" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AY21" s="57" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="AZ21" s="57"/>
       <c r="BA21" s="120"/>
@@ -22213,10 +22219,10 @@
     <row r="22" spans="1:53" ht="19">
       <c r="A22" s="108"/>
       <c r="B22" s="113" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C22" s="113" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="108"/>
@@ -22258,23 +22264,23 @@
       <c r="AO22" s="108"/>
       <c r="AP22" s="108"/>
       <c r="AQ22" s="108" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AR22" s="113"/>
       <c r="AS22" s="113"/>
       <c r="AT22" s="113" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AU22" s="113"/>
       <c r="AV22" s="113"/>
       <c r="AW22" s="57" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AX22" s="57" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="AY22" s="57" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AZ22" s="57"/>
       <c r="BA22" s="120"/>
@@ -22282,10 +22288,10 @@
     <row r="23" spans="1:53" ht="19">
       <c r="A23" s="108"/>
       <c r="B23" s="108" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
@@ -22327,23 +22333,23 @@
       <c r="AO23" s="108"/>
       <c r="AP23" s="108"/>
       <c r="AQ23" s="108" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="AR23" s="113"/>
       <c r="AS23" s="113"/>
       <c r="AT23" s="113" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="AU23" s="113"/>
       <c r="AV23" s="113"/>
       <c r="AW23" s="57" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AX23" s="57" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AY23" s="57" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="AZ23" s="57"/>
       <c r="BA23" s="121"/>
@@ -22351,10 +22357,10 @@
     <row r="24" spans="1:53" ht="19">
       <c r="A24" s="108"/>
       <c r="B24" s="108" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D24" s="108"/>
       <c r="E24" s="108"/>
@@ -22396,12 +22402,12 @@
       <c r="AO24" s="108"/>
       <c r="AP24" s="108"/>
       <c r="AQ24" s="108" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AR24" s="113"/>
       <c r="AS24" s="113"/>
       <c r="AT24" s="113" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AU24" s="113"/>
       <c r="AV24" s="113"/>
@@ -22409,7 +22415,7 @@
         <v>488</v>
       </c>
       <c r="AX24" s="57" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AY24" s="57" t="s">
         <v>732</v>
@@ -22420,10 +22426,10 @@
     <row r="25" spans="1:53" ht="19">
       <c r="A25" s="108"/>
       <c r="B25" s="113" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
@@ -22465,23 +22471,23 @@
       <c r="AO25" s="108"/>
       <c r="AP25" s="108"/>
       <c r="AQ25" s="108" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AR25" s="113"/>
       <c r="AS25" s="113"/>
       <c r="AT25" s="113" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="AU25" s="113"/>
       <c r="AV25" s="113"/>
       <c r="AW25" s="57" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AX25" s="57" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AY25" s="57" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="AZ25" s="57"/>
       <c r="BA25" s="120"/>
@@ -22489,10 +22495,10 @@
     <row r="26" spans="1:53" ht="19">
       <c r="A26" s="108"/>
       <c r="B26" s="113" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C26" s="113" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D26" s="108"/>
       <c r="E26" s="108"/>
@@ -22534,23 +22540,23 @@
       <c r="AO26" s="108"/>
       <c r="AP26" s="108"/>
       <c r="AQ26" s="108" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="AR26" s="113"/>
       <c r="AS26" s="113"/>
       <c r="AT26" s="113" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="AU26" s="113"/>
       <c r="AV26" s="113"/>
       <c r="AW26" s="57" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="AX26" s="57" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AY26" s="57" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AZ26" s="57"/>
       <c r="BA26" s="120"/>
@@ -22558,10 +22564,10 @@
     <row r="27" spans="1:53" ht="19">
       <c r="A27" s="108"/>
       <c r="B27" s="113" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C27" s="113" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D27" s="108"/>
       <c r="E27" s="108"/>
@@ -22603,23 +22609,23 @@
       <c r="AO27" s="108"/>
       <c r="AP27" s="108"/>
       <c r="AQ27" s="108" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="AR27" s="113"/>
       <c r="AS27" s="113"/>
       <c r="AT27" s="113" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AU27" s="113"/>
       <c r="AV27" s="113"/>
       <c r="AW27" s="57" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="AX27" s="57" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AY27" s="57" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AZ27" s="57"/>
       <c r="BA27" s="120"/>
@@ -22627,10 +22633,10 @@
     <row r="28" spans="1:53" ht="19">
       <c r="A28" s="108"/>
       <c r="B28" s="113" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C28" s="113" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
@@ -22672,23 +22678,23 @@
       <c r="AO28" s="108"/>
       <c r="AP28" s="108"/>
       <c r="AQ28" s="108" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AR28" s="113"/>
       <c r="AS28" s="113"/>
       <c r="AT28" s="113" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AU28" s="113"/>
       <c r="AV28" s="113"/>
       <c r="AW28" s="57" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="AX28" s="57" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AY28" s="57" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AZ28" s="57"/>
       <c r="BA28" s="120"/>
@@ -22696,10 +22702,10 @@
     <row r="29" spans="1:53" ht="19">
       <c r="A29" s="108"/>
       <c r="B29" s="108" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C29" s="108" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="108"/>
       <c r="E29" s="108"/>
@@ -22741,20 +22747,20 @@
       <c r="AO29" s="108"/>
       <c r="AP29" s="108"/>
       <c r="AQ29" s="108" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="AR29" s="113"/>
       <c r="AS29" s="113"/>
       <c r="AT29" s="113" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AU29" s="113"/>
       <c r="AV29" s="113"/>
       <c r="AW29" s="57" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="AX29" s="57" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AY29" s="57"/>
       <c r="AZ29" s="57"/>
@@ -22763,10 +22769,10 @@
     <row r="30" spans="1:53" ht="19">
       <c r="A30" s="108"/>
       <c r="B30" s="113" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C30" s="113" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D30" s="108"/>
       <c r="E30" s="108"/>
@@ -22808,20 +22814,20 @@
       <c r="AO30" s="108"/>
       <c r="AP30" s="108"/>
       <c r="AQ30" s="108" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="AR30" s="113"/>
       <c r="AS30" s="113"/>
       <c r="AT30" s="113" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="AU30" s="113"/>
       <c r="AV30" s="113"/>
       <c r="AW30" s="57" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="AX30" s="57" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="AY30" s="57"/>
       <c r="AZ30" s="57"/>
@@ -22830,10 +22836,10 @@
     <row r="31" spans="1:53" ht="19">
       <c r="A31" s="108"/>
       <c r="B31" s="108" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C31" s="108" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D31" s="108"/>
       <c r="E31" s="108"/>
@@ -22875,20 +22881,20 @@
       <c r="AO31" s="108"/>
       <c r="AP31" s="108"/>
       <c r="AQ31" s="108" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="AR31" s="113"/>
       <c r="AS31" s="113"/>
       <c r="AT31" s="113" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="AU31" s="113"/>
       <c r="AV31" s="113"/>
       <c r="AW31" s="57" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="AX31" s="57" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="AY31" s="57"/>
       <c r="AZ31" s="57"/>
@@ -22897,10 +22903,10 @@
     <row r="32" spans="1:53" ht="19">
       <c r="A32" s="108"/>
       <c r="B32" s="113" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C32" s="113" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D32" s="108"/>
       <c r="E32" s="108"/>
@@ -22942,20 +22948,20 @@
       <c r="AO32" s="108"/>
       <c r="AP32" s="108"/>
       <c r="AQ32" s="108" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AR32" s="113"/>
       <c r="AS32" s="113"/>
       <c r="AT32" s="113" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="AU32" s="113"/>
       <c r="AV32" s="113"/>
       <c r="AW32" s="57" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="AX32" s="57" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="AY32" s="57"/>
       <c r="AZ32" s="57"/>
@@ -22964,10 +22970,10 @@
     <row r="33" spans="1:53" ht="19">
       <c r="A33" s="108"/>
       <c r="B33" s="108" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C33" s="108" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D33" s="108"/>
       <c r="E33" s="108"/>
@@ -23012,15 +23018,15 @@
       <c r="AR33" s="113"/>
       <c r="AS33" s="113"/>
       <c r="AT33" s="113" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="AU33" s="113"/>
       <c r="AV33" s="113"/>
       <c r="AW33" s="57" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="AX33" s="57" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AY33" s="57"/>
       <c r="AZ33" s="57"/>
@@ -23029,10 +23035,10 @@
     <row r="34" spans="1:53" ht="19">
       <c r="A34" s="108"/>
       <c r="B34" s="108" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C34" s="108" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D34" s="108"/>
       <c r="E34" s="108"/>
@@ -23077,15 +23083,15 @@
       <c r="AR34" s="113"/>
       <c r="AS34" s="113"/>
       <c r="AT34" s="113" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="AU34" s="113"/>
       <c r="AV34" s="113"/>
       <c r="AW34" s="57" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="AX34" s="57" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="AY34" s="57"/>
       <c r="AZ34" s="57"/>
@@ -23094,10 +23100,10 @@
     <row r="35" spans="1:53" ht="19">
       <c r="A35" s="108"/>
       <c r="B35" s="108" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C35" s="108" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
@@ -23142,15 +23148,15 @@
       <c r="AR35" s="113"/>
       <c r="AS35" s="113"/>
       <c r="AT35" s="113" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="AU35" s="113"/>
       <c r="AV35" s="113"/>
       <c r="AW35" s="57" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="AX35" s="57" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AY35" s="57"/>
       <c r="AZ35" s="57"/>
@@ -23159,10 +23165,10 @@
     <row r="36" spans="1:53" ht="19">
       <c r="A36" s="108"/>
       <c r="B36" s="113" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C36" s="113" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D36" s="108"/>
       <c r="E36" s="108"/>
@@ -23207,15 +23213,15 @@
       <c r="AR36" s="113"/>
       <c r="AS36" s="113"/>
       <c r="AT36" s="113" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AU36" s="113"/>
       <c r="AV36" s="113"/>
       <c r="AW36" s="57" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="AX36" s="57" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="AY36" s="57"/>
       <c r="AZ36" s="57"/>
@@ -23224,10 +23230,10 @@
     <row r="37" spans="1:53" ht="19">
       <c r="A37" s="108"/>
       <c r="B37" s="108" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C37" s="108" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D37" s="108"/>
       <c r="E37" s="108"/>
@@ -23272,15 +23278,15 @@
       <c r="AR37" s="113"/>
       <c r="AS37" s="113"/>
       <c r="AT37" s="113" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AU37" s="113"/>
       <c r="AV37" s="113"/>
       <c r="AW37" s="57" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AX37" s="57" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="AY37" s="57"/>
       <c r="AZ37" s="57"/>
@@ -23289,10 +23295,10 @@
     <row r="38" spans="1:53" ht="19">
       <c r="A38" s="108"/>
       <c r="B38" s="108" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C38" s="108" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D38" s="108"/>
       <c r="E38" s="108"/>
@@ -23337,15 +23343,15 @@
       <c r="AR38" s="113"/>
       <c r="AS38" s="113"/>
       <c r="AT38" s="113" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="AU38" s="113"/>
       <c r="AV38" s="113"/>
       <c r="AW38" s="57" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="AX38" s="57" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AY38" s="57"/>
       <c r="AZ38" s="57"/>
@@ -23354,10 +23360,10 @@
     <row r="39" spans="1:53" ht="19">
       <c r="A39" s="108"/>
       <c r="B39" s="108" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C39" s="108" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
@@ -23402,15 +23408,15 @@
       <c r="AR39" s="113"/>
       <c r="AS39" s="113"/>
       <c r="AT39" s="113" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AU39" s="113"/>
       <c r="AV39" s="113"/>
       <c r="AW39" s="57" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AX39" s="57" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AY39" s="57"/>
       <c r="AZ39" s="57"/>
@@ -23419,10 +23425,10 @@
     <row r="40" spans="1:53" ht="19">
       <c r="A40" s="108"/>
       <c r="B40" s="108" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C40" s="108" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
@@ -23467,15 +23473,15 @@
       <c r="AR40" s="113"/>
       <c r="AS40" s="113"/>
       <c r="AT40" s="113" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="AU40" s="113"/>
       <c r="AV40" s="113"/>
       <c r="AW40" s="57" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AX40" s="57" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AY40" s="57"/>
       <c r="AZ40" s="57"/>
@@ -23484,10 +23490,10 @@
     <row r="41" spans="1:53" ht="19">
       <c r="A41" s="108"/>
       <c r="B41" s="108" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C41" s="108" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D41" s="108"/>
       <c r="E41" s="108"/>
@@ -23532,15 +23538,15 @@
       <c r="AR41" s="113"/>
       <c r="AS41" s="113"/>
       <c r="AT41" s="113" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AU41" s="113"/>
       <c r="AV41" s="113"/>
       <c r="AW41" s="57" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AX41" s="57" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="AY41" s="57"/>
       <c r="AZ41" s="57"/>
@@ -23549,10 +23555,10 @@
     <row r="42" spans="1:53" ht="19">
       <c r="A42" s="108"/>
       <c r="B42" s="113" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C42" s="113" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D42" s="108"/>
       <c r="E42" s="108"/>
@@ -23597,12 +23603,12 @@
       <c r="AR42" s="113"/>
       <c r="AS42" s="113"/>
       <c r="AT42" s="113" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AU42" s="113"/>
       <c r="AV42" s="113"/>
       <c r="AW42" s="57" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="AX42" s="57"/>
       <c r="AY42" s="57"/>
@@ -23612,10 +23618,10 @@
     <row r="43" spans="1:53" ht="19">
       <c r="A43" s="108"/>
       <c r="B43" s="113" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C43" s="113" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D43" s="108"/>
       <c r="E43" s="108"/>
@@ -23660,12 +23666,12 @@
       <c r="AR43" s="113"/>
       <c r="AS43" s="113"/>
       <c r="AT43" s="113" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AU43" s="113"/>
       <c r="AV43" s="113"/>
       <c r="AW43" s="57" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AX43" s="57"/>
       <c r="AY43" s="57"/>
@@ -23675,10 +23681,10 @@
     <row r="44" spans="1:53" ht="19">
       <c r="A44" s="108"/>
       <c r="B44" s="108" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C44" s="108" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D44" s="108"/>
       <c r="E44" s="108"/>
@@ -23723,12 +23729,12 @@
       <c r="AR44" s="113"/>
       <c r="AS44" s="113"/>
       <c r="AT44" s="113" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AU44" s="113"/>
       <c r="AV44" s="113"/>
       <c r="AW44" s="57" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AX44" s="57"/>
       <c r="AY44" s="57"/>
@@ -23738,10 +23744,10 @@
     <row r="45" spans="1:53" ht="19">
       <c r="A45" s="108"/>
       <c r="B45" s="108" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C45" s="108" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D45" s="108"/>
       <c r="E45" s="108"/>
@@ -23786,12 +23792,12 @@
       <c r="AR45" s="113"/>
       <c r="AS45" s="113"/>
       <c r="AT45" s="113" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AU45" s="113"/>
       <c r="AV45" s="113"/>
       <c r="AW45" s="57" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
@@ -23801,10 +23807,10 @@
     <row r="46" spans="1:53" ht="19">
       <c r="A46" s="108"/>
       <c r="B46" s="108" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C46" s="108" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D46" s="108"/>
       <c r="E46" s="108"/>
@@ -23849,12 +23855,12 @@
       <c r="AR46" s="113"/>
       <c r="AS46" s="113"/>
       <c r="AT46" s="113" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AU46" s="113"/>
       <c r="AV46" s="113"/>
       <c r="AW46" s="57" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AX46" s="57"/>
       <c r="AY46" s="57"/>
@@ -23864,10 +23870,10 @@
     <row r="47" spans="1:53" ht="19">
       <c r="A47" s="108"/>
       <c r="B47" s="113" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C47" s="113" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D47" s="108"/>
       <c r="E47" s="108"/>
@@ -23912,12 +23918,12 @@
       <c r="AR47" s="113"/>
       <c r="AS47" s="113"/>
       <c r="AT47" s="113" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AU47" s="113"/>
       <c r="AV47" s="113"/>
       <c r="AW47" s="57" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="AX47" s="57"/>
       <c r="AY47" s="57"/>
@@ -23927,10 +23933,10 @@
     <row r="48" spans="1:53" ht="19">
       <c r="A48" s="108"/>
       <c r="B48" s="108" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C48" s="108" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D48" s="108"/>
       <c r="E48" s="108"/>
@@ -23975,12 +23981,12 @@
       <c r="AR48" s="113"/>
       <c r="AS48" s="113"/>
       <c r="AT48" s="113" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AU48" s="113"/>
       <c r="AV48" s="113"/>
       <c r="AW48" s="57" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="AX48" s="57"/>
       <c r="AY48" s="57"/>
@@ -23990,10 +23996,10 @@
     <row r="49" spans="1:53" ht="19">
       <c r="A49" s="108"/>
       <c r="B49" s="113" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C49" s="113" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="108"/>
@@ -24038,12 +24044,12 @@
       <c r="AR49" s="113"/>
       <c r="AS49" s="113"/>
       <c r="AT49" s="113" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AU49" s="113"/>
       <c r="AV49" s="113"/>
       <c r="AW49" s="57" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="AX49" s="57"/>
       <c r="AY49" s="57"/>
@@ -24053,10 +24059,10 @@
     <row r="50" spans="1:53" ht="19">
       <c r="A50" s="108"/>
       <c r="B50" s="108" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C50" s="108" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
@@ -24101,12 +24107,12 @@
       <c r="AR50" s="113"/>
       <c r="AS50" s="113"/>
       <c r="AT50" s="113" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="AU50" s="113"/>
       <c r="AV50" s="113"/>
       <c r="AW50" s="57" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AX50" s="57"/>
       <c r="AY50" s="57"/>
@@ -24116,10 +24122,10 @@
     <row r="51" spans="1:53" ht="19">
       <c r="A51" s="108"/>
       <c r="B51" s="108" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C51" s="108" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D51" s="108"/>
       <c r="E51" s="108"/>
@@ -24164,12 +24170,12 @@
       <c r="AR51" s="113"/>
       <c r="AS51" s="113"/>
       <c r="AT51" s="113" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="AU51" s="113"/>
       <c r="AV51" s="113"/>
       <c r="AW51" s="57" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="AX51" s="57"/>
       <c r="AY51" s="57"/>
@@ -24179,10 +24185,10 @@
     <row r="52" spans="1:53" ht="19">
       <c r="A52" s="108"/>
       <c r="B52" s="108" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C52" s="108" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D52" s="108"/>
       <c r="E52" s="108"/>
@@ -24227,12 +24233,12 @@
       <c r="AR52" s="113"/>
       <c r="AS52" s="113"/>
       <c r="AT52" s="113" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="AU52" s="113"/>
       <c r="AV52" s="113"/>
       <c r="AW52" s="57" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AX52" s="57"/>
       <c r="AY52" s="57"/>
@@ -24242,10 +24248,10 @@
     <row r="53" spans="1:53" ht="19">
       <c r="A53" s="108"/>
       <c r="B53" s="108" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C53" s="108" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D53" s="108"/>
       <c r="E53" s="108"/>
@@ -24290,12 +24296,12 @@
       <c r="AR53" s="113"/>
       <c r="AS53" s="113"/>
       <c r="AT53" s="113" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="AU53" s="113"/>
       <c r="AV53" s="113"/>
       <c r="AW53" s="57" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="AX53" s="57"/>
       <c r="AY53" s="57"/>
@@ -24305,10 +24311,10 @@
     <row r="54" spans="1:53" ht="19">
       <c r="A54" s="108"/>
       <c r="B54" s="108" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C54" s="108" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D54" s="108"/>
       <c r="E54" s="108"/>
@@ -24353,12 +24359,12 @@
       <c r="AR54" s="113"/>
       <c r="AS54" s="113"/>
       <c r="AT54" s="113" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="AU54" s="113"/>
       <c r="AV54" s="113"/>
       <c r="AW54" s="57" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
@@ -24368,10 +24374,10 @@
     <row r="55" spans="1:53" ht="19">
       <c r="A55" s="108"/>
       <c r="B55" s="108" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C55" s="108" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
@@ -24416,12 +24422,12 @@
       <c r="AR55" s="113"/>
       <c r="AS55" s="113"/>
       <c r="AT55" s="113" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="AU55" s="113"/>
       <c r="AV55" s="113"/>
       <c r="AW55" s="57" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="AX55" s="57"/>
       <c r="AY55" s="57"/>
@@ -24431,10 +24437,10 @@
     <row r="56" spans="1:53" ht="19">
       <c r="A56" s="108"/>
       <c r="B56" s="108" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C56" s="108" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D56" s="108"/>
       <c r="E56" s="108"/>
@@ -24479,12 +24485,12 @@
       <c r="AR56" s="113"/>
       <c r="AS56" s="113"/>
       <c r="AT56" s="113" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="AU56" s="113"/>
       <c r="AV56" s="113"/>
       <c r="AW56" s="57" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="AX56" s="57"/>
       <c r="AY56" s="57"/>
@@ -24494,10 +24500,10 @@
     <row r="57" spans="1:53" ht="19">
       <c r="A57" s="108"/>
       <c r="B57" s="108" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C57" s="108" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D57" s="108"/>
       <c r="E57" s="108"/>
@@ -24542,12 +24548,12 @@
       <c r="AR57" s="113"/>
       <c r="AS57" s="113"/>
       <c r="AT57" s="113" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="AU57" s="113"/>
       <c r="AV57" s="113"/>
       <c r="AW57" s="57" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="AX57" s="57"/>
       <c r="AY57" s="57"/>
@@ -24557,10 +24563,10 @@
     <row r="58" spans="1:53" ht="19">
       <c r="A58" s="108"/>
       <c r="B58" s="108" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C58" s="108" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D58" s="108"/>
       <c r="E58" s="108"/>
@@ -24605,12 +24611,12 @@
       <c r="AR58" s="113"/>
       <c r="AS58" s="113"/>
       <c r="AT58" s="113" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="AU58" s="113"/>
       <c r="AV58" s="113"/>
       <c r="AW58" s="57" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="AX58" s="57"/>
       <c r="AY58" s="57"/>
@@ -24620,10 +24626,10 @@
     <row r="59" spans="1:53" ht="19">
       <c r="A59" s="108"/>
       <c r="B59" s="113" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C59" s="113" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D59" s="108"/>
       <c r="E59" s="108"/>
@@ -24668,12 +24674,12 @@
       <c r="AR59" s="113"/>
       <c r="AS59" s="113"/>
       <c r="AT59" s="113" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="AU59" s="113"/>
       <c r="AV59" s="113"/>
       <c r="AW59" s="57" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="AX59" s="57"/>
       <c r="AY59" s="57"/>
@@ -24683,10 +24689,10 @@
     <row r="60" spans="1:53" ht="19">
       <c r="A60" s="108"/>
       <c r="B60" s="113" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C60" s="113" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D60" s="108"/>
       <c r="E60" s="108"/>
@@ -24731,12 +24737,12 @@
       <c r="AR60" s="113"/>
       <c r="AS60" s="113"/>
       <c r="AT60" s="113" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="AU60" s="113"/>
       <c r="AV60" s="113"/>
       <c r="AW60" s="57" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="AX60" s="57"/>
       <c r="AY60" s="57"/>
@@ -24746,10 +24752,10 @@
     <row r="61" spans="1:53" ht="19">
       <c r="A61" s="108"/>
       <c r="B61" s="113" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C61" s="113" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D61" s="108"/>
       <c r="E61" s="108"/>
@@ -24794,12 +24800,12 @@
       <c r="AR61" s="113"/>
       <c r="AS61" s="113"/>
       <c r="AT61" s="113" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="AU61" s="113"/>
       <c r="AV61" s="113"/>
       <c r="AW61" s="57" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AX61" s="57"/>
       <c r="AY61" s="57"/>
@@ -24809,10 +24815,10 @@
     <row r="62" spans="1:53" ht="19">
       <c r="A62" s="108"/>
       <c r="B62" s="113" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D62" s="108"/>
       <c r="E62" s="108"/>
@@ -24857,12 +24863,12 @@
       <c r="AR62" s="113"/>
       <c r="AS62" s="113"/>
       <c r="AT62" s="113" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AU62" s="113"/>
       <c r="AV62" s="113"/>
       <c r="AW62" s="57" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AX62" s="57"/>
       <c r="AY62" s="57"/>
@@ -24872,10 +24878,10 @@
     <row r="63" spans="1:53" ht="19">
       <c r="A63" s="108"/>
       <c r="B63" s="108" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C63" s="108" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D63" s="108"/>
       <c r="E63" s="108"/>
@@ -24920,12 +24926,12 @@
       <c r="AR63" s="113"/>
       <c r="AS63" s="113"/>
       <c r="AT63" s="113" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="AU63" s="113"/>
       <c r="AV63" s="113"/>
       <c r="AW63" s="57" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AX63" s="57"/>
       <c r="AY63" s="57"/>
@@ -24935,10 +24941,10 @@
     <row r="64" spans="1:53" ht="19">
       <c r="A64" s="108"/>
       <c r="B64" s="108" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C64" s="108" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D64" s="108"/>
       <c r="E64" s="108"/>
@@ -24983,12 +24989,12 @@
       <c r="AR64" s="113"/>
       <c r="AS64" s="113"/>
       <c r="AT64" s="113" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AU64" s="113"/>
       <c r="AV64" s="113"/>
       <c r="AW64" s="57" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AX64" s="57"/>
       <c r="AY64" s="57"/>
@@ -24998,10 +25004,10 @@
     <row r="65" spans="1:53" ht="19">
       <c r="A65" s="108"/>
       <c r="B65" s="113" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C65" s="113" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D65" s="108"/>
       <c r="E65" s="108"/>
@@ -25046,12 +25052,12 @@
       <c r="AR65" s="113"/>
       <c r="AS65" s="113"/>
       <c r="AT65" s="113" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AU65" s="113"/>
       <c r="AV65" s="113"/>
       <c r="AW65" s="57" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="AX65" s="57"/>
       <c r="AY65" s="57"/>
@@ -25061,10 +25067,10 @@
     <row r="66" spans="1:53" ht="19">
       <c r="A66" s="108"/>
       <c r="B66" s="108" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C66" s="108" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D66" s="108"/>
       <c r="E66" s="108"/>
@@ -25109,12 +25115,12 @@
       <c r="AR66" s="113"/>
       <c r="AS66" s="113"/>
       <c r="AT66" s="113" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AU66" s="113"/>
       <c r="AV66" s="113"/>
       <c r="AW66" s="57" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
@@ -25124,10 +25130,10 @@
     <row r="67" spans="1:53" ht="19">
       <c r="A67" s="108"/>
       <c r="B67" s="108" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C67" s="108" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D67" s="108"/>
       <c r="E67" s="108"/>
@@ -25172,12 +25178,12 @@
       <c r="AR67" s="113"/>
       <c r="AS67" s="113"/>
       <c r="AT67" s="113" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="AU67" s="113"/>
       <c r="AV67" s="113"/>
       <c r="AW67" s="57" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="AX67" s="57"/>
       <c r="AY67" s="57"/>
@@ -25187,10 +25193,10 @@
     <row r="68" spans="1:53" ht="19">
       <c r="A68" s="108"/>
       <c r="B68" s="113" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C68" s="113" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D68" s="108"/>
       <c r="E68" s="108"/>
@@ -25235,12 +25241,12 @@
       <c r="AR68" s="113"/>
       <c r="AS68" s="113"/>
       <c r="AT68" s="113" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AU68" s="113"/>
       <c r="AV68" s="113"/>
       <c r="AW68" s="57" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AX68" s="57"/>
       <c r="AY68" s="57"/>
@@ -25250,10 +25256,10 @@
     <row r="69" spans="1:53" ht="19">
       <c r="A69" s="108"/>
       <c r="B69" s="113" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C69" s="113" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D69" s="108"/>
       <c r="E69" s="108"/>
@@ -25298,12 +25304,12 @@
       <c r="AR69" s="113"/>
       <c r="AS69" s="113"/>
       <c r="AT69" s="113" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AU69" s="113"/>
       <c r="AV69" s="113"/>
       <c r="AW69" s="57" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AX69" s="57"/>
       <c r="AY69" s="57"/>
@@ -25313,10 +25319,10 @@
     <row r="70" spans="1:53" ht="19">
       <c r="A70" s="108"/>
       <c r="B70" s="108" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C70" s="108" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D70" s="108"/>
       <c r="E70" s="108"/>
@@ -25361,12 +25367,12 @@
       <c r="AR70" s="113"/>
       <c r="AS70" s="113"/>
       <c r="AT70" s="113" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AU70" s="113"/>
       <c r="AV70" s="113"/>
       <c r="AW70" s="57" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AX70" s="57"/>
       <c r="AY70" s="57"/>
@@ -25376,10 +25382,10 @@
     <row r="71" spans="1:53" ht="19">
       <c r="A71" s="108"/>
       <c r="B71" s="113" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C71" s="113" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D71" s="108"/>
       <c r="E71" s="108"/>
@@ -25424,12 +25430,12 @@
       <c r="AR71" s="113"/>
       <c r="AS71" s="113"/>
       <c r="AT71" s="113" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AU71" s="113"/>
       <c r="AV71" s="113"/>
       <c r="AW71" s="57" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AX71" s="57"/>
       <c r="AY71" s="57"/>
@@ -25439,10 +25445,10 @@
     <row r="72" spans="1:53" ht="19">
       <c r="A72" s="108"/>
       <c r="B72" s="113" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C72" s="113" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D72" s="108"/>
       <c r="E72" s="108"/>
@@ -25487,12 +25493,12 @@
       <c r="AR72" s="113"/>
       <c r="AS72" s="113"/>
       <c r="AT72" s="113" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AU72" s="113"/>
       <c r="AV72" s="113"/>
       <c r="AW72" s="57" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AX72" s="57"/>
       <c r="AY72" s="57"/>
@@ -25502,10 +25508,10 @@
     <row r="73" spans="1:53" ht="19">
       <c r="A73" s="108"/>
       <c r="B73" s="108" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C73" s="108" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -25550,12 +25556,12 @@
       <c r="AR73" s="113"/>
       <c r="AS73" s="113"/>
       <c r="AT73" s="113" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AU73" s="113"/>
       <c r="AV73" s="113"/>
       <c r="AW73" s="57" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AX73" s="57"/>
       <c r="AY73" s="57"/>
@@ -25565,10 +25571,10 @@
     <row r="74" spans="1:53" ht="19">
       <c r="A74" s="108"/>
       <c r="B74" s="113" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C74" s="113" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D74" s="108"/>
       <c r="E74" s="108"/>
@@ -25613,12 +25619,12 @@
       <c r="AR74" s="113"/>
       <c r="AS74" s="113"/>
       <c r="AT74" s="113" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AU74" s="113"/>
       <c r="AV74" s="113"/>
       <c r="AW74" s="57" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="AX74" s="57"/>
       <c r="AY74" s="57"/>
@@ -25628,10 +25634,10 @@
     <row r="75" spans="1:53" ht="19">
       <c r="A75" s="108"/>
       <c r="B75" s="108" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C75" s="108" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D75" s="108"/>
       <c r="E75" s="108"/>
@@ -25676,12 +25682,12 @@
       <c r="AR75" s="113"/>
       <c r="AS75" s="113"/>
       <c r="AT75" s="113" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AU75" s="113"/>
       <c r="AV75" s="113"/>
       <c r="AW75" s="57" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AX75" s="57"/>
       <c r="AY75" s="57"/>
@@ -25691,10 +25697,10 @@
     <row r="76" spans="1:53" ht="15.75" customHeight="1">
       <c r="A76" s="113"/>
       <c r="B76" s="108" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C76" s="108" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D76" s="113"/>
       <c r="E76" s="113"/>
@@ -25739,12 +25745,12 @@
       <c r="AR76" s="113"/>
       <c r="AS76" s="113"/>
       <c r="AT76" s="113" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AU76" s="113"/>
       <c r="AV76" s="113"/>
       <c r="AW76" s="57" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AX76" s="57"/>
       <c r="AY76" s="57"/>
@@ -25754,10 +25760,10 @@
     <row r="77" spans="1:53" ht="15.75" customHeight="1">
       <c r="A77" s="113"/>
       <c r="B77" s="108" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C77" s="108" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D77" s="113"/>
       <c r="E77" s="113"/>
@@ -25802,12 +25808,12 @@
       <c r="AR77" s="113"/>
       <c r="AS77" s="113"/>
       <c r="AT77" s="113" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AU77" s="113"/>
       <c r="AV77" s="113"/>
       <c r="AW77" s="57" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AX77" s="57"/>
       <c r="AY77" s="57"/>
@@ -25817,10 +25823,10 @@
     <row r="78" spans="1:53" ht="15.75" customHeight="1">
       <c r="A78" s="113"/>
       <c r="B78" s="108" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C78" s="108" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D78" s="113"/>
       <c r="E78" s="113"/>
@@ -25865,12 +25871,12 @@
       <c r="AR78" s="113"/>
       <c r="AS78" s="113"/>
       <c r="AT78" s="113" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AU78" s="113"/>
       <c r="AV78" s="113"/>
       <c r="AW78" s="57" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AX78" s="57"/>
       <c r="AY78" s="57"/>
@@ -25880,10 +25886,10 @@
     <row r="79" spans="1:53" ht="15.75" customHeight="1">
       <c r="A79" s="113"/>
       <c r="B79" s="108" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C79" s="108" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D79" s="113"/>
       <c r="E79" s="113"/>
@@ -25928,12 +25934,12 @@
       <c r="AR79" s="113"/>
       <c r="AS79" s="113"/>
       <c r="AT79" s="113" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AU79" s="113"/>
       <c r="AV79" s="113"/>
       <c r="AW79" s="57" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="AX79" s="57"/>
       <c r="AY79" s="57"/>
@@ -25943,10 +25949,10 @@
     <row r="80" spans="1:53" ht="15.75" customHeight="1">
       <c r="A80" s="113"/>
       <c r="B80" s="113" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C80" s="113" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D80" s="113"/>
       <c r="E80" s="113"/>
@@ -25991,12 +25997,12 @@
       <c r="AR80" s="113"/>
       <c r="AS80" s="113"/>
       <c r="AT80" s="113" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AU80" s="113"/>
       <c r="AV80" s="113"/>
       <c r="AW80" s="57" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AX80" s="57"/>
       <c r="AY80" s="57"/>
@@ -26006,10 +26012,10 @@
     <row r="81" spans="1:53" ht="15.75" customHeight="1">
       <c r="A81" s="113"/>
       <c r="B81" s="108" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C81" s="108" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D81" s="113"/>
       <c r="E81" s="113"/>
@@ -26054,12 +26060,12 @@
       <c r="AR81" s="113"/>
       <c r="AS81" s="113"/>
       <c r="AT81" s="113" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AU81" s="113"/>
       <c r="AV81" s="113"/>
       <c r="AW81" s="57" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AX81" s="57"/>
       <c r="AY81" s="57"/>
@@ -26069,10 +26075,10 @@
     <row r="82" spans="1:53" ht="15.75" customHeight="1">
       <c r="A82" s="113"/>
       <c r="B82" s="113" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C82" s="113" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D82" s="113"/>
       <c r="E82" s="113"/>
@@ -26117,12 +26123,12 @@
       <c r="AR82" s="113"/>
       <c r="AS82" s="113"/>
       <c r="AT82" s="113" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AU82" s="113"/>
       <c r="AV82" s="113"/>
       <c r="AW82" s="57" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="AX82" s="57"/>
       <c r="AY82" s="57"/>
@@ -26132,10 +26138,10 @@
     <row r="83" spans="1:53" ht="15.75" customHeight="1">
       <c r="A83" s="113"/>
       <c r="B83" s="108" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C83" s="108" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D83" s="113"/>
       <c r="E83" s="113"/>
@@ -26180,12 +26186,12 @@
       <c r="AR83" s="113"/>
       <c r="AS83" s="113"/>
       <c r="AT83" s="113" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AU83" s="113"/>
       <c r="AV83" s="113"/>
       <c r="AW83" s="57" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AX83" s="57"/>
       <c r="AY83" s="57"/>
@@ -26195,10 +26201,10 @@
     <row r="84" spans="1:53" ht="15.75" customHeight="1">
       <c r="A84" s="113"/>
       <c r="B84" s="108" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C84" s="108" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D84" s="113"/>
       <c r="E84" s="113"/>
@@ -26243,12 +26249,12 @@
       <c r="AR84" s="113"/>
       <c r="AS84" s="113"/>
       <c r="AT84" s="113" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AU84" s="113"/>
       <c r="AV84" s="113"/>
       <c r="AW84" s="57" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="AX84" s="57"/>
       <c r="AY84" s="57"/>
@@ -26258,10 +26264,10 @@
     <row r="85" spans="1:53" ht="15.75" customHeight="1">
       <c r="A85" s="113"/>
       <c r="B85" s="108" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C85" s="108" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D85" s="113"/>
       <c r="E85" s="113"/>
@@ -26306,7 +26312,7 @@
       <c r="AR85" s="113"/>
       <c r="AS85" s="113"/>
       <c r="AT85" s="113" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AU85" s="113"/>
       <c r="AV85" s="113"/>
@@ -26319,10 +26325,10 @@
     <row r="86" spans="1:53" ht="15.75" customHeight="1">
       <c r="A86" s="113"/>
       <c r="B86" s="108" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C86" s="108" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D86" s="113"/>
       <c r="E86" s="113"/>
@@ -26367,7 +26373,7 @@
       <c r="AR86" s="113"/>
       <c r="AS86" s="113"/>
       <c r="AT86" s="113" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AU86" s="113"/>
       <c r="AV86" s="113"/>
@@ -26380,10 +26386,10 @@
     <row r="87" spans="1:53" ht="15.75" customHeight="1">
       <c r="A87" s="113"/>
       <c r="B87" s="108" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C87" s="108" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D87" s="113"/>
       <c r="E87" s="113"/>
@@ -26428,7 +26434,7 @@
       <c r="AR87" s="113"/>
       <c r="AS87" s="113"/>
       <c r="AT87" s="113" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AU87" s="113"/>
       <c r="AV87" s="113"/>
@@ -26441,10 +26447,10 @@
     <row r="88" spans="1:53" ht="15.75" customHeight="1">
       <c r="A88" s="113"/>
       <c r="B88" s="108" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C88" s="108" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D88" s="113"/>
       <c r="E88" s="113"/>
@@ -26489,7 +26495,7 @@
       <c r="AR88" s="113"/>
       <c r="AS88" s="113"/>
       <c r="AT88" s="113" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AU88" s="113"/>
       <c r="AV88" s="113"/>
@@ -26502,10 +26508,10 @@
     <row r="89" spans="1:53" ht="15.75" customHeight="1">
       <c r="A89" s="113"/>
       <c r="B89" s="108" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C89" s="108" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D89" s="113"/>
       <c r="E89" s="113"/>
@@ -26550,7 +26556,7 @@
       <c r="AR89" s="113"/>
       <c r="AS89" s="113"/>
       <c r="AT89" s="113" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AU89" s="113"/>
       <c r="AV89" s="113"/>
@@ -26563,10 +26569,10 @@
     <row r="90" spans="1:53" ht="15.75" customHeight="1">
       <c r="A90" s="113"/>
       <c r="B90" s="108" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C90" s="108" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D90" s="113"/>
       <c r="E90" s="113"/>
@@ -26611,7 +26617,7 @@
       <c r="AR90" s="113"/>
       <c r="AS90" s="113"/>
       <c r="AT90" s="113" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AU90" s="113"/>
       <c r="AV90" s="113"/>
@@ -26624,10 +26630,10 @@
     <row r="91" spans="1:53" ht="15.75" customHeight="1">
       <c r="A91" s="113"/>
       <c r="B91" s="108" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C91" s="108" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D91" s="113"/>
       <c r="E91" s="113"/>
@@ -26672,7 +26678,7 @@
       <c r="AR91" s="113"/>
       <c r="AS91" s="113"/>
       <c r="AT91" s="113" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AU91" s="113"/>
       <c r="AV91" s="113"/>
@@ -26685,10 +26691,10 @@
     <row r="92" spans="1:53" ht="15.75" customHeight="1">
       <c r="A92" s="113"/>
       <c r="B92" s="108" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C92" s="108" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D92" s="113"/>
       <c r="E92" s="113"/>
@@ -26733,7 +26739,7 @@
       <c r="AR92" s="113"/>
       <c r="AS92" s="113"/>
       <c r="AT92" s="113" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AU92" s="113"/>
       <c r="AV92" s="113"/>
@@ -26746,10 +26752,10 @@
     <row r="93" spans="1:53" ht="15.75" customHeight="1">
       <c r="A93" s="113"/>
       <c r="B93" s="108" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C93" s="108" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D93" s="113"/>
       <c r="E93" s="113"/>
@@ -26794,7 +26800,7 @@
       <c r="AR93" s="113"/>
       <c r="AS93" s="113"/>
       <c r="AT93" s="113" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AU93" s="113"/>
       <c r="AV93" s="113"/>
@@ -26807,10 +26813,10 @@
     <row r="94" spans="1:53" ht="15.75" customHeight="1">
       <c r="A94" s="113"/>
       <c r="B94" s="108" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C94" s="108" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D94" s="113"/>
       <c r="E94" s="113"/>
@@ -26855,7 +26861,7 @@
       <c r="AR94" s="113"/>
       <c r="AS94" s="113"/>
       <c r="AT94" s="113" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AU94" s="113"/>
       <c r="AV94" s="113"/>
@@ -26868,10 +26874,10 @@
     <row r="95" spans="1:53" ht="15.75" customHeight="1">
       <c r="A95" s="113"/>
       <c r="B95" s="108" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C95" s="108" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D95" s="113"/>
       <c r="E95" s="113"/>
@@ -26916,7 +26922,7 @@
       <c r="AR95" s="113"/>
       <c r="AS95" s="113"/>
       <c r="AT95" s="113" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AU95" s="113"/>
       <c r="AV95" s="113"/>
@@ -26929,10 +26935,10 @@
     <row r="96" spans="1:53" ht="15.75" customHeight="1">
       <c r="A96" s="113"/>
       <c r="B96" s="113" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C96" s="113" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D96" s="113"/>
       <c r="E96" s="113"/>
@@ -26977,7 +26983,7 @@
       <c r="AR96" s="113"/>
       <c r="AS96" s="113"/>
       <c r="AT96" s="113" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AU96" s="113"/>
       <c r="AV96" s="113"/>
@@ -26990,10 +26996,10 @@
     <row r="97" spans="1:53" ht="15.75" customHeight="1">
       <c r="A97" s="113"/>
       <c r="B97" s="108" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C97" s="108" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D97" s="113"/>
       <c r="E97" s="113"/>
@@ -27038,7 +27044,7 @@
       <c r="AR97" s="113"/>
       <c r="AS97" s="113"/>
       <c r="AT97" s="113" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AU97" s="113"/>
       <c r="AV97" s="113"/>
@@ -27051,10 +27057,10 @@
     <row r="98" spans="1:53" ht="15.75" customHeight="1">
       <c r="A98" s="113"/>
       <c r="B98" s="113" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C98" s="113" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D98" s="113"/>
       <c r="E98" s="113"/>
@@ -27099,7 +27105,7 @@
       <c r="AR98" s="113"/>
       <c r="AS98" s="113"/>
       <c r="AT98" s="113" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AU98" s="113"/>
       <c r="AV98" s="113"/>
@@ -27112,10 +27118,10 @@
     <row r="99" spans="1:53" ht="15.75" customHeight="1">
       <c r="A99" s="113"/>
       <c r="B99" s="108" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C99" s="108" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D99" s="113"/>
       <c r="E99" s="113"/>
@@ -27160,7 +27166,7 @@
       <c r="AR99" s="113"/>
       <c r="AS99" s="113"/>
       <c r="AT99" s="113" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AU99" s="113"/>
       <c r="AV99" s="113"/>
@@ -27173,10 +27179,10 @@
     <row r="100" spans="1:53" ht="15.75" customHeight="1">
       <c r="A100" s="113"/>
       <c r="B100" s="108" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C100" s="108" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D100" s="113"/>
       <c r="E100" s="113"/>
@@ -27221,7 +27227,7 @@
       <c r="AR100" s="113"/>
       <c r="AS100" s="113"/>
       <c r="AT100" s="113" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AU100" s="113"/>
       <c r="AV100" s="113"/>
@@ -27234,10 +27240,10 @@
     <row r="101" spans="1:53" ht="15.75" customHeight="1">
       <c r="A101" s="113"/>
       <c r="B101" s="108" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C101" s="108" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D101" s="113"/>
       <c r="E101" s="113"/>
@@ -27282,7 +27288,7 @@
       <c r="AR101" s="113"/>
       <c r="AS101" s="113"/>
       <c r="AT101" s="113" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AU101" s="113"/>
       <c r="AV101" s="113"/>
@@ -27295,10 +27301,10 @@
     <row r="102" spans="1:53" ht="15.75" customHeight="1">
       <c r="A102" s="113"/>
       <c r="B102" s="108" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C102" s="108" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D102" s="113"/>
       <c r="E102" s="113"/>
@@ -27343,7 +27349,7 @@
       <c r="AR102" s="113"/>
       <c r="AS102" s="113"/>
       <c r="AT102" s="113" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AU102" s="113"/>
       <c r="AV102" s="113"/>
@@ -27356,10 +27362,10 @@
     <row r="103" spans="1:53" ht="15.75" customHeight="1">
       <c r="A103" s="113"/>
       <c r="B103" s="108" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C103" s="108" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D103" s="113"/>
       <c r="E103" s="113"/>
@@ -27404,7 +27410,7 @@
       <c r="AR103" s="113"/>
       <c r="AS103" s="113"/>
       <c r="AT103" s="113" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AU103" s="113"/>
       <c r="AV103" s="113"/>
@@ -27417,10 +27423,10 @@
     <row r="104" spans="1:53" ht="15.75" customHeight="1">
       <c r="A104" s="113"/>
       <c r="B104" s="108" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C104" s="108" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D104" s="113"/>
       <c r="E104" s="113"/>
@@ -27465,7 +27471,7 @@
       <c r="AR104" s="113"/>
       <c r="AS104" s="113"/>
       <c r="AT104" s="113" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AU104" s="113"/>
       <c r="AV104" s="113"/>
@@ -27478,10 +27484,10 @@
     <row r="105" spans="1:53" ht="15.75" customHeight="1">
       <c r="A105" s="113"/>
       <c r="B105" s="108" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C105" s="108" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D105" s="113"/>
       <c r="E105" s="113"/>
@@ -27526,7 +27532,7 @@
       <c r="AR105" s="113"/>
       <c r="AS105" s="113"/>
       <c r="AT105" s="113" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AU105" s="113"/>
       <c r="AV105" s="113"/>
@@ -27539,10 +27545,10 @@
     <row r="106" spans="1:53" ht="15.75" customHeight="1">
       <c r="A106" s="113"/>
       <c r="B106" s="108" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C106" s="108" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D106" s="113"/>
       <c r="E106" s="113"/>
@@ -27587,7 +27593,7 @@
       <c r="AR106" s="113"/>
       <c r="AS106" s="113"/>
       <c r="AT106" s="113" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AU106" s="113"/>
       <c r="AV106" s="113"/>
@@ -27600,10 +27606,10 @@
     <row r="107" spans="1:53" ht="15.75" customHeight="1">
       <c r="A107" s="113"/>
       <c r="B107" s="108" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C107" s="108" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D107" s="113"/>
       <c r="E107" s="113"/>
@@ -27648,7 +27654,7 @@
       <c r="AR107" s="113"/>
       <c r="AS107" s="113"/>
       <c r="AT107" s="113" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AU107" s="113"/>
       <c r="AV107" s="113"/>
@@ -27705,7 +27711,7 @@
       <c r="AR108" s="113"/>
       <c r="AS108" s="113"/>
       <c r="AT108" s="113" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AU108" s="113"/>
       <c r="AV108" s="113"/>
@@ -27762,7 +27768,7 @@
       <c r="AR109" s="113"/>
       <c r="AS109" s="113"/>
       <c r="AT109" s="113" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AU109" s="113"/>
       <c r="AV109" s="113"/>
@@ -27819,7 +27825,7 @@
       <c r="AR110" s="113"/>
       <c r="AS110" s="113"/>
       <c r="AT110" s="113" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AU110" s="113"/>
       <c r="AV110" s="113"/>
@@ -27876,7 +27882,7 @@
       <c r="AR111" s="113"/>
       <c r="AS111" s="113"/>
       <c r="AT111" s="113" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AU111" s="113"/>
       <c r="AV111" s="113"/>
@@ -27933,7 +27939,7 @@
       <c r="AR112" s="113"/>
       <c r="AS112" s="113"/>
       <c r="AT112" s="113" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AU112" s="113"/>
       <c r="AV112" s="113"/>
@@ -27990,7 +27996,7 @@
       <c r="AR113" s="113"/>
       <c r="AS113" s="113"/>
       <c r="AT113" s="113" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AU113" s="113"/>
       <c r="AV113" s="113"/>
@@ -28047,7 +28053,7 @@
       <c r="AR114" s="113"/>
       <c r="AS114" s="113"/>
       <c r="AT114" s="113" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AU114" s="113"/>
       <c r="AV114" s="113"/>
@@ -28104,7 +28110,7 @@
       <c r="AR115" s="113"/>
       <c r="AS115" s="113"/>
       <c r="AT115" s="113" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AU115" s="113"/>
       <c r="AV115" s="113"/>
@@ -28161,7 +28167,7 @@
       <c r="AR116" s="113"/>
       <c r="AS116" s="113"/>
       <c r="AT116" s="113" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AU116" s="113"/>
       <c r="AV116" s="113"/>
@@ -28218,7 +28224,7 @@
       <c r="AR117" s="113"/>
       <c r="AS117" s="113"/>
       <c r="AT117" s="113" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AU117" s="113"/>
       <c r="AV117" s="113"/>
@@ -28275,7 +28281,7 @@
       <c r="AR118" s="113"/>
       <c r="AS118" s="113"/>
       <c r="AT118" s="113" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AU118" s="113"/>
       <c r="AV118" s="113"/>
@@ -28332,7 +28338,7 @@
       <c r="AR119" s="113"/>
       <c r="AS119" s="113"/>
       <c r="AT119" s="113" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AU119" s="113"/>
       <c r="AV119" s="113"/>
@@ -28389,7 +28395,7 @@
       <c r="AR120" s="113"/>
       <c r="AS120" s="113"/>
       <c r="AT120" s="113" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AU120" s="113"/>
       <c r="AV120" s="113"/>
@@ -28446,7 +28452,7 @@
       <c r="AR121" s="113"/>
       <c r="AS121" s="113"/>
       <c r="AT121" s="113" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AU121" s="113"/>
       <c r="AV121" s="113"/>
@@ -28503,7 +28509,7 @@
       <c r="AR122" s="113"/>
       <c r="AS122" s="113"/>
       <c r="AT122" s="113" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AU122" s="113"/>
       <c r="AV122" s="113"/>
@@ -28560,7 +28566,7 @@
       <c r="AR123" s="113"/>
       <c r="AS123" s="113"/>
       <c r="AT123" s="113" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AU123" s="113"/>
       <c r="AV123" s="113"/>
@@ -28617,7 +28623,7 @@
       <c r="AR124" s="113"/>
       <c r="AS124" s="113"/>
       <c r="AT124" s="113" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AU124" s="113"/>
       <c r="AV124" s="113"/>
@@ -28674,7 +28680,7 @@
       <c r="AR125" s="113"/>
       <c r="AS125" s="113"/>
       <c r="AT125" s="113" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AU125" s="113"/>
       <c r="AV125" s="113"/>
@@ -28731,7 +28737,7 @@
       <c r="AR126" s="113"/>
       <c r="AS126" s="113"/>
       <c r="AT126" s="113" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AU126" s="113"/>
       <c r="AV126" s="113"/>
@@ -28788,7 +28794,7 @@
       <c r="AR127" s="113"/>
       <c r="AS127" s="113"/>
       <c r="AT127" s="113" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AU127" s="113"/>
       <c r="AV127" s="113"/>
@@ -28845,7 +28851,7 @@
       <c r="AR128" s="113"/>
       <c r="AS128" s="113"/>
       <c r="AT128" s="113" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AU128" s="113"/>
       <c r="AV128" s="113"/>
@@ -28902,7 +28908,7 @@
       <c r="AR129" s="113"/>
       <c r="AS129" s="113"/>
       <c r="AT129" s="113" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AU129" s="113"/>
       <c r="AV129" s="113"/>
@@ -28959,7 +28965,7 @@
       <c r="AR130" s="113"/>
       <c r="AS130" s="113"/>
       <c r="AT130" s="113" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AU130" s="113"/>
       <c r="AV130" s="113"/>
@@ -29016,7 +29022,7 @@
       <c r="AR131" s="113"/>
       <c r="AS131" s="113"/>
       <c r="AT131" s="113" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AU131" s="113"/>
       <c r="AV131" s="113"/>
@@ -29073,7 +29079,7 @@
       <c r="AR132" s="113"/>
       <c r="AS132" s="113"/>
       <c r="AT132" s="113" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AU132" s="113"/>
       <c r="AV132" s="113"/>
@@ -29130,7 +29136,7 @@
       <c r="AR133" s="113"/>
       <c r="AS133" s="113"/>
       <c r="AT133" s="113" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AU133" s="113"/>
       <c r="AV133" s="113"/>
@@ -29187,7 +29193,7 @@
       <c r="AR134" s="113"/>
       <c r="AS134" s="113"/>
       <c r="AT134" s="113" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AU134" s="113"/>
       <c r="AV134" s="113"/>
@@ -29244,7 +29250,7 @@
       <c r="AR135" s="113"/>
       <c r="AS135" s="113"/>
       <c r="AT135" s="113" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AU135" s="113"/>
       <c r="AV135" s="113"/>
@@ -29301,7 +29307,7 @@
       <c r="AR136" s="113"/>
       <c r="AS136" s="113"/>
       <c r="AT136" s="113" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AU136" s="113"/>
       <c r="AV136" s="113"/>
@@ -29358,7 +29364,7 @@
       <c r="AR137" s="113"/>
       <c r="AS137" s="113"/>
       <c r="AT137" s="113" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AU137" s="113"/>
       <c r="AV137" s="113"/>
@@ -29415,7 +29421,7 @@
       <c r="AR138" s="113"/>
       <c r="AS138" s="113"/>
       <c r="AT138" s="113" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AU138" s="113"/>
       <c r="AV138" s="113"/>
@@ -29472,7 +29478,7 @@
       <c r="AR139" s="113"/>
       <c r="AS139" s="113"/>
       <c r="AT139" s="113" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AU139" s="113"/>
       <c r="AV139" s="113"/>
@@ -29529,7 +29535,7 @@
       <c r="AR140" s="113"/>
       <c r="AS140" s="113"/>
       <c r="AT140" s="113" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AU140" s="113"/>
       <c r="AV140" s="113"/>
@@ -29586,7 +29592,7 @@
       <c r="AR141" s="113"/>
       <c r="AS141" s="113"/>
       <c r="AT141" s="113" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AU141" s="113"/>
       <c r="AV141" s="113"/>
@@ -29643,7 +29649,7 @@
       <c r="AR142" s="113"/>
       <c r="AS142" s="113"/>
       <c r="AT142" s="113" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AU142" s="113"/>
       <c r="AV142" s="113"/>
@@ -29700,7 +29706,7 @@
       <c r="AR143" s="113"/>
       <c r="AS143" s="113"/>
       <c r="AT143" s="113" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AU143" s="113"/>
       <c r="AV143" s="113"/>
@@ -29757,7 +29763,7 @@
       <c r="AR144" s="113"/>
       <c r="AS144" s="113"/>
       <c r="AT144" s="113" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AU144" s="113"/>
       <c r="AV144" s="113"/>
@@ -29814,7 +29820,7 @@
       <c r="AR145" s="113"/>
       <c r="AS145" s="113"/>
       <c r="AT145" s="113" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="AU145" s="113"/>
       <c r="AV145" s="113"/>
@@ -29871,7 +29877,7 @@
       <c r="AR146" s="113"/>
       <c r="AS146" s="113"/>
       <c r="AT146" s="113" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AU146" s="113"/>
       <c r="AV146" s="113"/>
@@ -29928,7 +29934,7 @@
       <c r="AR147" s="113"/>
       <c r="AS147" s="113"/>
       <c r="AT147" s="113" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AU147" s="113"/>
       <c r="AV147" s="113"/>
@@ -29985,7 +29991,7 @@
       <c r="AR148" s="113"/>
       <c r="AS148" s="113"/>
       <c r="AT148" s="113" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AU148" s="113"/>
       <c r="AV148" s="113"/>
@@ -30042,7 +30048,7 @@
       <c r="AR149" s="113"/>
       <c r="AS149" s="113"/>
       <c r="AT149" s="113" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AU149" s="113"/>
       <c r="AV149" s="113"/>
@@ -30099,7 +30105,7 @@
       <c r="AR150" s="113"/>
       <c r="AS150" s="113"/>
       <c r="AT150" s="113" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AU150" s="113"/>
       <c r="AV150" s="113"/>
@@ -30156,7 +30162,7 @@
       <c r="AR151" s="113"/>
       <c r="AS151" s="113"/>
       <c r="AT151" s="113" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="AU151" s="113"/>
       <c r="AV151" s="113"/>
@@ -30213,7 +30219,7 @@
       <c r="AR152" s="113"/>
       <c r="AS152" s="113"/>
       <c r="AT152" s="113" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="AU152" s="113"/>
       <c r="AV152" s="113"/>
@@ -30270,7 +30276,7 @@
       <c r="AR153" s="113"/>
       <c r="AS153" s="113"/>
       <c r="AT153" s="113" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AU153" s="113"/>
       <c r="AV153" s="113"/>
@@ -30327,7 +30333,7 @@
       <c r="AR154" s="113"/>
       <c r="AS154" s="113"/>
       <c r="AT154" s="113" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="AU154" s="113"/>
       <c r="AV154" s="113"/>
@@ -30384,7 +30390,7 @@
       <c r="AR155" s="113"/>
       <c r="AS155" s="113"/>
       <c r="AT155" s="113" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AU155" s="113"/>
       <c r="AV155" s="113"/>
@@ -30441,7 +30447,7 @@
       <c r="AR156" s="113"/>
       <c r="AS156" s="113"/>
       <c r="AT156" s="113" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AU156" s="113"/>
       <c r="AV156" s="113"/>
@@ -30498,7 +30504,7 @@
       <c r="AR157" s="113"/>
       <c r="AS157" s="113"/>
       <c r="AT157" s="113" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="AU157" s="113"/>
       <c r="AV157" s="113"/>
@@ -30555,7 +30561,7 @@
       <c r="AR158" s="113"/>
       <c r="AS158" s="113"/>
       <c r="AT158" s="113" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AU158" s="113"/>
       <c r="AV158" s="113"/>
@@ -30612,7 +30618,7 @@
       <c r="AR159" s="113"/>
       <c r="AS159" s="113"/>
       <c r="AT159" s="113" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="AU159" s="113"/>
       <c r="AV159" s="113"/>
@@ -30669,7 +30675,7 @@
       <c r="AR160" s="113"/>
       <c r="AS160" s="113"/>
       <c r="AT160" s="113" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AU160" s="113"/>
       <c r="AV160" s="113"/>
@@ -30726,7 +30732,7 @@
       <c r="AR161" s="113"/>
       <c r="AS161" s="113"/>
       <c r="AT161" s="113" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AU161" s="113"/>
       <c r="AV161" s="113"/>
@@ -30783,7 +30789,7 @@
       <c r="AR162" s="113"/>
       <c r="AS162" s="113"/>
       <c r="AT162" s="113" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="AU162" s="113"/>
       <c r="AV162" s="113"/>
@@ -30840,7 +30846,7 @@
       <c r="AR163" s="113"/>
       <c r="AS163" s="113"/>
       <c r="AT163" s="113" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AU163" s="113"/>
       <c r="AV163" s="113"/>
@@ -30897,7 +30903,7 @@
       <c r="AR164" s="113"/>
       <c r="AS164" s="113"/>
       <c r="AT164" s="113" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="AU164" s="113"/>
       <c r="AV164" s="113"/>
@@ -30954,7 +30960,7 @@
       <c r="AR165" s="113"/>
       <c r="AS165" s="113"/>
       <c r="AT165" s="113" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="AU165" s="113"/>
       <c r="AV165" s="113"/>
@@ -31011,7 +31017,7 @@
       <c r="AR166" s="113"/>
       <c r="AS166" s="113"/>
       <c r="AT166" s="113" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="AU166" s="113"/>
       <c r="AV166" s="113"/>
@@ -31068,7 +31074,7 @@
       <c r="AR167" s="113"/>
       <c r="AS167" s="113"/>
       <c r="AT167" s="113" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="AU167" s="113"/>
       <c r="AV167" s="113"/>
@@ -31125,7 +31131,7 @@
       <c r="AR168" s="113"/>
       <c r="AS168" s="113"/>
       <c r="AT168" s="113" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="AU168" s="113"/>
       <c r="AV168" s="113"/>
@@ -31182,7 +31188,7 @@
       <c r="AR169" s="113"/>
       <c r="AS169" s="113"/>
       <c r="AT169" s="113" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="AU169" s="113"/>
       <c r="AV169" s="113"/>
@@ -31239,7 +31245,7 @@
       <c r="AR170" s="113"/>
       <c r="AS170" s="113"/>
       <c r="AT170" s="113" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="AU170" s="113"/>
       <c r="AV170" s="113"/>
@@ -31296,7 +31302,7 @@
       <c r="AR171" s="113"/>
       <c r="AS171" s="113"/>
       <c r="AT171" s="113" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AU171" s="113"/>
       <c r="AV171" s="113"/>
@@ -31353,7 +31359,7 @@
       <c r="AR172" s="113"/>
       <c r="AS172" s="113"/>
       <c r="AT172" s="113" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="AU172" s="113"/>
       <c r="AV172" s="113"/>
@@ -31410,7 +31416,7 @@
       <c r="AR173" s="113"/>
       <c r="AS173" s="113"/>
       <c r="AT173" s="113" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="AU173" s="113"/>
       <c r="AV173" s="113"/>
@@ -31467,7 +31473,7 @@
       <c r="AR174" s="113"/>
       <c r="AS174" s="113"/>
       <c r="AT174" s="113" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="AU174" s="113"/>
       <c r="AV174" s="113"/>
@@ -31524,7 +31530,7 @@
       <c r="AR175" s="113"/>
       <c r="AS175" s="113"/>
       <c r="AT175" s="113" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="AU175" s="113"/>
       <c r="AV175" s="113"/>
@@ -31581,7 +31587,7 @@
       <c r="AR176" s="113"/>
       <c r="AS176" s="113"/>
       <c r="AT176" s="113" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="AU176" s="113"/>
       <c r="AV176" s="113"/>
@@ -31638,7 +31644,7 @@
       <c r="AR177" s="113"/>
       <c r="AS177" s="113"/>
       <c r="AT177" s="113" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="AU177" s="113"/>
       <c r="AV177" s="113"/>
@@ -31695,7 +31701,7 @@
       <c r="AR178" s="113"/>
       <c r="AS178" s="113"/>
       <c r="AT178" s="113" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="AU178" s="113"/>
       <c r="AV178" s="113"/>
@@ -31752,7 +31758,7 @@
       <c r="AR179" s="113"/>
       <c r="AS179" s="113"/>
       <c r="AT179" s="113" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="AU179" s="113"/>
       <c r="AV179" s="113"/>
@@ -31809,7 +31815,7 @@
       <c r="AR180" s="113"/>
       <c r="AS180" s="113"/>
       <c r="AT180" s="113" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AU180" s="113"/>
       <c r="AV180" s="113"/>
@@ -31866,7 +31872,7 @@
       <c r="AR181" s="113"/>
       <c r="AS181" s="113"/>
       <c r="AT181" s="113" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AU181" s="113"/>
       <c r="AV181" s="113"/>
@@ -31923,7 +31929,7 @@
       <c r="AR182" s="113"/>
       <c r="AS182" s="113"/>
       <c r="AT182" s="113" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AU182" s="113"/>
       <c r="AV182" s="113"/>
@@ -31980,7 +31986,7 @@
       <c r="AR183" s="113"/>
       <c r="AS183" s="113"/>
       <c r="AT183" s="113" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="AU183" s="113"/>
       <c r="AV183" s="113"/>
@@ -32037,7 +32043,7 @@
       <c r="AR184" s="113"/>
       <c r="AS184" s="113"/>
       <c r="AT184" s="113" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AU184" s="113"/>
       <c r="AV184" s="113"/>
@@ -32094,7 +32100,7 @@
       <c r="AR185" s="113"/>
       <c r="AS185" s="113"/>
       <c r="AT185" s="113" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AU185" s="113"/>
       <c r="AV185" s="113"/>
@@ -32151,7 +32157,7 @@
       <c r="AR186" s="113"/>
       <c r="AS186" s="113"/>
       <c r="AT186" s="113" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AU186" s="113"/>
       <c r="AV186" s="113"/>
@@ -32208,7 +32214,7 @@
       <c r="AR187" s="113"/>
       <c r="AS187" s="113"/>
       <c r="AT187" s="113" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="AU187" s="113"/>
       <c r="AV187" s="113"/>
@@ -32265,7 +32271,7 @@
       <c r="AR188" s="113"/>
       <c r="AS188" s="113"/>
       <c r="AT188" s="113" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AU188" s="113"/>
       <c r="AV188" s="113"/>
@@ -32322,7 +32328,7 @@
       <c r="AR189" s="113"/>
       <c r="AS189" s="113"/>
       <c r="AT189" s="113" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AU189" s="113"/>
       <c r="AV189" s="113"/>
@@ -32379,7 +32385,7 @@
       <c r="AR190" s="113"/>
       <c r="AS190" s="113"/>
       <c r="AT190" s="113" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AU190" s="113"/>
       <c r="AV190" s="113"/>
@@ -32436,7 +32442,7 @@
       <c r="AR191" s="113"/>
       <c r="AS191" s="113"/>
       <c r="AT191" s="113" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AU191" s="113"/>
       <c r="AV191" s="113"/>
@@ -32493,7 +32499,7 @@
       <c r="AR192" s="113"/>
       <c r="AS192" s="113"/>
       <c r="AT192" s="113" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AU192" s="113"/>
       <c r="AV192" s="113"/>
@@ -32550,7 +32556,7 @@
       <c r="AR193" s="113"/>
       <c r="AS193" s="113"/>
       <c r="AT193" s="113" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="AU193" s="113"/>
       <c r="AV193" s="113"/>
@@ -32607,7 +32613,7 @@
       <c r="AR194" s="113"/>
       <c r="AS194" s="113"/>
       <c r="AT194" s="113" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AU194" s="113"/>
       <c r="AV194" s="113"/>
@@ -32664,7 +32670,7 @@
       <c r="AR195" s="113"/>
       <c r="AS195" s="113"/>
       <c r="AT195" s="113" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="AU195" s="113"/>
       <c r="AV195" s="113"/>
@@ -32721,7 +32727,7 @@
       <c r="AR196" s="113"/>
       <c r="AS196" s="113"/>
       <c r="AT196" s="113" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AU196" s="113"/>
       <c r="AV196" s="113"/>
@@ -32778,7 +32784,7 @@
       <c r="AR197" s="113"/>
       <c r="AS197" s="113"/>
       <c r="AT197" s="113" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AU197" s="113"/>
       <c r="AV197" s="113"/>
@@ -32835,7 +32841,7 @@
       <c r="AR198" s="113"/>
       <c r="AS198" s="113"/>
       <c r="AT198" s="113" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="AU198" s="113"/>
       <c r="AV198" s="113"/>
@@ -32892,7 +32898,7 @@
       <c r="AR199" s="113"/>
       <c r="AS199" s="113"/>
       <c r="AT199" s="113" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AU199" s="113"/>
       <c r="AV199" s="113"/>
@@ -32949,7 +32955,7 @@
       <c r="AR200" s="113"/>
       <c r="AS200" s="113"/>
       <c r="AT200" s="113" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="AU200" s="113"/>
       <c r="AV200" s="113"/>
@@ -33006,7 +33012,7 @@
       <c r="AR201" s="113"/>
       <c r="AS201" s="113"/>
       <c r="AT201" s="113" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="AU201" s="113"/>
       <c r="AV201" s="113"/>
@@ -33063,7 +33069,7 @@
       <c r="AR202" s="113"/>
       <c r="AS202" s="113"/>
       <c r="AT202" s="113" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="AU202" s="113"/>
       <c r="AV202" s="113"/>
@@ -33120,7 +33126,7 @@
       <c r="AR203" s="113"/>
       <c r="AS203" s="113"/>
       <c r="AT203" s="113" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AU203" s="113"/>
       <c r="AV203" s="113"/>
@@ -33177,7 +33183,7 @@
       <c r="AR204" s="113"/>
       <c r="AS204" s="113"/>
       <c r="AT204" s="113" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="AU204" s="113"/>
       <c r="AV204" s="113"/>
@@ -33234,7 +33240,7 @@
       <c r="AR205" s="113"/>
       <c r="AS205" s="113"/>
       <c r="AT205" s="113" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="AU205" s="113"/>
       <c r="AV205" s="113"/>
@@ -33291,7 +33297,7 @@
       <c r="AR206" s="113"/>
       <c r="AS206" s="113"/>
       <c r="AT206" s="113" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="AU206" s="113"/>
       <c r="AV206" s="113"/>
@@ -33348,7 +33354,7 @@
       <c r="AR207" s="113"/>
       <c r="AS207" s="113"/>
       <c r="AT207" s="113" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="AU207" s="113"/>
       <c r="AV207" s="113"/>
@@ -33405,7 +33411,7 @@
       <c r="AR208" s="113"/>
       <c r="AS208" s="113"/>
       <c r="AT208" s="113" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AU208" s="113"/>
       <c r="AV208" s="113"/>
@@ -33462,7 +33468,7 @@
       <c r="AR209" s="113"/>
       <c r="AS209" s="113"/>
       <c r="AT209" s="113" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AU209" s="113"/>
       <c r="AV209" s="113"/>
@@ -33519,7 +33525,7 @@
       <c r="AR210" s="113"/>
       <c r="AS210" s="113"/>
       <c r="AT210" s="113" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AU210" s="113"/>
       <c r="AV210" s="113"/>
@@ -33576,7 +33582,7 @@
       <c r="AR211" s="113"/>
       <c r="AS211" s="113"/>
       <c r="AT211" s="113" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="AU211" s="113"/>
       <c r="AV211" s="113"/>
@@ -33633,7 +33639,7 @@
       <c r="AR212" s="113"/>
       <c r="AS212" s="113"/>
       <c r="AT212" s="113" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="AU212" s="113"/>
       <c r="AV212" s="113"/>
@@ -33690,7 +33696,7 @@
       <c r="AR213" s="113"/>
       <c r="AS213" s="113"/>
       <c r="AT213" s="113" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="AU213" s="113"/>
       <c r="AV213" s="113"/>
@@ -33747,7 +33753,7 @@
       <c r="AR214" s="113"/>
       <c r="AS214" s="113"/>
       <c r="AT214" s="113" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="AU214" s="113"/>
       <c r="AV214" s="113"/>
@@ -33804,7 +33810,7 @@
       <c r="AR215" s="113"/>
       <c r="AS215" s="113"/>
       <c r="AT215" s="113" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="AU215" s="113"/>
       <c r="AV215" s="113"/>
@@ -33861,7 +33867,7 @@
       <c r="AR216" s="113"/>
       <c r="AS216" s="113"/>
       <c r="AT216" s="113" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="AU216" s="113"/>
       <c r="AV216" s="113"/>
@@ -33918,7 +33924,7 @@
       <c r="AR217" s="113"/>
       <c r="AS217" s="113"/>
       <c r="AT217" s="113" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AU217" s="113"/>
       <c r="AV217" s="113"/>
@@ -33975,7 +33981,7 @@
       <c r="AR218" s="113"/>
       <c r="AS218" s="113"/>
       <c r="AT218" s="113" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="AU218" s="113"/>
       <c r="AV218" s="113"/>
@@ -34032,7 +34038,7 @@
       <c r="AR219" s="113"/>
       <c r="AS219" s="113"/>
       <c r="AT219" s="113" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="AU219" s="113"/>
       <c r="AV219" s="113"/>
@@ -34089,7 +34095,7 @@
       <c r="AR220" s="113"/>
       <c r="AS220" s="113"/>
       <c r="AT220" s="113" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="AU220" s="113"/>
       <c r="AV220" s="113"/>
@@ -34146,7 +34152,7 @@
       <c r="AR221" s="113"/>
       <c r="AS221" s="113"/>
       <c r="AT221" s="113" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="AU221" s="113"/>
       <c r="AV221" s="113"/>
@@ -34203,7 +34209,7 @@
       <c r="AR222" s="113"/>
       <c r="AS222" s="113"/>
       <c r="AT222" s="113" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="AU222" s="113"/>
       <c r="AV222" s="113"/>
@@ -34260,7 +34266,7 @@
       <c r="AR223" s="113"/>
       <c r="AS223" s="113"/>
       <c r="AT223" s="113" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AU223" s="113"/>
       <c r="AV223" s="113"/>
@@ -34317,7 +34323,7 @@
       <c r="AR224" s="113"/>
       <c r="AS224" s="113"/>
       <c r="AT224" s="113" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="AU224" s="113"/>
       <c r="AV224" s="113"/>
@@ -34374,7 +34380,7 @@
       <c r="AR225" s="113"/>
       <c r="AS225" s="113"/>
       <c r="AT225" s="113" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="AU225" s="113"/>
       <c r="AV225" s="113"/>
@@ -34431,7 +34437,7 @@
       <c r="AR226" s="113"/>
       <c r="AS226" s="113"/>
       <c r="AT226" s="113" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="AU226" s="113"/>
       <c r="AV226" s="113"/>
@@ -34488,7 +34494,7 @@
       <c r="AR227" s="113"/>
       <c r="AS227" s="113"/>
       <c r="AT227" s="113" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="AU227" s="113"/>
       <c r="AV227" s="113"/>
@@ -34545,7 +34551,7 @@
       <c r="AR228" s="113"/>
       <c r="AS228" s="113"/>
       <c r="AT228" s="113" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AU228" s="113"/>
       <c r="AV228" s="113"/>
@@ -34602,7 +34608,7 @@
       <c r="AR229" s="113"/>
       <c r="AS229" s="113"/>
       <c r="AT229" s="113" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="AU229" s="113"/>
       <c r="AV229" s="113"/>
@@ -34659,7 +34665,7 @@
       <c r="AR230" s="113"/>
       <c r="AS230" s="113"/>
       <c r="AT230" s="113" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="AU230" s="113"/>
       <c r="AV230" s="113"/>
@@ -34716,7 +34722,7 @@
       <c r="AR231" s="113"/>
       <c r="AS231" s="113"/>
       <c r="AT231" s="113" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AU231" s="113"/>
       <c r="AV231" s="113"/>
@@ -34773,7 +34779,7 @@
       <c r="AR232" s="113"/>
       <c r="AS232" s="113"/>
       <c r="AT232" s="113" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AU232" s="113"/>
       <c r="AV232" s="113"/>
@@ -34830,7 +34836,7 @@
       <c r="AR233" s="113"/>
       <c r="AS233" s="113"/>
       <c r="AT233" s="113" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AU233" s="113"/>
       <c r="AV233" s="113"/>
@@ -34887,7 +34893,7 @@
       <c r="AR234" s="113"/>
       <c r="AS234" s="113"/>
       <c r="AT234" s="113" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AU234" s="113"/>
       <c r="AV234" s="113"/>
@@ -34944,7 +34950,7 @@
       <c r="AR235" s="113"/>
       <c r="AS235" s="113"/>
       <c r="AT235" s="113" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AU235" s="113"/>
       <c r="AV235" s="113"/>
@@ -35001,7 +35007,7 @@
       <c r="AR236" s="113"/>
       <c r="AS236" s="113"/>
       <c r="AT236" s="113" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AU236" s="113"/>
       <c r="AV236" s="113"/>
@@ -35058,7 +35064,7 @@
       <c r="AR237" s="113"/>
       <c r="AS237" s="113"/>
       <c r="AT237" s="113" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AU237" s="113"/>
       <c r="AV237" s="113"/>
@@ -35115,7 +35121,7 @@
       <c r="AR238" s="113"/>
       <c r="AS238" s="113"/>
       <c r="AT238" s="113" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AU238" s="113"/>
       <c r="AV238" s="113"/>
@@ -35172,7 +35178,7 @@
       <c r="AR239" s="113"/>
       <c r="AS239" s="113"/>
       <c r="AT239" s="113" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="AU239" s="113"/>
       <c r="AV239" s="113"/>
@@ -35229,7 +35235,7 @@
       <c r="AR240" s="113"/>
       <c r="AS240" s="113"/>
       <c r="AT240" s="113" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="AU240" s="113"/>
       <c r="AV240" s="113"/>
@@ -35286,7 +35292,7 @@
       <c r="AR241" s="113"/>
       <c r="AS241" s="113"/>
       <c r="AT241" s="113" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="AU241" s="113"/>
       <c r="AV241" s="113"/>
@@ -35343,7 +35349,7 @@
       <c r="AR242" s="113"/>
       <c r="AS242" s="113"/>
       <c r="AT242" s="113" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="AU242" s="113"/>
       <c r="AV242" s="113"/>
@@ -35400,7 +35406,7 @@
       <c r="AR243" s="113"/>
       <c r="AS243" s="113"/>
       <c r="AT243" s="113" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="AU243" s="113"/>
       <c r="AV243" s="113"/>
@@ -35457,7 +35463,7 @@
       <c r="AR244" s="113"/>
       <c r="AS244" s="113"/>
       <c r="AT244" s="113" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="AU244" s="113"/>
       <c r="AV244" s="113"/>
@@ -35514,7 +35520,7 @@
       <c r="AR245" s="113"/>
       <c r="AS245" s="113"/>
       <c r="AT245" s="113" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="AU245" s="113"/>
       <c r="AV245" s="113"/>
@@ -35571,7 +35577,7 @@
       <c r="AR246" s="113"/>
       <c r="AS246" s="113"/>
       <c r="AT246" s="113" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AU246" s="113"/>
       <c r="AV246" s="113"/>
@@ -35628,7 +35634,7 @@
       <c r="AR247" s="113"/>
       <c r="AS247" s="113"/>
       <c r="AT247" s="113" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="AU247" s="113"/>
       <c r="AV247" s="113"/>
@@ -35685,7 +35691,7 @@
       <c r="AR248" s="113"/>
       <c r="AS248" s="113"/>
       <c r="AT248" s="113" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="AU248" s="113"/>
       <c r="AV248" s="113"/>
@@ -35742,7 +35748,7 @@
       <c r="AR249" s="113"/>
       <c r="AS249" s="113"/>
       <c r="AT249" s="113" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="AU249" s="113"/>
       <c r="AV249" s="113"/>
@@ -35799,7 +35805,7 @@
       <c r="AR250" s="113"/>
       <c r="AS250" s="113"/>
       <c r="AT250" s="113" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="AU250" s="113"/>
       <c r="AV250" s="113"/>
@@ -35856,7 +35862,7 @@
       <c r="AR251" s="113"/>
       <c r="AS251" s="113"/>
       <c r="AT251" s="113" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AU251" s="113"/>
       <c r="AV251" s="113"/>
@@ -35913,7 +35919,7 @@
       <c r="AR252" s="113"/>
       <c r="AS252" s="113"/>
       <c r="AT252" s="113" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AU252" s="113"/>
       <c r="AV252" s="113"/>
@@ -35970,7 +35976,7 @@
       <c r="AR253" s="113"/>
       <c r="AS253" s="113"/>
       <c r="AT253" s="113" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="AU253" s="113"/>
       <c r="AV253" s="113"/>
@@ -36027,7 +36033,7 @@
       <c r="AR254" s="113"/>
       <c r="AS254" s="113"/>
       <c r="AT254" s="113" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="AU254" s="113"/>
       <c r="AV254" s="113"/>
@@ -36084,7 +36090,7 @@
       <c r="AR255" s="113"/>
       <c r="AS255" s="113"/>
       <c r="AT255" s="113" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AU255" s="113"/>
       <c r="AV255" s="113"/>
@@ -36141,7 +36147,7 @@
       <c r="AR256" s="113"/>
       <c r="AS256" s="113"/>
       <c r="AT256" s="113" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="AU256" s="113"/>
       <c r="AV256" s="113"/>
@@ -36198,7 +36204,7 @@
       <c r="AR257" s="113"/>
       <c r="AS257" s="113"/>
       <c r="AT257" s="113" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AU257" s="113"/>
       <c r="AV257" s="113"/>
@@ -36255,7 +36261,7 @@
       <c r="AR258" s="113"/>
       <c r="AS258" s="113"/>
       <c r="AT258" s="113" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="AU258" s="113"/>
       <c r="AV258" s="113"/>
@@ -36312,7 +36318,7 @@
       <c r="AR259" s="113"/>
       <c r="AS259" s="113"/>
       <c r="AT259" s="113" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AU259" s="113"/>
       <c r="AV259" s="113"/>
@@ -36369,7 +36375,7 @@
       <c r="AR260" s="113"/>
       <c r="AS260" s="113"/>
       <c r="AT260" s="113" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AU260" s="113"/>
       <c r="AV260" s="113"/>
@@ -36426,7 +36432,7 @@
       <c r="AR261" s="113"/>
       <c r="AS261" s="113"/>
       <c r="AT261" s="113" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AU261" s="113"/>
       <c r="AV261" s="113"/>
@@ -36483,7 +36489,7 @@
       <c r="AR262" s="113"/>
       <c r="AS262" s="113"/>
       <c r="AT262" s="113" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AU262" s="113"/>
       <c r="AV262" s="113"/>
@@ -36540,7 +36546,7 @@
       <c r="AR263" s="113"/>
       <c r="AS263" s="113"/>
       <c r="AT263" s="113" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AU263" s="113"/>
       <c r="AV263" s="113"/>
@@ -36597,7 +36603,7 @@
       <c r="AR264" s="113"/>
       <c r="AS264" s="113"/>
       <c r="AT264" s="113" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AU264" s="113"/>
       <c r="AV264" s="113"/>
@@ -36654,7 +36660,7 @@
       <c r="AR265" s="113"/>
       <c r="AS265" s="113"/>
       <c r="AT265" s="113" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="AU265" s="113"/>
       <c r="AV265" s="113"/>
@@ -36711,7 +36717,7 @@
       <c r="AR266" s="113"/>
       <c r="AS266" s="113"/>
       <c r="AT266" s="113" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AU266" s="113"/>
       <c r="AV266" s="113"/>
@@ -36768,7 +36774,7 @@
       <c r="AR267" s="113"/>
       <c r="AS267" s="113"/>
       <c r="AT267" s="113" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="AU267" s="113"/>
       <c r="AV267" s="113"/>
@@ -36825,7 +36831,7 @@
       <c r="AR268" s="113"/>
       <c r="AS268" s="113"/>
       <c r="AT268" s="113" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="AU268" s="113"/>
       <c r="AV268" s="113"/>
@@ -36882,7 +36888,7 @@
       <c r="AR269" s="113"/>
       <c r="AS269" s="113"/>
       <c r="AT269" s="113" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="AU269" s="113"/>
       <c r="AV269" s="113"/>
@@ -36939,7 +36945,7 @@
       <c r="AR270" s="113"/>
       <c r="AS270" s="113"/>
       <c r="AT270" s="113" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AU270" s="113"/>
       <c r="AV270" s="113"/>
@@ -36996,7 +37002,7 @@
       <c r="AR271" s="113"/>
       <c r="AS271" s="113"/>
       <c r="AT271" s="113" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="AU271" s="113"/>
       <c r="AV271" s="113"/>
@@ -37053,7 +37059,7 @@
       <c r="AR272" s="113"/>
       <c r="AS272" s="113"/>
       <c r="AT272" s="113" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AU272" s="113"/>
       <c r="AV272" s="113"/>
@@ -37110,7 +37116,7 @@
       <c r="AR273" s="113"/>
       <c r="AS273" s="113"/>
       <c r="AT273" s="113" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="AU273" s="113"/>
       <c r="AV273" s="113"/>
@@ -37167,7 +37173,7 @@
       <c r="AR274" s="113"/>
       <c r="AS274" s="113"/>
       <c r="AT274" s="113" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AU274" s="113"/>
       <c r="AV274" s="113"/>
@@ -37224,7 +37230,7 @@
       <c r="AR275" s="113"/>
       <c r="AS275" s="113"/>
       <c r="AT275" s="113" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AU275" s="113"/>
       <c r="AV275" s="113"/>
@@ -37281,7 +37287,7 @@
       <c r="AR276" s="113"/>
       <c r="AS276" s="113"/>
       <c r="AT276" s="113" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AU276" s="113"/>
       <c r="AV276" s="113"/>
@@ -37338,7 +37344,7 @@
       <c r="AR277" s="113"/>
       <c r="AS277" s="113"/>
       <c r="AT277" s="113" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AU277" s="113"/>
       <c r="AV277" s="113"/>
@@ -37395,7 +37401,7 @@
       <c r="AR278" s="113"/>
       <c r="AS278" s="113"/>
       <c r="AT278" s="113" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AU278" s="113"/>
       <c r="AV278" s="113"/>
@@ -37452,7 +37458,7 @@
       <c r="AR279" s="113"/>
       <c r="AS279" s="113"/>
       <c r="AT279" s="113" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AU279" s="113"/>
       <c r="AV279" s="113"/>
@@ -37509,7 +37515,7 @@
       <c r="AR280" s="113"/>
       <c r="AS280" s="113"/>
       <c r="AT280" s="113" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AU280" s="113"/>
       <c r="AV280" s="113"/>
@@ -37566,7 +37572,7 @@
       <c r="AR281" s="113"/>
       <c r="AS281" s="113"/>
       <c r="AT281" s="113" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AU281" s="113"/>
       <c r="AV281" s="113"/>
@@ -37623,7 +37629,7 @@
       <c r="AR282" s="113"/>
       <c r="AS282" s="113"/>
       <c r="AT282" s="113" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AU282" s="113"/>
       <c r="AV282" s="113"/>
@@ -37680,7 +37686,7 @@
       <c r="AR283" s="113"/>
       <c r="AS283" s="113"/>
       <c r="AT283" s="113" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AU283" s="113"/>
       <c r="AV283" s="113"/>
@@ -37737,7 +37743,7 @@
       <c r="AR284" s="113"/>
       <c r="AS284" s="113"/>
       <c r="AT284" s="113" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AU284" s="113"/>
       <c r="AV284" s="113"/>
@@ -37794,7 +37800,7 @@
       <c r="AR285" s="113"/>
       <c r="AS285" s="113"/>
       <c r="AT285" s="113" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AU285" s="113"/>
       <c r="AV285" s="113"/>
@@ -37851,7 +37857,7 @@
       <c r="AR286" s="113"/>
       <c r="AS286" s="113"/>
       <c r="AT286" s="113" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AU286" s="113"/>
       <c r="AV286" s="113"/>
@@ -37908,7 +37914,7 @@
       <c r="AR287" s="113"/>
       <c r="AS287" s="113"/>
       <c r="AT287" s="113" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AU287" s="113"/>
       <c r="AV287" s="113"/>
@@ -37965,7 +37971,7 @@
       <c r="AR288" s="113"/>
       <c r="AS288" s="113"/>
       <c r="AT288" s="113" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AU288" s="113"/>
       <c r="AV288" s="113"/>
@@ -38022,7 +38028,7 @@
       <c r="AR289" s="113"/>
       <c r="AS289" s="113"/>
       <c r="AT289" s="113" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AU289" s="113"/>
       <c r="AV289" s="113"/>
@@ -38079,7 +38085,7 @@
       <c r="AR290" s="113"/>
       <c r="AS290" s="113"/>
       <c r="AT290" s="113" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="AU290" s="113"/>
       <c r="AV290" s="113"/>
@@ -39072,16 +39078,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>70</v>
@@ -39092,16 +39098,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -39109,16 +39115,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C3" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -39126,16 +39132,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C4" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D4" t="s">
         <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -39143,16 +39149,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C5" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -39160,16 +39166,16 @@
         <v>18</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -39177,16 +39183,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -39194,16 +39200,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C8" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D8" t="s">
         <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -39211,16 +39217,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -39228,16 +39234,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C10" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -39245,16 +39251,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C11" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D11" t="s">
         <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
   </sheetData>
@@ -39267,15 +39273,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -39283,16 +39289,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -39300,7 +39306,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -39314,7 +39320,7 @@
         <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -39322,7 +39328,7 @@
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -39330,7 +39336,7 @@
         <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -39338,7 +39344,7 @@
         <v>252</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -39346,7 +39352,7 @@
         <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -39354,7 +39360,7 @@
         <v>473</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -39362,7 +39368,7 @@
         <v>553</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -39370,7 +39376,7 @@
         <v>571</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -39378,7 +39384,7 @@
         <v>673</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -39386,7 +39392,7 @@
         <v>684</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -39394,22 +39400,35 @@
         <v>717</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" thickBot="1">
       <c r="A14" t="s">
         <v>558</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C14" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="3"/>
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="150" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" thickTop="1">
+      <c r="A16" s="162" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>823</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39435,10 +39454,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="50" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -39448,12 +39467,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
   </sheetData>
@@ -39486,10 +39505,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
@@ -39497,21 +39516,21 @@
         <v>30</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1">
@@ -39519,43 +39538,43 @@
         <v>143</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1">
       <c r="A5" s="55" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
@@ -39563,7 +39582,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C8" s="56"/>
     </row>
@@ -39572,16 +39591,16 @@
         <v>109</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C10" s="56"/>
     </row>
@@ -39590,63 +39609,63 @@
         <v>271</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
@@ -39654,21 +39673,21 @@
         <v>736</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1">
       <c r="A18" s="55" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1">
@@ -39676,25 +39695,25 @@
         <v>425</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C19" s="56"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1">
       <c r="A20" s="51" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C20" s="56"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
       <c r="A21" s="55" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C21" s="56"/>
     </row>
@@ -39703,41 +39722,41 @@
         <v>413</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1">
       <c r="A25" s="55" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1">
@@ -39745,10 +39764,10 @@
         <v>223</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1">
@@ -39756,10 +39775,10 @@
         <v>436</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1">
@@ -39767,10 +39786,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1">
@@ -39778,10 +39797,10 @@
         <v>655</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1">
@@ -39789,43 +39808,43 @@
         <v>745</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1">
       <c r="A31" s="55" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1">
       <c r="A32" s="51" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1">
       <c r="A33" s="55" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1">
@@ -39833,21 +39852,21 @@
         <v>124</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1">
       <c r="A35" s="82" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1">
@@ -39855,7 +39874,7 @@
         <v>758</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C36" s="83"/>
     </row>
@@ -39864,7 +39883,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C37" s="56"/>
     </row>
@@ -39873,7 +39892,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C38" s="83"/>
     </row>
@@ -39882,7 +39901,7 @@
         <v>137</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C39" s="56"/>
     </row>
@@ -39891,7 +39910,7 @@
         <v>150</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C40" s="56"/>
     </row>
@@ -39900,52 +39919,52 @@
         <v>161</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C41" s="56"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1">
       <c r="A42" s="82" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B42" s="82" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C42" s="83"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="55" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C43" s="56"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1">
       <c r="A44" s="55" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C44" s="56"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1">
       <c r="A45" s="55" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C45" s="56"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="55" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C46" s="56"/>
     </row>
@@ -39954,16 +39973,16 @@
         <v>251</v>
       </c>
       <c r="B47" s="82" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C47" s="83"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48" s="55" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C48" s="56"/>
     </row>
@@ -39972,61 +39991,61 @@
         <v>776</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C49" s="56"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1">
       <c r="A50" s="82" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C50" s="83"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1">
       <c r="A51" s="82" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C51" s="83"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="55" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C52" s="56"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1">
       <c r="A53" s="82" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B53" s="82" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C53" s="83"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1">
       <c r="A54" s="55" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C54" s="56"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1">
       <c r="A55" s="82" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B55" s="82" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C55" s="83"/>
     </row>
@@ -40035,25 +40054,25 @@
         <v>241</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C56" s="83"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1">
       <c r="A57" s="82" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C57" s="83"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="55" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C58" s="56"/>
     </row>
@@ -40062,7 +40081,7 @@
         <v>180</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -40090,18 +40109,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -40109,7 +40128,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -40117,7 +40136,7 @@
         <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -40125,7 +40144,7 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
   </sheetData>
@@ -40152,34 +40171,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B4" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
   </sheetData>
@@ -40212,7 +40231,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -40220,7 +40239,7 @@
         <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -40228,47 +40247,47 @@
         <v>169</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B4" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B5" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="49" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B7" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -40313,26 +40332,26 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B15" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE7961-1251-1145-AC4F-50971F75C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764BD18-E3FE-A542-9746-E5B78A965664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2060" windowWidth="30240" windowHeight="17980" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="3760" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -5613,17 +5613,6 @@
     <t>Annotation Version</t>
   </si>
   <si>
-    <t>Normalisation Method
-Highly Variable Gene Selection (HVG)
-Dimensionality Reduction
-Number of Nearest Neighbours
-Clustering Algorithm
-Clustering  Resolution
-Clustering Distance Metric
-Software versions
-Cell Type Annotation</t>
-  </si>
-  <si>
     <t>Generated by Pipeline</t>
   </si>
   <si>
@@ -5912,6 +5901,9 @@
   </si>
   <si>
     <t>Expression Data Process Setting</t>
+  </si>
+  <si>
+    <t>Normalisation Method</t>
   </si>
 </sst>
 </file>
@@ -7795,10 +7787,10 @@
   </sheetPr>
   <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A212" sqref="A212"/>
+      <selection pane="topRight" activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -18333,7 +18325,7 @@
         <v>806</v>
       </c>
       <c r="I191" s="136" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -18389,7 +18381,7 @@
         <v>809</v>
       </c>
       <c r="I192" s="136" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -18658,10 +18650,10 @@
         <v>1</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J197" s="163" t="s">
         <v>30</v>
@@ -18712,7 +18704,7 @@
       </c>
       <c r="H198" s="136"/>
       <c r="I198" s="136" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="L198" s="147" t="s">
         <v>32</v>
@@ -18759,10 +18751,10 @@
         <v>0</v>
       </c>
       <c r="H199" s="136" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="I199" s="136" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>223</v>
@@ -18812,10 +18804,10 @@
         <v>0</v>
       </c>
       <c r="H200" s="136" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="I200" s="136" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="L200" s="147" t="s">
         <v>32</v>
@@ -18856,13 +18848,13 @@
         <v>1801</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>1818</v>
+        <v>1898</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="136" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="L201" s="147" t="s">
         <v>32</v>
@@ -18903,16 +18895,16 @@
         <v>1802</v>
       </c>
       <c r="D202" s="136" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="136" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="I202" s="136" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="L202" s="147" t="s">
         <v>32</v>
@@ -18953,13 +18945,13 @@
         <v>1803</v>
       </c>
       <c r="D203" s="136" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H203" s="136" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="L203" s="147" t="s">
         <v>32</v>
@@ -19000,16 +18992,16 @@
         <v>1804</v>
       </c>
       <c r="D204" s="136" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H204" s="136" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I204" s="149" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L204" s="147" t="s">
         <v>32</v>
@@ -19050,13 +19042,13 @@
         <v>1805</v>
       </c>
       <c r="D205" s="136" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H205" s="136" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="L205" s="147" t="s">
         <v>32</v>
@@ -19097,19 +19089,19 @@
         <v>1806</v>
       </c>
       <c r="D206" s="136" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H206" s="136" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="I206" s="136" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J206" s="164" t="s">
         <v>1893</v>
-      </c>
-      <c r="J206" s="164" t="s">
-        <v>1894</v>
       </c>
       <c r="L206" s="147" t="s">
         <v>32</v>
@@ -19150,16 +19142,16 @@
         <v>1807</v>
       </c>
       <c r="D207" s="136" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H207" s="136" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="I207" s="136" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="L207" s="147" t="s">
         <v>32</v>
@@ -19200,13 +19192,13 @@
         <v>1808</v>
       </c>
       <c r="D208" s="136" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="136" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="L208" s="147" t="s">
         <v>32</v>
@@ -19247,13 +19239,13 @@
         <v>1809</v>
       </c>
       <c r="D209" s="136" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="136" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="L209" s="147" t="s">
         <v>32</v>
@@ -19294,13 +19286,13 @@
         <v>1810</v>
       </c>
       <c r="D210" s="136" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H210" s="136" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J210" s="3" t="s">
         <v>223</v>
@@ -19344,13 +19336,13 @@
         <v>1811</v>
       </c>
       <c r="D211" s="136" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H211" s="136" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L211" s="147" t="s">
         <v>32</v>
@@ -19463,7 +19455,7 @@
         <v>308</v>
       </c>
       <c r="H213" s="146" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="J213" s="163" t="s">
         <v>30</v>
@@ -19516,7 +19508,7 @@
         <v>1796</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L214" s="147" t="s">
         <v>32</v>
@@ -19563,7 +19555,7 @@
         <v>1</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="L215" s="147" t="s">
         <v>32</v>
@@ -19610,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="L216" s="147" t="s">
         <v>32</v>
@@ -19648,19 +19640,19 @@
         <v>25</v>
       </c>
       <c r="C217" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F217" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H217" s="136" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I217" s="136" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="L217" s="147" t="s">
         <v>32</v>
@@ -19698,16 +19690,16 @@
         <v>25</v>
       </c>
       <c r="C218" s="136" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F218" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="L218" s="147" t="s">
         <v>32</v>
@@ -19748,13 +19740,13 @@
         <v>1798</v>
       </c>
       <c r="D219" s="136" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F219" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H219" s="136" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>271</v>
@@ -19798,13 +19790,13 @@
         <v>1799</v>
       </c>
       <c r="D220" s="136" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F220" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H220" s="136" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>271</v>
@@ -19848,13 +19840,13 @@
         <v>1813</v>
       </c>
       <c r="D221" s="136" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F221" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H221" s="136" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>271</v>
@@ -19898,13 +19890,13 @@
         <v>1814</v>
       </c>
       <c r="D222" s="136" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F222" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H222" s="136" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>61</v>
@@ -20251,7 +20243,7 @@
         <v>1797</v>
       </c>
       <c r="BD1" s="136" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="BE1" s="47" t="s">
         <v>1801</v>
@@ -20427,19 +20419,19 @@
         <v>1790</v>
       </c>
       <c r="BC2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="BD2" s="149" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="BE2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="BF2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="BG2" s="149" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20">
@@ -20602,19 +20594,19 @@
         <v>1791</v>
       </c>
       <c r="BC3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="BD3" s="149" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="BE3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="BF3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="BG3" s="149" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="21" customHeight="1">
@@ -20761,19 +20753,19 @@
         <v>1795</v>
       </c>
       <c r="BC4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="BD4" s="148" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="BE4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="BF4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="BG4" s="148" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="22">
@@ -20910,19 +20902,19 @@
         <v>1792</v>
       </c>
       <c r="BC5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="BD5" s="148" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="BE5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="BF5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="BG5" s="148" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="22">
@@ -21045,19 +21037,19 @@
         <v>1793</v>
       </c>
       <c r="BC6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="BD6" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="BE6" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="BF6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="BG6" s="148" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="22">
@@ -21166,13 +21158,13 @@
         <v>1794</v>
       </c>
       <c r="BC7" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="BF7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="BG7" s="148" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="19">
@@ -39275,7 +39267,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -39419,7 +39411,7 @@
         <v>1796</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickTop="1">

--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764BD18-E3FE-A542-9746-E5B78A965664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C59E2-BEFD-704F-BEED-8ACBC079F0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1901">
   <si>
     <t>component_name</t>
   </si>
@@ -5904,6 +5904,12 @@
   </si>
   <si>
     <t>Normalisation Method</t>
+  </si>
+  <si>
+    <t>AB3X2</t>
+  </si>
+  <si>
+    <t>Only floating point number</t>
   </si>
 </sst>
 </file>
@@ -6941,7 +6947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7355,13 +7361,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7403,10 +7403,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7787,10 +7790,10 @@
   </sheetPr>
   <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="D202" sqref="D202"/>
+      <selection pane="topRight" activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -18569,69 +18572,69 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:24" s="162" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A196" s="150" t="s">
+    <row r="196" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A196" s="148" t="s">
         <v>1796</v>
       </c>
-      <c r="B196" s="146" t="s">
+      <c r="B196" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="146" t="s">
+      <c r="C196" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="D196" s="146" t="s">
+      <c r="D196" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E196" s="146"/>
-      <c r="F196" s="151" t="b">
+      <c r="E196" s="145"/>
+      <c r="F196" s="149" t="b">
         <v>0</v>
       </c>
-      <c r="G196" s="151" t="s">
+      <c r="G196" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H196" s="146" t="s">
+      <c r="H196" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="I196" s="146" t="s">
+      <c r="I196" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="J196" s="146" t="s">
+      <c r="J196" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="K196" s="146" t="s">
+      <c r="K196" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L196" s="146" t="s">
+      <c r="L196" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="M196" s="146" t="s">
+      <c r="M196" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="N196" s="146"/>
-      <c r="O196" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="P196" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q196" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="R196" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="S196" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="T196" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="U196" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="V196" s="159"/>
-      <c r="W196" s="160"/>
-      <c r="X196" s="161"/>
+      <c r="N196" s="145"/>
+      <c r="O196" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q196" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="R196" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="S196" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="T196" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="U196" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="V196" s="157"/>
+      <c r="W196" s="158"/>
+      <c r="X196" s="159"/>
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="21" t="s">
@@ -18655,13 +18658,16 @@
       <c r="I197" s="3" t="s">
         <v>1859</v>
       </c>
-      <c r="J197" s="163" t="s">
+      <c r="J197" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L197" s="147" t="s">
+      <c r="K197" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L197" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M197" s="147" t="s">
+      <c r="M197" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O197" s="137" t="s">
@@ -18685,6 +18691,9 @@
       <c r="U197" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V197" s="13"/>
+      <c r="W197" s="14"/>
+      <c r="X197" s="68"/>
     </row>
     <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="21" t="s">
@@ -18702,14 +18711,16 @@
       <c r="F198" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H198" s="136"/>
+      <c r="H198" s="3" t="s">
+        <v>1816</v>
+      </c>
       <c r="I198" s="136" t="s">
         <v>1860</v>
       </c>
-      <c r="L198" s="147" t="s">
+      <c r="L198" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M198" s="147" t="s">
+      <c r="M198" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O198" s="97" t="s">
@@ -18733,6 +18744,9 @@
       <c r="U198" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V198" s="13"/>
+      <c r="W198" s="14"/>
+      <c r="X198" s="68"/>
     </row>
     <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="21" t="s">
@@ -18759,10 +18773,13 @@
       <c r="J199" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L199" s="147" t="s">
+      <c r="K199" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L199" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M199" s="147" t="s">
+      <c r="M199" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O199" s="137" t="s">
@@ -18786,6 +18803,9 @@
       <c r="U199" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V199" s="13"/>
+      <c r="W199" s="14"/>
+      <c r="X199" s="68"/>
     </row>
     <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="21" t="s">
@@ -18809,10 +18829,10 @@
       <c r="I200" s="136" t="s">
         <v>1895</v>
       </c>
-      <c r="L200" s="147" t="s">
+      <c r="L200" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M200" s="147" t="s">
+      <c r="M200" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O200" s="97" t="s">
@@ -18836,6 +18856,9 @@
       <c r="U200" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V200" s="13"/>
+      <c r="W200" s="14"/>
+      <c r="X200" s="68"/>
     </row>
     <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="21" t="s">
@@ -18856,10 +18879,10 @@
       <c r="H201" s="136" t="s">
         <v>1843</v>
       </c>
-      <c r="L201" s="147" t="s">
+      <c r="L201" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M201" s="147" t="s">
+      <c r="M201" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O201" s="97" t="s">
@@ -18883,6 +18906,9 @@
       <c r="U201" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V201" s="13"/>
+      <c r="W201" s="14"/>
+      <c r="X201" s="68"/>
     </row>
     <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="21" t="s">
@@ -18906,10 +18932,10 @@
       <c r="I202" s="136" t="s">
         <v>1884</v>
       </c>
-      <c r="L202" s="147" t="s">
+      <c r="L202" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M202" s="147" t="s">
+      <c r="M202" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O202" s="97" t="s">
@@ -18933,6 +18959,9 @@
       <c r="U202" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V202" s="13"/>
+      <c r="W202" s="14"/>
+      <c r="X202" s="68"/>
     </row>
     <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="21" t="s">
@@ -18953,7 +18982,7 @@
       <c r="H203" s="136" t="s">
         <v>1828</v>
       </c>
-      <c r="L203" s="147" t="s">
+      <c r="L203" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M203" t="s">
@@ -18980,6 +19009,9 @@
       <c r="U203" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V203" s="13"/>
+      <c r="W203" s="14"/>
+      <c r="X203" s="68"/>
     </row>
     <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="21" t="s">
@@ -19000,13 +19032,13 @@
       <c r="H204" s="136" t="s">
         <v>1829</v>
       </c>
-      <c r="I204" s="149" t="s">
+      <c r="I204" s="147" t="s">
         <v>1883</v>
       </c>
-      <c r="L204" s="147" t="s">
+      <c r="L204" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M204" s="147" t="s">
+      <c r="M204" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O204" s="97" t="s">
@@ -19030,6 +19062,9 @@
       <c r="U204" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V204" s="13"/>
+      <c r="W204" s="14"/>
+      <c r="X204" s="68"/>
     </row>
     <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="21" t="s">
@@ -19050,10 +19085,10 @@
       <c r="H205" s="136" t="s">
         <v>1830</v>
       </c>
-      <c r="L205" s="147" t="s">
+      <c r="L205" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M205" s="147" t="s">
+      <c r="M205" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O205" s="97" t="s">
@@ -19077,6 +19112,9 @@
       <c r="U205" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V205" s="13"/>
+      <c r="W205" s="14"/>
+      <c r="X205" s="68"/>
     </row>
     <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="21" t="s">
@@ -19100,13 +19138,16 @@
       <c r="I206" s="136" t="s">
         <v>1892</v>
       </c>
-      <c r="J206" s="164" t="s">
+      <c r="J206" s="161" t="s">
         <v>1893</v>
       </c>
-      <c r="L206" s="147" t="s">
+      <c r="K206" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L206" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M206" s="147" t="s">
+      <c r="M206" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O206" s="97" t="s">
@@ -19130,6 +19171,9 @@
       <c r="U206" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V206" s="13"/>
+      <c r="W206" s="14"/>
+      <c r="X206" s="68"/>
     </row>
     <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="21" t="s">
@@ -19153,10 +19197,10 @@
       <c r="I207" s="136" t="s">
         <v>1891</v>
       </c>
-      <c r="L207" s="147" t="s">
+      <c r="L207" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M207" s="147" t="s">
+      <c r="M207" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O207" s="97" t="s">
@@ -19180,6 +19224,9 @@
       <c r="U207" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V207" s="13"/>
+      <c r="W207" s="14"/>
+      <c r="X207" s="68"/>
     </row>
     <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="21" t="s">
@@ -19200,10 +19247,10 @@
       <c r="H208" s="136" t="s">
         <v>1833</v>
       </c>
-      <c r="L208" s="147" t="s">
+      <c r="L208" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M208" s="147" t="s">
+      <c r="M208" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O208" s="97" t="s">
@@ -19227,6 +19274,9 @@
       <c r="U208" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V208" s="13"/>
+      <c r="W208" s="14"/>
+      <c r="X208" s="68"/>
     </row>
     <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="21" t="s">
@@ -19247,10 +19297,10 @@
       <c r="H209" s="136" t="s">
         <v>1834</v>
       </c>
-      <c r="L209" s="147" t="s">
+      <c r="L209" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M209" s="147" t="s">
+      <c r="M209" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O209" s="97" t="s">
@@ -19274,6 +19324,9 @@
       <c r="U209" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V209" s="13"/>
+      <c r="W209" s="14"/>
+      <c r="X209" s="68"/>
     </row>
     <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="21" t="s">
@@ -19297,10 +19350,13 @@
       <c r="J210" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L210" s="147" t="s">
+      <c r="K210" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L210" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M210" s="147" t="s">
+      <c r="M210" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O210" s="97" t="s">
@@ -19324,6 +19380,9 @@
       <c r="U210" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V210" s="13"/>
+      <c r="W210" s="14"/>
+      <c r="X210" s="68"/>
     </row>
     <row r="211" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A211" s="21" t="s">
@@ -19344,10 +19403,10 @@
       <c r="H211" s="136" t="s">
         <v>1837</v>
       </c>
-      <c r="L211" s="147" t="s">
+      <c r="L211" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M211" s="147" t="s">
+      <c r="M211" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O211" s="95" t="s">
@@ -19371,71 +19430,74 @@
       <c r="U211" s="38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" s="162" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A212" s="162" t="s">
+      <c r="V211" s="39"/>
+      <c r="W211" s="40"/>
+      <c r="X211" s="72"/>
+    </row>
+    <row r="212" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A212" s="160" t="s">
         <v>1786</v>
       </c>
-      <c r="B212" s="162" t="s">
+      <c r="B212" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="C212" s="162" t="s">
+      <c r="C212" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D212" s="162" t="s">
+      <c r="D212" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="E212" s="146"/>
-      <c r="F212" s="151" t="b">
+      <c r="E212" s="145"/>
+      <c r="F212" s="149" t="b">
         <v>0</v>
       </c>
-      <c r="G212" s="151" t="s">
+      <c r="G212" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H212" s="146" t="s">
+      <c r="H212" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="I212" s="146" t="s">
+      <c r="I212" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="J212" s="146" t="s">
+      <c r="J212" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="K212" s="146" t="s">
+      <c r="K212" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L212" s="146" t="s">
+      <c r="L212" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="M212" s="146" t="s">
+      <c r="M212" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="O212" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="P212" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q212" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="R212" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="S212" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="T212" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="U212" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="V212" s="151"/>
-      <c r="W212" s="151"/>
-      <c r="X212" s="151"/>
-    </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="O212" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="P212" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q212" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="R212" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="S212" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="T212" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="U212" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="V212" s="157"/>
+      <c r="W212" s="158"/>
+      <c r="X212" s="159"/>
+    </row>
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" t="s">
         <v>1786</v>
       </c>
@@ -19451,19 +19513,25 @@
       <c r="F213" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G213" s="145" t="s">
+      <c r="G213" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H213" s="146" t="s">
+      <c r="H213" s="162" t="s">
         <v>1844</v>
       </c>
-      <c r="J213" s="163" t="s">
+      <c r="I213" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J213" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L213" s="147" t="s">
+      <c r="K213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L213" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M213" s="147" t="s">
+      <c r="M213" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O213" s="137" t="s">
@@ -19487,6 +19555,9 @@
       <c r="U213" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V213" s="32"/>
+      <c r="W213" s="33"/>
+      <c r="X213" s="71"/>
     </row>
     <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" t="s">
@@ -19510,10 +19581,19 @@
       <c r="H214" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="L214" s="147" t="s">
+      <c r="I214" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L214" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M214" s="147" t="s">
+      <c r="M214" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O214" s="137" t="s">
@@ -19537,6 +19617,9 @@
       <c r="U214" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V214" s="13"/>
+      <c r="W214" s="14"/>
+      <c r="X214" s="68"/>
     </row>
     <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" t="s">
@@ -19557,10 +19640,19 @@
       <c r="H215" s="3" t="s">
         <v>1845</v>
       </c>
-      <c r="L215" s="147" t="s">
+      <c r="I215" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L215" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M215" s="147" t="s">
+      <c r="M215" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O215" s="137" t="s">
@@ -19584,6 +19676,9 @@
       <c r="U215" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V215" s="13"/>
+      <c r="W215" s="14"/>
+      <c r="X215" s="68"/>
     </row>
     <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" t="s">
@@ -19604,7 +19699,7 @@
       <c r="H216" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="L216" s="147" t="s">
+      <c r="L216" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M216" t="s">
@@ -19631,6 +19726,9 @@
       <c r="U216" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V216" s="13"/>
+      <c r="W216" s="14"/>
+      <c r="X216" s="68"/>
     </row>
     <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" t="s">
@@ -19654,10 +19752,10 @@
       <c r="I217" s="136" t="s">
         <v>1894</v>
       </c>
-      <c r="L217" s="147" t="s">
+      <c r="L217" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M217" s="147" t="s">
+      <c r="M217" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O217" s="137" t="s">
@@ -19681,6 +19779,9 @@
       <c r="U217" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V217" s="13"/>
+      <c r="W217" s="14"/>
+      <c r="X217" s="68"/>
     </row>
     <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" t="s">
@@ -19701,7 +19802,7 @@
       <c r="H218" s="3" t="s">
         <v>1848</v>
       </c>
-      <c r="L218" s="147" t="s">
+      <c r="L218" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M218" t="s">
@@ -19728,6 +19829,9 @@
       <c r="U218" s="143" t="s">
         <v>34</v>
       </c>
+      <c r="V218" s="13"/>
+      <c r="W218" s="14"/>
+      <c r="X218" s="68"/>
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" t="s">
@@ -19751,10 +19855,13 @@
       <c r="J219" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L219" s="147" t="s">
+      <c r="K219" t="s">
+        <v>272</v>
+      </c>
+      <c r="L219" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M219" s="147" t="s">
+      <c r="M219" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O219" s="97" t="s">
@@ -19778,6 +19885,9 @@
       <c r="U219" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V219" s="13"/>
+      <c r="W219" s="14"/>
+      <c r="X219" s="68"/>
     </row>
     <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" t="s">
@@ -19801,10 +19911,13 @@
       <c r="J220" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L220" s="147" t="s">
+      <c r="K220" t="s">
+        <v>272</v>
+      </c>
+      <c r="L220" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M220" s="147" t="s">
+      <c r="M220" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O220" s="97" t="s">
@@ -19828,6 +19941,9 @@
       <c r="U220" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V220" s="13"/>
+      <c r="W220" s="14"/>
+      <c r="X220" s="68"/>
     </row>
     <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" t="s">
@@ -19851,10 +19967,13 @@
       <c r="J221" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L221" s="147" t="s">
+      <c r="K221" t="s">
+        <v>272</v>
+      </c>
+      <c r="L221" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M221" s="147" t="s">
+      <c r="M221" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O221" s="97" t="s">
@@ -19878,6 +19997,9 @@
       <c r="U221" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V221" s="13"/>
+      <c r="W221" s="14"/>
+      <c r="X221" s="68"/>
     </row>
     <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" t="s">
@@ -19907,10 +20029,10 @@
       <c r="K222" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L222" s="147" t="s">
+      <c r="L222" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M222" s="147" t="s">
+      <c r="M222" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O222" s="97" t="s">
@@ -19934,6 +20056,9 @@
       <c r="U222" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="V222" s="13"/>
+      <c r="W222" s="14"/>
+      <c r="X222" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X195" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
@@ -20013,8 +20138,8 @@
   </sheetPr>
   <dimension ref="A1:BG464"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BG8" sqref="BG8"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BD7" sqref="BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20245,10 +20370,10 @@
       <c r="BD1" s="136" t="s">
         <v>1847</v>
       </c>
-      <c r="BE1" s="47" t="s">
+      <c r="BE1" s="163" t="s">
         <v>1801</v>
       </c>
-      <c r="BF1" s="47" t="s">
+      <c r="BF1" s="163" t="s">
         <v>1803</v>
       </c>
       <c r="BG1" s="47" t="s">
@@ -20421,7 +20546,7 @@
       <c r="BC2" t="s">
         <v>1861</v>
       </c>
-      <c r="BD2" s="149" t="s">
+      <c r="BD2" s="147" t="s">
         <v>1867</v>
       </c>
       <c r="BE2" t="s">
@@ -20430,7 +20555,7 @@
       <c r="BF2" t="s">
         <v>1877</v>
       </c>
-      <c r="BG2" s="149" t="s">
+      <c r="BG2" s="147" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -20596,7 +20721,7 @@
       <c r="BC3" t="s">
         <v>1862</v>
       </c>
-      <c r="BD3" s="149" t="s">
+      <c r="BD3" s="147" t="s">
         <v>1868</v>
       </c>
       <c r="BE3" t="s">
@@ -20605,7 +20730,7 @@
       <c r="BF3" t="s">
         <v>1878</v>
       </c>
-      <c r="BG3" s="149" t="s">
+      <c r="BG3" s="147" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -20755,7 +20880,7 @@
       <c r="BC4" t="s">
         <v>1863</v>
       </c>
-      <c r="BD4" s="148" t="s">
+      <c r="BD4" s="146" t="s">
         <v>1869</v>
       </c>
       <c r="BE4" t="s">
@@ -20764,7 +20889,7 @@
       <c r="BF4" t="s">
         <v>1879</v>
       </c>
-      <c r="BG4" s="148" t="s">
+      <c r="BG4" s="146" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -20904,7 +21029,7 @@
       <c r="BC5" t="s">
         <v>1864</v>
       </c>
-      <c r="BD5" s="148" t="s">
+      <c r="BD5" s="146" t="s">
         <v>1870</v>
       </c>
       <c r="BE5" t="s">
@@ -20913,7 +21038,7 @@
       <c r="BF5" t="s">
         <v>1880</v>
       </c>
-      <c r="BG5" s="148" t="s">
+      <c r="BG5" s="146" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -21048,7 +21173,7 @@
       <c r="BF6" t="s">
         <v>1881</v>
       </c>
-      <c r="BG6" s="148" t="s">
+      <c r="BG6" s="146" t="s">
         <v>1889</v>
       </c>
     </row>
@@ -21163,7 +21288,7 @@
       <c r="BF7" t="s">
         <v>1882</v>
       </c>
-      <c r="BG7" s="148" t="s">
+      <c r="BG7" s="146" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -39407,7 +39532,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="148" t="s">
         <v>1796</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -39415,7 +39540,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickTop="1">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="160" t="s">
         <v>1786</v>
       </c>
       <c r="B16" s="3" t="s">

--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C59E2-BEFD-704F-BEED-8ACBC079F0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD1A46-EF6B-E44C-A1F5-C2798A813291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1900">
   <si>
     <t>component_name</t>
   </si>
@@ -5517,9 +5517,6 @@
     <t>AND(ISNUMBER({column_letter}{row_start}), {column_letter}{row_start} = INT({column_letter}{row_start}))</t>
   </si>
   <si>
-    <t>experssion_data_file</t>
-  </si>
-  <si>
     <t>expression_data_file_id</t>
   </si>
   <si>
@@ -5710,9 +5707,6 @@
   </si>
   <si>
     <t>calculated md5 checksum for this file</t>
-  </si>
-  <si>
-    <t>expression_data_file_checkshum</t>
   </si>
   <si>
     <t>Approximate date this expression data was generated</t>
@@ -5910,6 +5904,9 @@
   </si>
   <si>
     <t>Only floating point number</t>
+  </si>
+  <si>
+    <t>expression_data_file_checksum</t>
   </si>
 </sst>
 </file>
@@ -6947,7 +6944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7404,9 +7401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7790,10 +7784,10 @@
   </sheetPr>
   <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="H206" sqref="H206"/>
+      <selection pane="topRight" activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -18328,7 +18322,7 @@
         <v>806</v>
       </c>
       <c r="I191" s="136" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -18384,7 +18378,7 @@
         <v>809</v>
       </c>
       <c r="I192" s="136" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -18574,7 +18568,7 @@
     </row>
     <row r="196" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="A196" s="148" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B196" s="145" t="s">
         <v>25</v>
@@ -18638,25 +18632,25 @@
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C197" s="136" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F197" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>30</v>
@@ -18697,25 +18691,25 @@
     </row>
     <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="136" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F198" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I198" s="136" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>32</v>
@@ -18750,7 +18744,7 @@
     </row>
     <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>25</v>
@@ -18765,10 +18759,10 @@
         <v>0</v>
       </c>
       <c r="H199" s="136" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="I199" s="136" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>223</v>
@@ -18809,25 +18803,25 @@
     </row>
     <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="136" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F200" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H200" s="136" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="I200" s="136" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>32</v>
@@ -18862,22 +18856,22 @@
     </row>
     <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C201" s="136" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="136" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>32</v>
@@ -18912,25 +18906,25 @@
     </row>
     <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C202" s="136" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D202" s="136" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="136" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="I202" s="136" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>32</v>
@@ -18965,22 +18959,22 @@
     </row>
     <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C203" s="136" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D203" s="136" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H203" s="136" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>32</v>
@@ -19015,25 +19009,25 @@
     </row>
     <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D204" s="136" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H204" s="136" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I204" s="147" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>32</v>
@@ -19068,22 +19062,22 @@
     </row>
     <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C205" s="136" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D205" s="136" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H205" s="136" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>32</v>
@@ -19118,31 +19112,31 @@
     </row>
     <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C206" s="136" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D206" s="136" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H206" s="136" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I206" s="136" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="J206" s="161" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K206" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>32</v>
@@ -19177,25 +19171,25 @@
     </row>
     <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C207" s="136" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D207" s="136" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H207" s="136" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="I207" s="136" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>32</v>
@@ -19230,22 +19224,22 @@
     </row>
     <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C208" s="136" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D208" s="136" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="136" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>32</v>
@@ -19280,22 +19274,22 @@
     </row>
     <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C209" s="136" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D209" s="136" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="136" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>32</v>
@@ -19330,22 +19324,22 @@
     </row>
     <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="136" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D210" s="136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H210" s="136" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="J210" s="3" t="s">
         <v>223</v>
@@ -19386,22 +19380,22 @@
     </row>
     <row r="211" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A211" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C211" s="136" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D211" s="136" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H211" s="136" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>32</v>
@@ -19434,9 +19428,9 @@
       <c r="W211" s="40"/>
       <c r="X211" s="72"/>
     </row>
-    <row r="212" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
+    <row r="212" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A212" s="160" t="s">
-        <v>1786</v>
+        <v>822</v>
       </c>
       <c r="B212" s="160" t="s">
         <v>25</v>
@@ -19497,9 +19491,9 @@
       <c r="W212" s="158"/>
       <c r="X212" s="159"/>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A213" t="s">
-        <v>1786</v>
+    <row r="213" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A213" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>25</v>
@@ -19516,8 +19510,8 @@
       <c r="G213" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H213" s="162" t="s">
-        <v>1844</v>
+      <c r="H213" s="3" t="s">
+        <v>1843</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>312</v>
@@ -19559,30 +19553,30 @@
       <c r="W213" s="33"/>
       <c r="X213" s="71"/>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A214" t="s">
-        <v>1786</v>
+    <row r="214" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A214" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F214" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="J214" s="3" t="s">
         <v>30</v>
@@ -19621,15 +19615,15 @@
       <c r="W214" s="14"/>
       <c r="X214" s="68"/>
     </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A215" t="s">
-        <v>1786</v>
+    <row r="215" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A215" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D215" t="s">
         <v>786</v>
@@ -19638,10 +19632,10 @@
         <v>1</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="J215" s="3" t="s">
         <v>30</v>
@@ -19680,9 +19674,9 @@
       <c r="W215" s="14"/>
       <c r="X215" s="68"/>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A216" t="s">
-        <v>1786</v>
+    <row r="216" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A216" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>25</v>
@@ -19697,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>32</v>
@@ -19730,27 +19724,27 @@
       <c r="W216" s="14"/>
       <c r="X216" s="68"/>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A217" t="s">
-        <v>1786</v>
+    <row r="217" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A217" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C217" t="s">
-        <v>1851</v>
+        <v>1899</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="F217" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H217" s="136" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I217" s="136" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>32</v>
@@ -19783,24 +19777,24 @@
       <c r="W217" s="14"/>
       <c r="X217" s="68"/>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A218" t="s">
-        <v>1786</v>
+    <row r="218" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A218" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C218" s="136" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F218" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>32</v>
@@ -19833,24 +19827,24 @@
       <c r="W218" s="14"/>
       <c r="X218" s="68"/>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A219" t="s">
-        <v>1786</v>
+    <row r="219" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A219" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C219" s="136" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D219" s="136" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F219" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H219" s="136" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>271</v>
@@ -19889,24 +19883,24 @@
       <c r="W219" s="14"/>
       <c r="X219" s="68"/>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A220" t="s">
-        <v>1786</v>
+    <row r="220" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A220" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C220" s="136" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D220" s="136" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="F220" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H220" s="136" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>271</v>
@@ -19945,24 +19939,24 @@
       <c r="W220" s="14"/>
       <c r="X220" s="68"/>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A221" t="s">
-        <v>1786</v>
+    <row r="221" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A221" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C221" s="136" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D221" s="136" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="F221" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H221" s="136" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>271</v>
@@ -20001,24 +19995,24 @@
       <c r="W221" s="14"/>
       <c r="X221" s="68"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A222" t="s">
-        <v>1786</v>
+    <row r="222" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A222" s="160" t="s">
+        <v>822</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="136" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D222" s="136" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="F222" s="144" t="b">
         <v>0</v>
       </c>
       <c r="H222" s="136" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>61</v>
@@ -20359,25 +20353,25 @@
         <v>467</v>
       </c>
       <c r="BA1" s="124" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="BB1" s="124" t="s">
         <v>115</v>
       </c>
       <c r="BC1" s="136" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="BD1" s="136" t="s">
-        <v>1847</v>
-      </c>
-      <c r="BE1" s="163" t="s">
-        <v>1801</v>
-      </c>
-      <c r="BF1" s="163" t="s">
-        <v>1803</v>
+        <v>1846</v>
+      </c>
+      <c r="BE1" s="162" t="s">
+        <v>1800</v>
+      </c>
+      <c r="BF1" s="162" t="s">
+        <v>1802</v>
       </c>
       <c r="BG1" s="47" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="20">
@@ -20541,22 +20535,22 @@
         <v>885</v>
       </c>
       <c r="BB2" s="118" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="BC2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="BD2" s="147" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="BE2" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="BF2" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="BG2" s="147" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20">
@@ -20716,22 +20710,22 @@
         <v>922</v>
       </c>
       <c r="BB3" s="118" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="BC3" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="BD3" s="147" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="BE3" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="BF3" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="BG3" s="147" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="21" customHeight="1">
@@ -20875,22 +20869,22 @@
         <v>957</v>
       </c>
       <c r="BB4" s="118" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="BC4" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="BD4" s="146" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="BE4" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="BF4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="BG4" s="146" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="22">
@@ -21024,22 +21018,22 @@
         <v>989</v>
       </c>
       <c r="BB5" s="118" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="BC5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="BD5" s="146" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="BE5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="BF5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="BG5" s="146" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="22">
@@ -21159,22 +21153,22 @@
         <v>1016</v>
       </c>
       <c r="BB6" s="118" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="BC6" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="BD6" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="BE6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="BF6" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="BG6" s="146" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="22">
@@ -21280,16 +21274,16 @@
         <v>118</v>
       </c>
       <c r="BB7" s="118" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="BC7" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="BF7" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="BG7" s="146" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="19">
@@ -39393,7 +39387,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -39533,15 +39527,15 @@
     </row>
     <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A15" s="148" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickTop="1">
       <c r="A16" s="160" t="s">
-        <v>1786</v>
+        <v>822</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>823</v>

--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/SingleCellSchemas/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD1A46-EF6B-E44C-A1F5-C2798A813291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03876C63-4DA1-6B4C-8BD5-CA9C2EB6D3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="1902">
   <si>
     <t>component_name</t>
   </si>
@@ -5907,6 +5907,12 @@
   </si>
   <si>
     <t>expression_data_file_checksum</t>
+  </si>
+  <si>
+    <t>^([0-9]*[.])?[0-9]+</t>
+  </si>
+  <si>
+    <t>AND(ISNUMBER(VALUE({column_letter}{row_start})), VALUE({column_letter}{row_start}) &gt;= 0)</t>
   </si>
 </sst>
 </file>
@@ -6088,7 +6094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -6939,12 +6945,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7404,6 +7425,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7782,12 +7810,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:X222"/>
+  <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="C217" sqref="C217"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -19428,7 +19456,7 @@
       <c r="W211" s="40"/>
       <c r="X211" s="72"/>
     </row>
-    <row r="212" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="212" spans="1:24" s="160" customFormat="1" ht="15.75" customHeight="1" thickTop="1">
       <c r="A212" s="160" t="s">
         <v>822</v>
       </c>
@@ -19491,8 +19519,8 @@
       <c r="W212" s="158"/>
       <c r="X212" s="159"/>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A213" s="160" t="s">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A213" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -19553,8 +19581,8 @@
       <c r="W213" s="33"/>
       <c r="X213" s="71"/>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A214" s="160" t="s">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A214" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -19615,8 +19643,8 @@
       <c r="W214" s="14"/>
       <c r="X214" s="68"/>
     </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A215" s="160" t="s">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A215" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -19674,8 +19702,8 @@
       <c r="W215" s="14"/>
       <c r="X215" s="68"/>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A216" s="160" t="s">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A216" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -19724,8 +19752,8 @@
       <c r="W216" s="14"/>
       <c r="X216" s="68"/>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A217" s="160" t="s">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A217" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -19777,8 +19805,8 @@
       <c r="W217" s="14"/>
       <c r="X217" s="68"/>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A218" s="160" t="s">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A218" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -19827,8 +19855,8 @@
       <c r="W218" s="14"/>
       <c r="X218" s="68"/>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A219" s="160" t="s">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A219" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -19883,8 +19911,8 @@
       <c r="W219" s="14"/>
       <c r="X219" s="68"/>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A220" s="160" t="s">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A220" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -19939,8 +19967,8 @@
       <c r="W220" s="14"/>
       <c r="X220" s="68"/>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A221" s="160" t="s">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A221" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -19995,8 +20023,8 @@
       <c r="W221" s="14"/>
       <c r="X221" s="68"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A222" s="160" t="s">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A222" s="165" t="s">
         <v>822</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -20053,6 +20081,9 @@
       <c r="V222" s="13"/>
       <c r="W222" s="14"/>
       <c r="X222" s="68"/>
+    </row>
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A223" s="165"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X195" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
@@ -39596,10 +39627,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -40179,21 +40210,31 @@
       <c r="C57" s="83"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="82" t="s">
         <v>1764</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="82" t="s">
         <v>1765</v>
       </c>
-      <c r="C58" s="56"/>
+      <c r="C58" s="83"/>
     </row>
     <row r="59" spans="1:3" ht="34">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="163" t="s">
         <v>1785</v>
       </c>
+      <c r="C59" s="164"/>
+    </row>
+    <row r="60" spans="1:3" ht="17">
+      <c r="A60" s="163" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B60" s="163" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C60" s="164"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C53" xr:uid="{D95B3E19-31EE-401E-8E14-DBEF7BC74F95}"/>

--- a/single_cell/singlecell_schema_main_v0.3.xlsx
+++ b/single_cell/singlecell_schema_main_v0.3.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394C6647-4F56-3046-BC8A-723EFBE19D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7E2C9-F1D2-A143-BD50-A194A4B361B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36100" yWindow="720" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="namespaces" sheetId="12" r:id="rId2"/>
-    <sheet name="allowed_values" sheetId="2" r:id="rId3"/>
-    <sheet name="checklists" sheetId="6" r:id="rId4"/>
-    <sheet name="components" sheetId="3" r:id="rId5"/>
-    <sheet name="ontology_lookup" sheetId="10" r:id="rId6"/>
-    <sheet name="regex_to_formula" sheetId="11" r:id="rId7"/>
-    <sheet name="standards" sheetId="4" r:id="rId8"/>
-    <sheet name="technologies" sheetId="5" r:id="rId9"/>
-    <sheet name="term_mapping" sheetId="9" r:id="rId10"/>
+    <sheet name="allowed_values" sheetId="2" r:id="rId2"/>
+    <sheet name="checklists" sheetId="6" r:id="rId3"/>
+    <sheet name="components" sheetId="3" r:id="rId4"/>
+    <sheet name="ontology_lookup" sheetId="10" r:id="rId5"/>
+    <sheet name="regex_to_formula" sheetId="11" r:id="rId6"/>
+    <sheet name="standards" sheetId="4" r:id="rId7"/>
+    <sheet name="technologies" sheetId="5" r:id="rId8"/>
+    <sheet name="term_mapping" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$X$195</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$X$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$X$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
+    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$X$180</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="1902">
   <si>
     <t>component_name</t>
   </si>
@@ -5907,21 +5906,6 @@
     <t>AND(ISNUMBER(VALUE({column_letter}{row_start})), VALUE({column_letter}{row_start}) &gt;= 0)</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms</t>
-  </si>
-  <si>
-    <t>https://w3id.org/mixs</t>
-  </si>
-  <si>
-    <t>https://schema.org</t>
-  </si>
-  <si>
-    <t>https://singlecellschemas.org/checklists/html/index.html?stdDropdown=:standard&amp;techDropdown=:technology</t>
-  </si>
-  <si>
     <t>cell_type_annotation</t>
   </si>
   <si>
@@ -5935,7 +5919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6070,13 +6054,6 @@
       <sz val="13"/>
       <color rgb="FF567A0D"/>
       <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6905,7 +6882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7359,10 +7336,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7391,7 +7364,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:X195" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:X194" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -7741,12 +7714,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:X222"/>
+  <dimension ref="A1:X221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="C213" sqref="C213"/>
+      <selection pane="topRight" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -9398,7 +9371,7 @@
         <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>169</v>
@@ -9469,7 +9442,7 @@
         <v>163</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>177</v>
@@ -9540,7 +9513,7 @@
         <v>163</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>183</v>
@@ -10240,7 +10213,7 @@
         <v>189</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>237</v>
@@ -10267,25 +10240,25 @@
         <v>32</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="O43" s="44"/>
       <c r="P43" s="144"/>
       <c r="Q43" s="144"/>
-      <c r="R43" s="47"/>
+      <c r="R43" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="S43" s="94"/>
       <c r="T43" s="135"/>
       <c r="U43" s="96"/>
       <c r="V43" s="91"/>
       <c r="W43" s="125"/>
-      <c r="X43" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="17">
+      <c r="X43" s="90"/>
+    </row>
+    <row r="44" spans="1:24" ht="16">
       <c r="A44" s="12" t="s">
         <v>189</v>
       </c>
@@ -10293,35 +10266,32 @@
         <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="F44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>239</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>1906</v>
-      </c>
+      <c r="M44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="3"/>
       <c r="O44" s="44"/>
       <c r="P44" s="144"/>
       <c r="Q44" s="144"/>
@@ -10335,7 +10305,7 @@
       <c r="W44" s="125"/>
       <c r="X44" s="90"/>
     </row>
-    <row r="45" spans="1:24" ht="16">
+    <row r="45" spans="1:24" ht="17" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>189</v>
       </c>
@@ -10343,152 +10313,162 @@
         <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="13" t="s">
-        <v>69</v>
+      <c r="M45" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N45" s="3"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="94"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="125"/>
-      <c r="X45" s="90"/>
-    </row>
-    <row r="46" spans="1:24" ht="17" thickBot="1">
-      <c r="A46" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F46" s="1" t="b">
+      <c r="O45" s="42"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="95"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="126"/>
+      <c r="X45" s="118"/>
+    </row>
+    <row r="46" spans="1:24" ht="17" thickTop="1">
+      <c r="A46" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>248</v>
-      </c>
-      <c r="I46" t="s">
-        <v>249</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="G46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="145"/>
-      <c r="Q46" s="145"/>
-      <c r="R46" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="95"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="126"/>
-      <c r="X46" s="118"/>
-    </row>
-    <row r="47" spans="1:24" ht="17" thickTop="1">
-      <c r="A47" s="14" t="s">
+      <c r="N46" s="2"/>
+      <c r="O46" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="99"/>
+      <c r="T46" s="139"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="121"/>
+    </row>
+    <row r="47" spans="1:24" ht="17" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="7" t="b">
+      <c r="C47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="G47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="K47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P47" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R47" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="99"/>
-      <c r="T47" s="139"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="130"/>
-      <c r="X47" s="121"/>
-    </row>
-    <row r="48" spans="1:24" ht="17" customHeight="1">
+      <c r="N47" s="3"/>
+      <c r="O47" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="94"/>
+      <c r="T47" s="135"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="90"/>
+    </row>
+    <row r="48" spans="1:24" ht="16">
       <c r="A48" s="12" t="s">
         <v>251</v>
       </c>
@@ -10496,22 +10476,22 @@
         <v>25</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>30</v>
@@ -10553,22 +10533,19 @@
         <v>25</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="F49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>30</v>
@@ -10610,31 +10587,27 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>33</v>
+      <c r="M50" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="44" t="s">
@@ -10661,41 +10634,37 @@
         <v>251</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="H51" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K51" t="s">
+        <v>265</v>
+      </c>
       <c r="L51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="13" t="s">
-        <v>69</v>
+      <c r="M51" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N51" s="3"/>
-      <c r="O51" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="P51" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="144" t="s">
-        <v>34</v>
-      </c>
+      <c r="O51" s="44"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
       <c r="R51" s="47" t="s">
         <v>34</v>
       </c>
@@ -10711,26 +10680,31 @@
         <v>251</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
-        <v>264</v>
-      </c>
-      <c r="I52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="J52" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K52" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>32</v>
@@ -10739,11 +10713,17 @@
         <v>33</v>
       </c>
       <c r="N52" s="3"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="144"/>
-      <c r="Q52" s="144"/>
+      <c r="O52" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="144" t="s">
+        <v>35</v>
+      </c>
       <c r="R52" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S52" s="94"/>
       <c r="T52" s="135"/>
@@ -10757,13 +10737,13 @@
         <v>251</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>266</v>
@@ -10777,25 +10757,17 @@
       <c r="I53" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>33</v>
+      <c r="M53" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P53" s="144" t="s">
-        <v>35</v>
-      </c>
+      <c r="O53" s="44"/>
+      <c r="P53" s="144"/>
       <c r="Q53" s="144" t="s">
         <v>35</v>
       </c>
@@ -10814,37 +10786,40 @@
         <v>251</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M54" s="13" t="s">
-        <v>69</v>
+      <c r="M54" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N54" s="3"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="144"/>
+      <c r="O54" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="144" t="s">
+        <v>35</v>
+      </c>
       <c r="Q54" s="144" t="s">
         <v>35</v>
       </c>
@@ -10866,19 +10841,19 @@
         <v>25</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
@@ -10918,19 +10893,19 @@
         <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
@@ -10970,19 +10945,19 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
@@ -11022,19 +10997,19 @@
         <v>25</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
@@ -11074,19 +11049,19 @@
         <v>25</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
@@ -11126,23 +11101,25 @@
         <v>25</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="J60" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K60" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>32</v>
@@ -11178,25 +11155,23 @@
         <v>25</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>32</v>
@@ -11224,29 +11199,31 @@
       <c r="W61" s="125"/>
       <c r="X61" s="90"/>
     </row>
-    <row r="62" spans="1:24" ht="16">
+    <row r="62" spans="1:24" ht="17" thickBot="1">
       <c r="A62" s="12" t="s">
         <v>251</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J62" s="3"/>
+      <c r="H62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I62" t="s">
+        <v>306</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="K62" s="3" t="s">
         <v>98</v>
       </c>
@@ -11257,158 +11234,167 @@
         <v>33</v>
       </c>
       <c r="N62" s="3"/>
-      <c r="O62" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P62" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q62" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R62" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S62" s="94"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="96"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="125"/>
-      <c r="X62" s="90"/>
-    </row>
-    <row r="63" spans="1:24" ht="17" thickBot="1">
-      <c r="A63" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" s="1" t="b">
+      <c r="O62" s="42"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="145"/>
+      <c r="R62" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="S62" s="95"/>
+      <c r="T62" s="136"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="126"/>
+      <c r="X62" s="118"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" thickTop="1" thickBot="1">
+      <c r="A63" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
-        <v>248</v>
-      </c>
-      <c r="I63" t="s">
-        <v>306</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="G63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="145"/>
-      <c r="Q63" s="145"/>
-      <c r="R63" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S63" s="95"/>
-      <c r="T63" s="136"/>
-      <c r="U63" s="104"/>
-      <c r="V63" s="111"/>
-      <c r="W63" s="126"/>
-      <c r="X63" s="118"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A64" s="14" t="s">
+      <c r="N63" s="2"/>
+      <c r="O63" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q63" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R63" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="T63" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U63" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="V63" s="114"/>
+      <c r="W63" s="130"/>
+      <c r="X63" s="121"/>
+    </row>
+    <row r="64" spans="1:24" ht="17" thickTop="1">
+      <c r="A64" s="12" t="s">
         <v>307</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P64" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q64" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R64" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S64" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="T64" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="U64" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" s="114"/>
-      <c r="W64" s="130"/>
-      <c r="X64" s="121"/>
-    </row>
-    <row r="65" spans="1:24" ht="17" thickTop="1">
+      <c r="N64" s="3"/>
+      <c r="O64" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q64" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R64" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" s="91"/>
+      <c r="W64" s="125"/>
+      <c r="X64" s="90"/>
+    </row>
+    <row r="65" spans="1:24" ht="16">
       <c r="A65" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="F65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>30</v>
@@ -11435,20 +11421,14 @@
       <c r="R65" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="S65" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="T65" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="U65" s="96" t="s">
-        <v>35</v>
-      </c>
+      <c r="S65" s="94"/>
+      <c r="T65" s="135"/>
+      <c r="U65" s="96"/>
       <c r="V65" s="91"/>
       <c r="W65" s="125"/>
       <c r="X65" s="90"/>
     </row>
-    <row r="66" spans="1:24" ht="16">
+    <row r="66" spans="1:24" ht="17" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>307</v>
       </c>
@@ -11456,22 +11436,22 @@
         <v>25</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>30</v>
@@ -11486,55 +11466,48 @@
         <v>33</v>
       </c>
       <c r="N66" s="3"/>
-      <c r="O66" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="P66" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q66" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="R66" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="S66" s="94"/>
-      <c r="T66" s="135"/>
-      <c r="U66" s="96"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" s="96" t="s">
+        <v>35</v>
+      </c>
       <c r="V66" s="91"/>
       <c r="W66" s="125"/>
       <c r="X66" s="90"/>
     </row>
-    <row r="67" spans="1:24" ht="17" customHeight="1">
+    <row r="67" spans="1:24" ht="16">
       <c r="A67" s="12" t="s">
         <v>307</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="F67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>32</v>
@@ -11542,20 +11515,26 @@
       <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="94" t="s">
-        <v>34</v>
-      </c>
+      <c r="N67" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="O67" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R67" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S67" s="94"/>
       <c r="T67" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="U67" s="96" t="s">
-        <v>35</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="U67" s="96"/>
       <c r="V67" s="91"/>
       <c r="W67" s="125"/>
       <c r="X67" s="90"/>
@@ -11565,26 +11544,28 @@
         <v>307</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>43</v>
+        <v>1900</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J68" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K68" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>32</v>
@@ -11593,7 +11574,7 @@
         <v>33</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O68" s="44" t="s">
         <v>34</v>
@@ -11607,11 +11588,15 @@
       <c r="R68" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="S68" s="94"/>
+      <c r="S68" s="94" t="s">
+        <v>34</v>
+      </c>
       <c r="T68" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U68" s="96"/>
+        <v>34</v>
+      </c>
+      <c r="U68" s="96" t="s">
+        <v>35</v>
+      </c>
       <c r="V68" s="91"/>
       <c r="W68" s="125"/>
       <c r="X68" s="90"/>
@@ -11624,25 +11609,26 @@
         <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="F69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>32</v>
@@ -11650,26 +11636,24 @@
       <c r="M69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="N69" s="3"/>
       <c r="O69" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P69" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R69" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S69" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T69" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U69" s="96" t="s">
         <v>35</v>
@@ -11686,26 +11670,25 @@
         <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="J70" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K70" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>32</v>
@@ -11727,10 +11710,10 @@
         <v>35</v>
       </c>
       <c r="S70" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T70" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U70" s="96" t="s">
         <v>35</v>
@@ -11747,19 +11730,19 @@
         <v>25</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>270</v>
@@ -11787,10 +11770,10 @@
         <v>35</v>
       </c>
       <c r="S71" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T71" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U71" s="96" t="s">
         <v>35</v>
@@ -11807,25 +11790,23 @@
         <v>25</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>32</v>
@@ -11867,19 +11848,19 @@
         <v>25</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
@@ -11925,29 +11906,27 @@
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="K74" s="3"/>
       <c r="L74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>33</v>
+      <c r="M74" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="44" t="s">
@@ -11983,19 +11962,19 @@
         <v>25</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -12007,22 +11986,22 @@
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P75" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q75" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R75" s="47" t="s">
         <v>35</v>
       </c>
       <c r="S75" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T75" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U75" s="96" t="s">
         <v>35</v>
@@ -12039,19 +12018,19 @@
         <v>25</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -12063,22 +12042,22 @@
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P76" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q76" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R76" s="47" t="s">
         <v>35</v>
       </c>
       <c r="S76" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T76" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U76" s="96" t="s">
         <v>35</v>
@@ -12095,19 +12074,19 @@
         <v>25</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -12151,19 +12130,19 @@
         <v>25</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -12175,22 +12154,22 @@
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P78" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q78" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R78" s="47" t="s">
         <v>35</v>
       </c>
       <c r="S78" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T78" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U78" s="96" t="s">
         <v>35</v>
@@ -12207,46 +12186,48 @@
         <v>25</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M79" s="13" t="s">
-        <v>69</v>
+      <c r="M79" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P79" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q79" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R79" s="47" t="s">
         <v>35</v>
       </c>
       <c r="S79" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T79" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U79" s="96" t="s">
         <v>35</v>
@@ -12263,19 +12244,19 @@
         <v>25</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
@@ -12321,19 +12302,19 @@
         <v>25</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
@@ -12347,22 +12328,22 @@
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P81" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q81" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R81" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S81" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T81" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U81" s="96" t="s">
         <v>35</v>
@@ -12379,19 +12360,19 @@
         <v>25</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
@@ -12437,29 +12418,27 @@
         <v>25</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="K83" s="3"/>
       <c r="L83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>33</v>
+      <c r="M83" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="44" t="s">
@@ -12495,27 +12474,29 @@
         <v>25</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L84" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M84" s="13" t="s">
-        <v>69</v>
+      <c r="M84" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="44" t="s">
@@ -12551,19 +12532,19 @@
         <v>25</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
@@ -12609,23 +12590,25 @@
         <v>25</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J86" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K86" s="3" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>32</v>
@@ -12635,22 +12618,22 @@
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P86" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R86" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S86" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T86" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U86" s="96" t="s">
         <v>35</v>
@@ -12667,25 +12650,23 @@
         <v>25</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>32</v>
@@ -12727,23 +12708,25 @@
         <v>25</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="J88" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K88" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>32</v>
@@ -12785,31 +12768,27 @@
         <v>25</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
       <c r="L89" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>33</v>
+      <c r="M89" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="44" t="s">
@@ -12842,53 +12821,52 @@
         <v>307</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="I90" t="s">
+        <v>411</v>
+      </c>
+      <c r="J90" t="s">
+        <v>412</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="L90" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M90" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N90" s="3"/>
-      <c r="O90" s="44" t="s">
-        <v>35</v>
-      </c>
+      <c r="M90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O90" s="44"/>
       <c r="P90" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="Q90" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R90" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S90" s="94" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q90" s="144"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="94"/>
       <c r="T90" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="U90" s="96" t="s">
-        <v>35</v>
-      </c>
+      <c r="U90" s="96"/>
       <c r="V90" s="91"/>
       <c r="W90" s="125"/>
       <c r="X90" s="90"/>
@@ -12901,22 +12879,19 @@
         <v>43</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="I91" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="J91" t="s">
         <v>412</v>
@@ -12931,7 +12906,7 @@
         <v>33</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="O91" s="44"/>
       <c r="P91" s="144" t="s">
@@ -12956,25 +12931,25 @@
         <v>43</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I92" t="s">
-        <v>418</v>
-      </c>
-      <c r="J92" t="s">
-        <v>412</v>
-      </c>
-      <c r="K92" s="20" t="s">
-        <v>413</v>
+        <v>422</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>32</v>
@@ -12983,7 +12958,7 @@
         <v>33</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O92" s="44"/>
       <c r="P92" s="144" t="s">
@@ -13008,25 +12983,23 @@
         <v>43</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="I93" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>32</v>
@@ -13035,7 +13008,7 @@
         <v>33</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O93" s="44"/>
       <c r="P93" s="144" t="s">
@@ -13060,23 +13033,25 @@
         <v>43</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I94" s="3">
-        <v>300000</v>
-      </c>
-      <c r="J94" s="3"/>
+        <v>433</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="K94" s="3" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>32</v>
@@ -13085,7 +13060,7 @@
         <v>33</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="O94" s="44"/>
       <c r="P94" s="144" t="s">
@@ -13110,25 +13085,23 @@
         <v>43</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>435</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="J95" s="3"/>
       <c r="K95" s="3" t="s">
-        <v>436</v>
+        <v>98</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>32</v>
@@ -13137,7 +13110,7 @@
         <v>33</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="O95" s="44"/>
       <c r="P95" s="144" t="s">
@@ -13162,19 +13135,19 @@
         <v>43</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
@@ -13187,7 +13160,7 @@
         <v>33</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O96" s="44"/>
       <c r="P96" s="144" t="s">
@@ -13212,19 +13185,19 @@
         <v>43</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
@@ -13237,7 +13210,7 @@
         <v>33</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O97" s="44"/>
       <c r="P97" s="144" t="s">
@@ -13259,26 +13232,28 @@
         <v>307</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="J98" s="3"/>
+      <c r="H98" t="s">
+        <v>455</v>
+      </c>
+      <c r="I98" t="s">
+        <v>456</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="K98" s="3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>32</v>
@@ -13286,22 +13261,20 @@
       <c r="M98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N98" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="N98" s="4"/>
       <c r="O98" s="44"/>
-      <c r="P98" s="144" t="s">
-        <v>35</v>
-      </c>
+      <c r="P98" s="144"/>
       <c r="Q98" s="144"/>
-      <c r="R98" s="47"/>
+      <c r="R98" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="S98" s="94"/>
       <c r="T98" s="135" t="s">
         <v>35</v>
       </c>
       <c r="U98" s="96"/>
-      <c r="V98" s="91"/>
-      <c r="W98" s="125"/>
+      <c r="V98" s="111"/>
+      <c r="W98" s="126"/>
       <c r="X98" s="90"/>
     </row>
     <row r="99" spans="1:24" ht="16">
@@ -13312,25 +13285,22 @@
         <v>100</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
+      </c>
+      <c r="D99" t="s">
+        <v>458</v>
       </c>
       <c r="F99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
-      </c>
-      <c r="I99" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>32</v>
@@ -13339,19 +13309,19 @@
         <v>33</v>
       </c>
       <c r="N99" s="4"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="144"/>
-      <c r="Q99" s="144"/>
-      <c r="R99" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="S99" s="94"/>
-      <c r="T99" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U99" s="96"/>
-      <c r="V99" s="111"/>
-      <c r="W99" s="126"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="145"/>
+      <c r="Q99" s="145"/>
+      <c r="R99" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="S99" s="95"/>
+      <c r="T99" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="U99" s="104"/>
+      <c r="V99" s="115"/>
+      <c r="W99" s="131"/>
       <c r="X99" s="90"/>
     </row>
     <row r="100" spans="1:24" ht="16">
@@ -13359,26 +13329,22 @@
         <v>307</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D100" t="s">
-        <v>458</v>
+        <v>460</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="F100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>459</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="3" t="s">
         <v>32</v>
       </c>
@@ -13386,17 +13352,27 @@
         <v>33</v>
       </c>
       <c r="N100" s="4"/>
-      <c r="O100" s="42"/>
-      <c r="P100" s="145"/>
-      <c r="Q100" s="145"/>
-      <c r="R100" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S100" s="95"/>
-      <c r="T100" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U100" s="104"/>
+      <c r="O100" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="P100" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q100" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="S100" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="T100" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="U100" s="107" t="s">
+        <v>35</v>
+      </c>
       <c r="V100" s="115"/>
       <c r="W100" s="131"/>
       <c r="X100" s="90"/>
@@ -13409,16 +13385,19 @@
         <v>25</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -13426,29 +13405,29 @@
         <v>32</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="N101" s="4"/>
-      <c r="O101" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P101" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q101" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="R101" s="84" t="s">
-        <v>35</v>
+      <c r="O101" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R101" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="S101" s="100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T101" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U101" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V101" s="115"/>
       <c r="W101" s="131"/>
@@ -13462,19 +13441,19 @@
         <v>25</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -13510,7 +13489,7 @@
       <c r="W102" s="131"/>
       <c r="X102" s="90"/>
     </row>
-    <row r="103" spans="1:24" ht="16">
+    <row r="103" spans="1:24" ht="17" thickBot="1">
       <c r="A103" s="12" t="s">
         <v>307</v>
       </c>
@@ -13518,19 +13497,19 @@
         <v>25</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="D103" t="s">
+        <v>470</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -13553,166 +13532,170 @@
       <c r="R103" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="S103" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="T103" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="U103" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="V103" s="115"/>
-      <c r="W103" s="131"/>
-      <c r="X103" s="90"/>
-    </row>
-    <row r="104" spans="1:24" ht="17" thickBot="1">
-      <c r="A104" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="S103" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="T103" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="U103" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="V103" s="112"/>
+      <c r="W103" s="127"/>
+      <c r="X103" s="118"/>
+    </row>
+    <row r="104" spans="1:24" ht="17" thickTop="1">
+      <c r="A104" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D104" t="s">
-        <v>470</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F104" s="1" t="b">
+      <c r="C104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
-        <v>471</v>
-      </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3" t="s">
+      <c r="G104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M104" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N104" s="4"/>
-      <c r="O104" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="P104" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q104" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="R104" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="S104" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="T104" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="U104" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="V104" s="112"/>
-      <c r="W104" s="127"/>
-      <c r="X104" s="118"/>
-    </row>
-    <row r="105" spans="1:24" ht="17" thickTop="1">
-      <c r="A105" s="14" t="s">
+      <c r="M104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P104" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R104" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S104" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="T104" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U104" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="V104" s="114"/>
+      <c r="W104" s="130"/>
+      <c r="X104" s="122"/>
+    </row>
+    <row r="105" spans="1:24" ht="16">
+      <c r="A105" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J105" s="2" t="s">
+      <c r="B105" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L105" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P105" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q105" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R105" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S105" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="T105" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="U105" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="V105" s="114"/>
-      <c r="W105" s="130"/>
-      <c r="X105" s="122"/>
+      <c r="N105" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="O105" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R105" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S105" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="T105" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="U105" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="V105" s="91"/>
+      <c r="W105" s="125"/>
+      <c r="X105" s="90"/>
     </row>
     <row r="106" spans="1:24" ht="16">
       <c r="A106" s="12" t="s">
         <v>472</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F106" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>32</v>
@@ -13721,7 +13704,7 @@
         <v>33</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O106" s="44" t="s">
         <v>34</v>
@@ -13753,22 +13736,25 @@
         <v>472</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="F107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
@@ -13778,10 +13764,10 @@
         <v>32</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>482</v>
+        <v>323</v>
       </c>
       <c r="O107" s="44" t="s">
         <v>34</v>
@@ -13813,38 +13799,36 @@
         <v>472</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="K108" s="3"/>
       <c r="L108" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N108" s="4" t="s">
-        <v>323</v>
+      <c r="N108" s="66" t="s">
+        <v>442</v>
       </c>
       <c r="O108" s="44" t="s">
         <v>34</v>
@@ -13876,54 +13860,49 @@
         <v>472</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M109" s="3" t="s">
+      <c r="M109" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N109" s="66" t="s">
-        <v>442</v>
-      </c>
+      <c r="N109" s="3"/>
       <c r="O109" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P109" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q109" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R109" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S109" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T109" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U109" s="96" t="s">
         <v>35</v>
@@ -13940,27 +13919,31 @@
         <v>25</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="L110" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M110" s="13" t="s">
-        <v>69</v>
+      <c r="M110" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="44" t="s">
@@ -13996,19 +13979,19 @@
         <v>25</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>270</v>
@@ -14053,36 +14036,34 @@
         <v>472</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
       <c r="L112" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M112" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N112" s="3"/>
+      <c r="M112" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="O112" s="44" t="s">
         <v>35</v>
       </c>
@@ -14113,33 +14094,37 @@
         <v>472</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="L113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M113" s="13" t="s">
-        <v>69</v>
+      <c r="M113" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O113" s="44" t="s">
         <v>35</v>
@@ -14171,13 +14156,13 @@
         <v>472</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F114" s="1" t="b">
         <v>0</v>
@@ -14186,7 +14171,7 @@
         <v>511</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>270</v>
@@ -14201,7 +14186,7 @@
         <v>33</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="O114" s="44" t="s">
         <v>35</v>
@@ -14233,55 +14218,51 @@
         <v>472</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
       <c r="L115" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M115" s="3" t="s">
-        <v>33</v>
+      <c r="M115" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O115" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P115" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q115" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R115" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S115" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T115" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U115" s="96" t="s">
         <v>35</v>
@@ -14295,51 +14276,55 @@
         <v>472</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="I116" s="3">
+        <v>6</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="L116" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M116" s="13" t="s">
-        <v>69</v>
+      <c r="M116" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="O116" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P116" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q116" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R116" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S116" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T116" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U116" s="96" t="s">
         <v>35</v>
@@ -14353,22 +14338,22 @@
         <v>472</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>25</v>
+        <v>1900</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="I117" s="3">
-        <v>6</v>
+        <v>527</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>270</v>
@@ -14383,7 +14368,7 @@
         <v>33</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="O117" s="44" t="s">
         <v>35</v>
@@ -14415,22 +14400,22 @@
         <v>472</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>528</v>
+        <v>532</v>
+      </c>
+      <c r="I118" s="3">
+        <v>50</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>270</v>
@@ -14445,29 +14430,19 @@
         <v>33</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="O118" s="44" t="s">
-        <v>35</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="O118" s="44"/>
       <c r="P118" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="Q118" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R118" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S118" s="94" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q118" s="144"/>
+      <c r="R118" s="47"/>
+      <c r="S118" s="94"/>
       <c r="T118" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="U118" s="96" t="s">
-        <v>35</v>
-      </c>
+      <c r="U118" s="96"/>
       <c r="V118" s="91"/>
       <c r="W118" s="125"/>
       <c r="X118" s="90"/>
@@ -14480,25 +14455,23 @@
         <v>43</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="I119" s="3">
-        <v>50</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>32</v>
@@ -14507,7 +14480,7 @@
         <v>33</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O119" s="44"/>
       <c r="P119" s="144" t="s">
@@ -14532,23 +14505,25 @@
         <v>43</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="J120" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="I120" s="3">
+        <v>20</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K120" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>32</v>
@@ -14557,7 +14532,7 @@
         <v>33</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O120" s="44"/>
       <c r="P120" s="144" t="s">
@@ -14582,25 +14557,23 @@
         <v>43</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I121" s="3">
-        <v>20</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>32</v>
@@ -14609,7 +14582,7 @@
         <v>33</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O121" s="44"/>
       <c r="P121" s="144" t="s">
@@ -14626,7 +14599,7 @@
       <c r="W121" s="125"/>
       <c r="X121" s="90"/>
     </row>
-    <row r="122" spans="1:24" ht="16">
+    <row r="122" spans="1:24" ht="17" thickBot="1">
       <c r="A122" s="12" t="s">
         <v>472</v>
       </c>
@@ -14634,23 +14607,25 @@
         <v>43</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I122" s="3">
-        <v>40</v>
-      </c>
-      <c r="J122" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K122" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>32</v>
@@ -14659,132 +14634,132 @@
         <v>33</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="O122" s="44"/>
-      <c r="P122" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q122" s="144"/>
-      <c r="R122" s="47"/>
-      <c r="S122" s="94"/>
-      <c r="T122" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U122" s="96"/>
-      <c r="V122" s="91"/>
-      <c r="W122" s="125"/>
-      <c r="X122" s="90"/>
-    </row>
-    <row r="123" spans="1:24" ht="17" thickBot="1">
-      <c r="A123" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F123" s="1" t="b">
+        <v>550</v>
+      </c>
+      <c r="O122" s="42"/>
+      <c r="P122" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q122" s="145"/>
+      <c r="R122" s="45"/>
+      <c r="S122" s="95"/>
+      <c r="T122" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="U122" s="104"/>
+      <c r="V122" s="111"/>
+      <c r="W122" s="126"/>
+      <c r="X122" s="118"/>
+    </row>
+    <row r="123" spans="1:24" ht="17" thickTop="1">
+      <c r="A123" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="I123" s="3">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L123" s="3" t="s">
+      <c r="G123" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M123" s="3" t="s">
+      <c r="M123" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N123" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="O123" s="42"/>
-      <c r="P123" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q123" s="145"/>
-      <c r="R123" s="45"/>
-      <c r="S123" s="95"/>
-      <c r="T123" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U123" s="104"/>
-      <c r="V123" s="111"/>
-      <c r="W123" s="126"/>
-      <c r="X123" s="118"/>
-    </row>
-    <row r="124" spans="1:24" ht="17" thickTop="1">
-      <c r="A124" s="14" t="s">
+      <c r="N123" s="2"/>
+      <c r="O123" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P123" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q123" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R123" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S123" s="99"/>
+      <c r="T123" s="139"/>
+      <c r="U123" s="106"/>
+      <c r="V123" s="114"/>
+      <c r="W123" s="130"/>
+      <c r="X123" s="121"/>
+    </row>
+    <row r="124" spans="1:24" ht="16">
+      <c r="A124" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="7" t="b">
+      <c r="C124" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L124" s="2" t="s">
+      <c r="H124" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L124" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M124" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P124" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q124" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R124" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S124" s="99"/>
-      <c r="T124" s="139"/>
-      <c r="U124" s="106"/>
-      <c r="V124" s="114"/>
-      <c r="W124" s="130"/>
-      <c r="X124" s="121"/>
+      <c r="M124" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="N124" s="3"/>
+      <c r="O124" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P124" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q124" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R124" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S124" s="94"/>
+      <c r="T124" s="135"/>
+      <c r="U124" s="96"/>
+      <c r="V124" s="91"/>
+      <c r="W124" s="125"/>
+      <c r="X124" s="90"/>
     </row>
     <row r="125" spans="1:24" ht="16">
       <c r="A125" s="12" t="s">
@@ -14794,19 +14769,19 @@
         <v>25</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F125" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
@@ -14816,7 +14791,7 @@
         <v>32</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>556</v>
+        <v>33</v>
       </c>
       <c r="N125" s="3"/>
       <c r="O125" s="44" t="s">
@@ -14846,29 +14821,27 @@
         <v>25</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="K126" s="3"/>
       <c r="L126" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M126" s="3" t="s">
-        <v>33</v>
+      <c r="M126" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N126" s="3"/>
       <c r="O126" s="44" t="s">
@@ -14890,7 +14863,7 @@
       <c r="W126" s="125"/>
       <c r="X126" s="90"/>
     </row>
-    <row r="127" spans="1:24" ht="16">
+    <row r="127" spans="1:24" ht="17" thickBot="1">
       <c r="A127" s="12" t="s">
         <v>551</v>
       </c>
@@ -14898,19 +14871,19 @@
         <v>25</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -14921,132 +14894,134 @@
         <v>69</v>
       </c>
       <c r="N127" s="3"/>
-      <c r="O127" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P127" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q127" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R127" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S127" s="94"/>
-      <c r="T127" s="135"/>
-      <c r="U127" s="96"/>
-      <c r="V127" s="91"/>
-      <c r="W127" s="125"/>
-      <c r="X127" s="90"/>
-    </row>
-    <row r="128" spans="1:24" ht="17" thickBot="1">
-      <c r="A128" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="O127" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="P127" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q127" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="R127" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="S127" s="95"/>
+      <c r="T127" s="136"/>
+      <c r="U127" s="104"/>
+      <c r="V127" s="111"/>
+      <c r="W127" s="126"/>
+      <c r="X127" s="118"/>
+    </row>
+    <row r="128" spans="1:24" ht="17" thickTop="1">
+      <c r="A128" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F128" s="1" t="b">
+      <c r="C128" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3" t="s">
+      <c r="G128" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M128" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N128" s="3"/>
-      <c r="O128" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="P128" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q128" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="R128" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="S128" s="95"/>
-      <c r="T128" s="136"/>
-      <c r="U128" s="104"/>
-      <c r="V128" s="111"/>
-      <c r="W128" s="126"/>
-      <c r="X128" s="118"/>
-    </row>
-    <row r="129" spans="1:24" ht="17" thickTop="1">
-      <c r="A129" s="14" t="s">
+      <c r="M128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P128" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q128" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R128" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S128" s="99"/>
+      <c r="T128" s="139"/>
+      <c r="U128" s="106"/>
+      <c r="V128" s="114"/>
+      <c r="W128" s="130"/>
+      <c r="X128" s="121"/>
+    </row>
+    <row r="129" spans="1:24" ht="16">
+      <c r="A129" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="7" t="b">
+      <c r="C129" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F129" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L129" s="2" t="s">
+      <c r="H129" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L129" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P129" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q129" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R129" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S129" s="99"/>
-      <c r="T129" s="139"/>
-      <c r="U129" s="106"/>
-      <c r="V129" s="114"/>
-      <c r="W129" s="130"/>
-      <c r="X129" s="121"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P129" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q129" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R129" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S129" s="94"/>
+      <c r="T129" s="135"/>
+      <c r="U129" s="96"/>
+      <c r="V129" s="91"/>
+      <c r="W129" s="125"/>
+      <c r="X129" s="90"/>
     </row>
     <row r="130" spans="1:24" ht="16">
       <c r="A130" s="12" t="s">
@@ -15056,19 +15031,19 @@
         <v>25</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
@@ -15108,19 +15083,19 @@
         <v>25</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F131" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
@@ -15160,19 +15135,19 @@
         <v>25</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
@@ -15212,19 +15187,19 @@
         <v>25</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
@@ -15264,19 +15239,19 @@
         <v>25</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3" t="s">
@@ -15316,19 +15291,19 @@
         <v>25</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F135" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3" t="s">
@@ -15368,19 +15343,19 @@
         <v>25</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F136" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3" t="s">
@@ -15420,19 +15395,19 @@
         <v>25</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3" t="s">
@@ -15472,19 +15447,19 @@
         <v>25</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F138" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
@@ -15524,19 +15499,19 @@
         <v>25</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F139" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
@@ -15576,19 +15551,19 @@
         <v>25</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F140" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
@@ -15628,19 +15603,19 @@
         <v>25</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F141" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
@@ -15680,21 +15655,23 @@
         <v>25</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F142" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="J142" s="3"/>
+        <v>624</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K142" s="3" t="s">
         <v>98</v>
       </c>
@@ -15729,26 +15706,24 @@
         <v>569</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F143" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
         <v>98</v>
       </c>
@@ -15758,19 +15733,15 @@
       <c r="M143" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="44" t="s">
-        <v>35</v>
-      </c>
+      <c r="N143" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="O143" s="44"/>
       <c r="P143" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="Q143" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R143" s="47" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q143" s="144"/>
+      <c r="R143" s="47"/>
       <c r="S143" s="94"/>
       <c r="T143" s="135"/>
       <c r="U143" s="96"/>
@@ -15786,23 +15757,25 @@
         <v>43</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="J144" s="3"/>
+        <v>632</v>
+      </c>
+      <c r="I144" s="3">
+        <v>5</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="K144" s="3" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>32</v>
@@ -15811,7 +15784,7 @@
         <v>33</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="O144" s="44"/>
       <c r="P144" s="144" t="s">
@@ -15834,34 +15807,30 @@
         <v>43</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="I145" s="3">
-        <v>5</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M145" s="3" t="s">
-        <v>33</v>
+      <c r="M145" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="O145" s="44"/>
       <c r="P145" s="144" t="s">
@@ -15884,30 +15853,32 @@
         <v>43</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="F146" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L146" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M146" s="13" t="s">
-        <v>69</v>
+      <c r="M146" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O146" s="44"/>
       <c r="P146" s="144" t="s">
@@ -15930,19 +15901,19 @@
         <v>43</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F147" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
@@ -15955,7 +15926,7 @@
         <v>33</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O147" s="44"/>
       <c r="P147" s="144" t="s">
@@ -15978,23 +15949,25 @@
         <v>43</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F148" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="J148" s="3"/>
+        <v>652</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="K148" s="3" t="s">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>32</v>
@@ -16003,7 +15976,7 @@
         <v>33</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="O148" s="44"/>
       <c r="P148" s="144" t="s">
@@ -16026,25 +15999,23 @@
         <v>43</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>653</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>654</v>
+        <v>98</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>32</v>
@@ -16053,7 +16024,7 @@
         <v>33</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="O149" s="44"/>
       <c r="P149" s="144" t="s">
@@ -16076,23 +16047,25 @@
         <v>43</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F150" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="J150" s="3"/>
+        <v>664</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="K150" s="3" t="s">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>32</v>
@@ -16101,7 +16074,7 @@
         <v>33</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="O150" s="44"/>
       <c r="P150" s="144" t="s">
@@ -16116,7 +16089,7 @@
       <c r="W150" s="125"/>
       <c r="X150" s="90"/>
     </row>
-    <row r="151" spans="1:24" ht="16">
+    <row r="151" spans="1:24" ht="17" thickBot="1">
       <c r="A151" s="12" t="s">
         <v>569</v>
       </c>
@@ -16124,153 +16097,155 @@
         <v>43</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="F151" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>653</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>654</v>
+        <v>98</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="M151" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="O151" s="44"/>
-      <c r="P151" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q151" s="144"/>
-      <c r="R151" s="47"/>
-      <c r="S151" s="94"/>
-      <c r="T151" s="135"/>
-      <c r="U151" s="96"/>
-      <c r="V151" s="91"/>
-      <c r="W151" s="125"/>
-      <c r="X151" s="90"/>
-    </row>
-    <row r="152" spans="1:24" ht="17" thickBot="1">
-      <c r="A152" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F152" s="1" t="b">
+        <v>670</v>
+      </c>
+      <c r="O151" s="42"/>
+      <c r="P151" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q151" s="145"/>
+      <c r="R151" s="45"/>
+      <c r="S151" s="95"/>
+      <c r="T151" s="136"/>
+      <c r="U151" s="104"/>
+      <c r="V151" s="111"/>
+      <c r="W151" s="126"/>
+      <c r="X151" s="118"/>
+    </row>
+    <row r="152" spans="1:24" ht="17" thickTop="1">
+      <c r="A152" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3" t="s">
+      <c r="G152" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P152" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q152" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R152" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S152" s="99"/>
+      <c r="T152" s="139"/>
+      <c r="U152" s="106"/>
+      <c r="V152" s="114"/>
+      <c r="W152" s="130"/>
+      <c r="X152" s="121"/>
+    </row>
+    <row r="153" spans="1:24" ht="16">
+      <c r="A153" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L152" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M152" s="3" t="s">
+      <c r="L153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M153" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N152" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="O152" s="42"/>
-      <c r="P152" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q152" s="145"/>
-      <c r="R152" s="45"/>
-      <c r="S152" s="95"/>
-      <c r="T152" s="136"/>
-      <c r="U152" s="104"/>
-      <c r="V152" s="111"/>
-      <c r="W152" s="126"/>
-      <c r="X152" s="118"/>
-    </row>
-    <row r="153" spans="1:24" ht="17" thickTop="1">
-      <c r="A153" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N153" s="2"/>
-      <c r="O153" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P153" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q153" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R153" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S153" s="99"/>
-      <c r="T153" s="139"/>
-      <c r="U153" s="106"/>
-      <c r="V153" s="114"/>
-      <c r="W153" s="130"/>
-      <c r="X153" s="121"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P153" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q153" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R153" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S153" s="94"/>
+      <c r="T153" s="135"/>
+      <c r="U153" s="96"/>
+      <c r="V153" s="91"/>
+      <c r="W153" s="125"/>
+      <c r="X153" s="90"/>
     </row>
     <row r="154" spans="1:24" ht="16">
       <c r="A154" s="12" t="s">
@@ -16280,10 +16255,10 @@
         <v>25</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F154" s="1" t="b">
         <v>0</v>
@@ -16292,7 +16267,7 @@
         <v>674</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
@@ -16332,10 +16307,10 @@
         <v>25</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F155" s="1" t="b">
         <v>0</v>
@@ -16344,7 +16319,7 @@
         <v>674</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
@@ -16378,25 +16353,25 @@
     </row>
     <row r="156" spans="1:24" ht="16">
       <c r="A156" s="12" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F156" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3" t="s">
@@ -16436,19 +16411,19 @@
         <v>25</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F157" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3" t="s">
@@ -16488,23 +16463,25 @@
         <v>25</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F158" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="J158" s="3"/>
+        <v>694</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K158" s="3" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>32</v>
@@ -16540,25 +16517,23 @@
         <v>25</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F159" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J159" s="3"/>
       <c r="K159" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>32</v>
@@ -16594,19 +16569,19 @@
         <v>25</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F160" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
@@ -16646,19 +16621,19 @@
         <v>25</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F161" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
@@ -16698,19 +16673,19 @@
         <v>25</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F162" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
@@ -16742,7 +16717,7 @@
       <c r="W162" s="125"/>
       <c r="X162" s="90"/>
     </row>
-    <row r="163" spans="1:24" ht="16">
+    <row r="163" spans="1:24" ht="17" thickBot="1">
       <c r="A163" s="12" t="s">
         <v>682</v>
       </c>
@@ -16750,19 +16725,19 @@
         <v>25</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F163" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
@@ -16775,130 +16750,130 @@
         <v>33</v>
       </c>
       <c r="N163" s="3"/>
-      <c r="O163" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P163" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q163" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R163" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S163" s="94"/>
-      <c r="T163" s="135"/>
-      <c r="U163" s="96"/>
-      <c r="V163" s="91"/>
-      <c r="W163" s="125"/>
-      <c r="X163" s="90"/>
-    </row>
-    <row r="164" spans="1:24" ht="17" thickBot="1">
-      <c r="A164" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="O163" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="P163" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q163" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="R163" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="S163" s="95"/>
+      <c r="T163" s="136"/>
+      <c r="U163" s="104"/>
+      <c r="V163" s="111"/>
+      <c r="W163" s="126"/>
+      <c r="X163" s="118"/>
+    </row>
+    <row r="164" spans="1:24" ht="17" thickTop="1">
+      <c r="A164" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F164" s="1" t="b">
+      <c r="C164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L164" s="3" t="s">
+      <c r="G164" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M164" s="3" t="s">
+      <c r="M164" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N164" s="3"/>
-      <c r="O164" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="P164" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q164" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="R164" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="S164" s="95"/>
-      <c r="T164" s="136"/>
-      <c r="U164" s="104"/>
-      <c r="V164" s="111"/>
-      <c r="W164" s="126"/>
-      <c r="X164" s="118"/>
-    </row>
-    <row r="165" spans="1:24" ht="17" thickTop="1">
-      <c r="A165" s="14" t="s">
+      <c r="N164" s="2"/>
+      <c r="O164" s="43"/>
+      <c r="P164" s="151"/>
+      <c r="Q164" s="151"/>
+      <c r="R164" s="46"/>
+      <c r="S164" s="99"/>
+      <c r="T164" s="139"/>
+      <c r="U164" s="106"/>
+      <c r="V164" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="W164" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="X164" s="121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="16">
+      <c r="A165" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J165" s="2" t="s">
+      <c r="C165" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="J165" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L165" s="2" t="s">
+      <c r="L165" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="43"/>
-      <c r="P165" s="151"/>
-      <c r="Q165" s="151"/>
-      <c r="R165" s="46"/>
-      <c r="S165" s="99"/>
-      <c r="T165" s="139"/>
-      <c r="U165" s="106"/>
-      <c r="V165" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="W165" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="X165" s="121" t="s">
+      <c r="N165" s="3"/>
+      <c r="O165" s="44"/>
+      <c r="P165" s="144"/>
+      <c r="Q165" s="144"/>
+      <c r="R165" s="47"/>
+      <c r="S165" s="94"/>
+      <c r="T165" s="135"/>
+      <c r="U165" s="96"/>
+      <c r="V165" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W165" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="X165" s="90" t="s">
         <v>34</v>
       </c>
     </row>
@@ -16910,25 +16885,23 @@
         <v>25</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F166" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>32</v>
@@ -16962,19 +16935,19 @@
         <v>25</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F167" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>723</v>
+        <v>487</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
@@ -17012,19 +16985,19 @@
         <v>25</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F168" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>487</v>
+        <v>730</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
@@ -17062,23 +17035,25 @@
         <v>25</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F169" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
-        <v>98</v>
+        <v>286</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="K169" s="21" t="s">
+        <v>735</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>32</v>
@@ -17095,13 +17070,13 @@
       <c r="T169" s="135"/>
       <c r="U169" s="96"/>
       <c r="V169" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W169" s="125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X169" s="90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="16">
@@ -17112,25 +17087,23 @@
         <v>25</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="F170" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="K170" s="21" t="s">
-        <v>735</v>
+        <v>739</v>
+      </c>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>32</v>
@@ -17164,23 +17137,25 @@
         <v>25</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F171" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="J171" s="3"/>
+        <v>742</v>
+      </c>
+      <c r="I171" s="3">
+        <v>22</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>743</v>
+      </c>
       <c r="K171" s="3" t="s">
-        <v>98</v>
+        <v>744</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>32</v>
@@ -17214,31 +17189,27 @@
         <v>25</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="F172" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I172" s="3">
-        <v>22</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>744</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
       <c r="L172" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M172" s="3" t="s">
-        <v>33</v>
+      <c r="M172" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="44"/>
@@ -17266,27 +17237,31 @@
         <v>25</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F173" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="L173" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M173" s="13" t="s">
-        <v>69</v>
+      <c r="M173" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N173" s="3"/>
       <c r="O173" s="44"/>
@@ -17314,25 +17289,25 @@
         <v>25</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F174" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>322</v>
+        <v>755</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>270</v>
+        <v>756</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>271</v>
+        <v>757</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>32</v>
@@ -17349,13 +17324,13 @@
       <c r="T174" s="135"/>
       <c r="U174" s="96"/>
       <c r="V174" s="91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W174" s="125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X174" s="90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
@@ -17366,19 +17341,19 @@
         <v>25</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="F175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>756</v>
@@ -17418,25 +17393,25 @@
         <v>25</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F176" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>756</v>
+        <v>150</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>757</v>
+        <v>98</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>32</v>
@@ -17470,25 +17445,25 @@
         <v>25</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F177" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>98</v>
+        <v>734</v>
+      </c>
+      <c r="K177" s="21" t="s">
+        <v>735</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>32</v>
@@ -17522,25 +17497,25 @@
         <v>25</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F178" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="K178" s="21" t="s">
-        <v>735</v>
+        <v>774</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>32</v>
@@ -17574,25 +17549,25 @@
         <v>25</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="F179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>98</v>
+        <v>734</v>
+      </c>
+      <c r="K179" s="21" t="s">
+        <v>735</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>32</v>
@@ -17618,175 +17593,178 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16">
-      <c r="A180" s="12" t="s">
+    <row r="180" spans="1:24" ht="17" thickBot="1">
+      <c r="A180" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="F180" s="1" t="b">
+      <c r="C180" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="K180" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="L180" s="3" t="s">
+      <c r="G180" s="8"/>
+      <c r="H180" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="J180" s="5"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M180" s="3" t="s">
+      <c r="M180" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N180" s="3"/>
-      <c r="O180" s="44"/>
-      <c r="P180" s="144"/>
-      <c r="Q180" s="144"/>
-      <c r="R180" s="47"/>
-      <c r="S180" s="94"/>
-      <c r="T180" s="135"/>
-      <c r="U180" s="96"/>
-      <c r="V180" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W180" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="X180" s="90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24" ht="17" thickBot="1">
-      <c r="A181" s="15" t="s">
+      <c r="N180" s="5"/>
+      <c r="O180" s="42"/>
+      <c r="P180" s="145"/>
+      <c r="Q180" s="145"/>
+      <c r="R180" s="45"/>
+      <c r="S180" s="95"/>
+      <c r="T180" s="136"/>
+      <c r="U180" s="104"/>
+      <c r="V180" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="W180" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="X180" s="118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A181" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P181" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q181" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="R181" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S181" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="T181" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U181" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="V181" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="W181" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="X181" s="121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A182" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="J181" s="5"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="5" t="s">
+      <c r="H182" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M181" s="5" t="s">
+      <c r="M182" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N181" s="5"/>
-      <c r="O181" s="42"/>
-      <c r="P181" s="145"/>
-      <c r="Q181" s="145"/>
-      <c r="R181" s="45"/>
-      <c r="S181" s="95"/>
-      <c r="T181" s="136"/>
-      <c r="U181" s="104"/>
-      <c r="V181" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="W181" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="X181" s="118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A182" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M182" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P182" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q182" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="R182" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S182" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="T182" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="U182" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="V182" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="W182" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="X182" s="121" t="s">
+      <c r="N182" s="3"/>
+      <c r="O182" s="44"/>
+      <c r="P182" s="144"/>
+      <c r="Q182" s="144"/>
+      <c r="R182" s="47"/>
+      <c r="S182" s="94"/>
+      <c r="T182" s="135"/>
+      <c r="U182" s="96"/>
+      <c r="V182" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W182" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="X182" s="90" t="s">
         <v>34</v>
       </c>
     </row>
@@ -17798,22 +17776,22 @@
         <v>25</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>716</v>
+        <v>308</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>717</v>
+        <v>309</v>
       </c>
       <c r="F183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>715</v>
+        <v>307</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>718</v>
+        <v>310</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>719</v>
+        <v>311</v>
       </c>
       <c r="J183" s="3" t="s">
         <v>30</v>
@@ -17828,22 +17806,30 @@
         <v>33</v>
       </c>
       <c r="N183" s="3"/>
-      <c r="O183" s="44"/>
-      <c r="P183" s="144"/>
-      <c r="Q183" s="144"/>
-      <c r="R183" s="47"/>
-      <c r="S183" s="94"/>
-      <c r="T183" s="135"/>
-      <c r="U183" s="96"/>
-      <c r="V183" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W183" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="X183" s="90" t="s">
-        <v>34</v>
-      </c>
+      <c r="O183" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q183" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="R183" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S183" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="T183" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="U183" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="V183" s="91"/>
+      <c r="W183" s="125"/>
+      <c r="X183" s="90"/>
     </row>
     <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="12" t="s">
@@ -17853,22 +17839,22 @@
         <v>25</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="F184" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>311</v>
+        <v>476</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>30</v>
@@ -17916,22 +17902,19 @@
         <v>25</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>473</v>
+        <v>783</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>474</v>
+        <v>784</v>
       </c>
       <c r="F185" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>475</v>
+        <v>785</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>476</v>
+        <v>29</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>30</v>
@@ -17967,9 +17950,15 @@
       <c r="U185" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="V185" s="91"/>
-      <c r="W185" s="125"/>
-      <c r="X185" s="90"/>
+      <c r="V185" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W185" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="X185" s="90" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="12" t="s">
@@ -17979,31 +17968,27 @@
         <v>25</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F186" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K186" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
       <c r="L186" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>33</v>
+        <v>556</v>
       </c>
       <c r="N186" s="3"/>
       <c r="O186" s="44" t="s">
@@ -18027,15 +18012,9 @@
       <c r="U186" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="V186" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W186" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="X186" s="90" t="s">
-        <v>34</v>
-      </c>
+      <c r="V186" s="91"/>
+      <c r="W186" s="125"/>
+      <c r="X186" s="90"/>
     </row>
     <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="12" t="s">
@@ -18045,19 +18024,19 @@
         <v>25</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F187" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -18069,22 +18048,22 @@
       </c>
       <c r="N187" s="3"/>
       <c r="O187" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P187" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q187" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R187" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S187" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T187" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U187" s="96" t="s">
         <v>35</v>
@@ -18101,19 +18080,19 @@
         <v>25</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -18121,20 +18100,20 @@
         <v>32</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>556</v>
+        <v>33</v>
       </c>
       <c r="N188" s="3"/>
       <c r="O188" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P188" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q188" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R188" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S188" s="94" t="s">
         <v>35</v>
@@ -18157,19 +18136,19 @@
         <v>25</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F189" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -18193,10 +18172,10 @@
         <v>34</v>
       </c>
       <c r="S189" s="94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T189" s="135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U189" s="96" t="s">
         <v>35</v>
@@ -18213,19 +18192,19 @@
         <v>25</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>801</v>
+        <v>804</v>
+      </c>
+      <c r="I190" s="67" t="s">
+        <v>1889</v>
       </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -18269,16 +18248,16 @@
         <v>25</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F191" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="I191" s="67" t="s">
         <v>1889</v>
@@ -18293,22 +18272,22 @@
       </c>
       <c r="N191" s="3"/>
       <c r="O191" s="44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P191" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q191" s="144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R191" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S191" s="94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T191" s="135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U191" s="96" t="s">
         <v>35</v>
@@ -18325,19 +18304,19 @@
         <v>25</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F192" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="I192" s="67" t="s">
-        <v>1889</v>
+        <v>810</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -18345,7 +18324,7 @@
         <v>32</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>33</v>
+        <v>556</v>
       </c>
       <c r="N192" s="3"/>
       <c r="O192" s="44" t="s">
@@ -18381,19 +18360,19 @@
         <v>25</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F193" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -18404,32 +18383,24 @@
         <v>556</v>
       </c>
       <c r="N193" s="3"/>
-      <c r="O193" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P193" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q193" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R193" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S193" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="T193" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U193" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="V193" s="91"/>
-      <c r="W193" s="125"/>
-      <c r="X193" s="90"/>
-    </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1">
+      <c r="O193" s="44"/>
+      <c r="P193" s="144"/>
+      <c r="Q193" s="144"/>
+      <c r="R193" s="47"/>
+      <c r="S193" s="94"/>
+      <c r="T193" s="135"/>
+      <c r="U193" s="96"/>
+      <c r="V193" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W193" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="X193" s="90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A194" s="12" t="s">
         <v>556</v>
       </c>
@@ -18437,19 +18408,19 @@
         <v>25</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -18457,137 +18428,148 @@
         <v>32</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>556</v>
+        <v>33</v>
       </c>
       <c r="N194" s="3"/>
-      <c r="O194" s="44"/>
-      <c r="P194" s="144"/>
-      <c r="Q194" s="144"/>
-      <c r="R194" s="47"/>
-      <c r="S194" s="94"/>
-      <c r="T194" s="135"/>
-      <c r="U194" s="96"/>
-      <c r="V194" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W194" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="X194" s="90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A195" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B195" s="3" t="s">
+      <c r="O194" s="42"/>
+      <c r="P194" s="145"/>
+      <c r="Q194" s="145"/>
+      <c r="R194" s="45"/>
+      <c r="S194" s="95"/>
+      <c r="T194" s="136"/>
+      <c r="U194" s="104"/>
+      <c r="V194" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="W194" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="X194" s="118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A195" s="74" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B195" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="F195" s="1" t="b">
+      <c r="C195" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="71"/>
+      <c r="F195" s="75" t="b">
         <v>0</v>
       </c>
-      <c r="H195" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3" t="s">
+      <c r="G195" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H195" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I195" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J195" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K195" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L195" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M195" s="3" t="s">
+      <c r="M195" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="N195" s="3"/>
-      <c r="O195" s="42"/>
-      <c r="P195" s="145"/>
-      <c r="Q195" s="145"/>
-      <c r="R195" s="45"/>
-      <c r="S195" s="95"/>
-      <c r="T195" s="136"/>
-      <c r="U195" s="104"/>
-      <c r="V195" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="W195" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="X195" s="118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A196" s="74" t="s">
+      <c r="N195" s="71"/>
+      <c r="O195" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P195" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q195" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="R195" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="S195" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="T195" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="U195" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="V195" s="116"/>
+      <c r="W195" s="132"/>
+      <c r="X195" s="122"/>
+    </row>
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A196" s="12" t="s">
         <v>1793</v>
       </c>
-      <c r="B196" s="71" t="s">
+      <c r="B196" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D196" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E196" s="71"/>
-      <c r="F196" s="75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G196" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H196" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I196" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="J196" s="71" t="s">
+      <c r="C196" s="67" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J196" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K196" s="71" t="s">
+      <c r="K196" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L196" s="71" t="s">
+      <c r="L196" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M196" s="71" t="s">
+      <c r="M196" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N196" s="71"/>
-      <c r="O196" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P196" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q196" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="R196" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="S196" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="T196" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="U196" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="V196" s="116"/>
-      <c r="W196" s="132"/>
-      <c r="X196" s="122"/>
+      <c r="O196" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q196" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="R196" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S196" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="T196" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="U196" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="V196" s="91"/>
+      <c r="W196" s="125"/>
+      <c r="X196" s="90"/>
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="12" t="s">
@@ -18597,52 +18579,46 @@
         <v>25</v>
       </c>
       <c r="C197" s="67" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="F197" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K197" s="3" t="s">
-        <v>31</v>
+        <v>1812</v>
+      </c>
+      <c r="I197" s="67" t="s">
+        <v>1855</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O197" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="P197" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q197" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="R197" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="S197" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="T197" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="U197" s="109" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="O197" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P197" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q197" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R197" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S197" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="T197" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="U197" s="96" t="s">
+        <v>35</v>
       </c>
       <c r="V197" s="91"/>
       <c r="W197" s="125"/>
@@ -18656,46 +18632,52 @@
         <v>25</v>
       </c>
       <c r="C198" s="67" t="s">
-        <v>1794</v>
+        <v>570</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1812</v>
+        <v>571</v>
       </c>
       <c r="F198" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>1812</v>
+      <c r="H198" s="67" t="s">
+        <v>1837</v>
       </c>
       <c r="I198" s="67" t="s">
-        <v>1855</v>
+        <v>1891</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O198" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P198" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q198" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R198" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S198" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="T198" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U198" s="96" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="O198" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P198" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q198" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="R198" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S198" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="T198" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="U198" s="109" t="s">
+        <v>34</v>
       </c>
       <c r="V198" s="91"/>
       <c r="W198" s="125"/>
@@ -18709,25 +18691,19 @@
         <v>25</v>
       </c>
       <c r="C199" s="67" t="s">
-        <v>570</v>
+        <v>1797</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>571</v>
+        <v>1813</v>
       </c>
       <c r="F199" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H199" s="67" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I199" s="67" t="s">
-        <v>1891</v>
-      </c>
-      <c r="J199" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K199" s="3" t="s">
-        <v>265</v>
+        <v>1890</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>32</v>
@@ -18735,26 +18711,26 @@
       <c r="M199" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O199" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="P199" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q199" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="R199" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="S199" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="T199" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="U199" s="109" t="s">
-        <v>34</v>
+      <c r="O199" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P199" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q199" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R199" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S199" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="T199" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="U199" s="96" t="s">
+        <v>35</v>
       </c>
       <c r="V199" s="91"/>
       <c r="W199" s="125"/>
@@ -18768,25 +18744,22 @@
         <v>25</v>
       </c>
       <c r="C200" s="67" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>1813</v>
+        <v>1798</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>1893</v>
       </c>
       <c r="F200" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H200" s="67" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I200" s="67" t="s">
-        <v>1890</v>
+        <v>1839</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O200" s="44" t="s">
         <v>35</v>
@@ -18821,22 +18794,25 @@
         <v>25</v>
       </c>
       <c r="C201" s="67" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>1893</v>
+        <v>1799</v>
+      </c>
+      <c r="D201" s="67" t="s">
+        <v>1815</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="67" t="s">
-        <v>1839</v>
+        <v>1823</v>
+      </c>
+      <c r="I201" s="67" t="s">
+        <v>1879</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O201" s="44" t="s">
         <v>35</v>
@@ -18871,25 +18847,22 @@
         <v>25</v>
       </c>
       <c r="C202" s="67" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D202" s="67" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="67" t="s">
-        <v>1823</v>
-      </c>
-      <c r="I202" s="67" t="s">
-        <v>1879</v>
+        <v>1824</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M202" s="3" t="s">
-        <v>33</v>
+      <c r="M202" t="s">
+        <v>69</v>
       </c>
       <c r="O202" s="44" t="s">
         <v>35</v>
@@ -18924,22 +18897,25 @@
         <v>25</v>
       </c>
       <c r="C203" s="67" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D203" s="67" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H203" s="67" t="s">
-        <v>1824</v>
+        <v>1825</v>
+      </c>
+      <c r="I203" s="73" t="s">
+        <v>1878</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M203" t="s">
-        <v>69</v>
+      <c r="M203" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="O203" s="44" t="s">
         <v>35</v>
@@ -18974,19 +18950,16 @@
         <v>25</v>
       </c>
       <c r="C204" s="67" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D204" s="67" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H204" s="67" t="s">
-        <v>1825</v>
-      </c>
-      <c r="I204" s="73" t="s">
-        <v>1878</v>
+        <v>1826</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>32</v>
@@ -19027,16 +19000,25 @@
         <v>25</v>
       </c>
       <c r="C205" s="67" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D205" s="67" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H205" s="67" t="s">
-        <v>1826</v>
+        <v>1827</v>
+      </c>
+      <c r="I205" s="67" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J205" s="79" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1895</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>32</v>
@@ -19077,31 +19059,25 @@
         <v>25</v>
       </c>
       <c r="C206" s="67" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D206" s="67" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H206" s="67" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I206" s="67" t="s">
-        <v>1887</v>
-      </c>
-      <c r="J206" s="79" t="s">
-        <v>1888</v>
-      </c>
-      <c r="K206" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O206" s="44" t="s">
         <v>35</v>
@@ -19136,25 +19112,22 @@
         <v>25</v>
       </c>
       <c r="C207" s="67" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D207" s="67" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H207" s="67" t="s">
-        <v>1828</v>
-      </c>
-      <c r="I207" s="67" t="s">
-        <v>1886</v>
+        <v>1829</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O207" s="44" t="s">
         <v>35</v>
@@ -19189,16 +19162,16 @@
         <v>25</v>
       </c>
       <c r="C208" s="67" t="s">
-        <v>1805</v>
+        <v>1899</v>
       </c>
       <c r="D208" s="67" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="67" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>32</v>
@@ -19239,16 +19212,22 @@
         <v>25</v>
       </c>
       <c r="C209" s="67" t="s">
-        <v>1904</v>
+        <v>1806</v>
       </c>
       <c r="D209" s="67" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="67" t="s">
-        <v>1830</v>
+        <v>1831</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>32</v>
@@ -19281,7 +19260,7 @@
       <c r="W209" s="125"/>
       <c r="X209" s="90"/>
     </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A210" s="12" t="s">
         <v>1793</v>
       </c>
@@ -19289,22 +19268,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="67" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D210" s="67" t="s">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H210" s="67" t="s">
-        <v>1831</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>265</v>
+        <v>1833</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>32</v>
@@ -19312,144 +19285,156 @@
       <c r="M210" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O210" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P210" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q210" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R210" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S210" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="T210" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U210" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="V210" s="91"/>
-      <c r="W210" s="125"/>
-      <c r="X210" s="90"/>
-    </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A211" s="12" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B211" s="3" t="s">
+      <c r="O210" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="P210" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q210" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="R210" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="S210" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="T210" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="U210" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="V210" s="111"/>
+      <c r="W210" s="126"/>
+      <c r="X210" s="118"/>
+    </row>
+    <row r="211" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A211" s="78" t="s">
+        <v>820</v>
+      </c>
+      <c r="B211" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="67" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D211" s="67" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F211" s="1" t="b">
+      <c r="C211" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E211" s="71"/>
+      <c r="F211" s="75" t="b">
         <v>0</v>
       </c>
-      <c r="H211" s="67" t="s">
-        <v>1833</v>
-      </c>
-      <c r="L211" s="3" t="s">
+      <c r="G211" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I211" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J211" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K211" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L211" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M211" s="3" t="s">
+      <c r="M211" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="O211" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="P211" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q211" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="R211" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="S211" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="T211" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U211" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="V211" s="111"/>
-      <c r="W211" s="126"/>
-      <c r="X211" s="118"/>
-    </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A212" s="78" t="s">
+      <c r="N211" s="78"/>
+      <c r="O211" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P211" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q211" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="R211" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="S211" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="T211" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="U211" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="V211" s="116"/>
+      <c r="W211" s="132"/>
+      <c r="X211" s="122"/>
+    </row>
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A212" t="s">
         <v>820</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B212" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C212" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D212" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E212" s="71"/>
-      <c r="F212" s="75" t="b">
+      <c r="C212" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F212" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G212" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H212" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I212" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="J212" s="71" t="s">
+      <c r="G212" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J212" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K212" s="71" t="s">
+      <c r="K212" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L212" s="71" t="s">
+      <c r="L212" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M212" s="71" t="s">
+      <c r="M212" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N212" s="78"/>
-      <c r="O212" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P212" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q212" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="R212" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="S212" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="T212" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="U212" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="V212" s="116"/>
-      <c r="W212" s="132"/>
-      <c r="X212" s="122"/>
+      <c r="O212" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P212" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q212" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="R212" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S212" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="T212" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="U212" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="V212" s="110"/>
+      <c r="W212" s="124"/>
+      <c r="X212" s="117"/>
     </row>
     <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" t="s">
@@ -19458,23 +19443,23 @@
       <c r="B213" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>308</v>
+      <c r="C213" t="s">
+        <v>1785</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>309</v>
+        <v>1811</v>
       </c>
       <c r="F213" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>307</v>
+        <v>1793</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>311</v>
+        <v>1854</v>
       </c>
       <c r="J213" s="3" t="s">
         <v>30</v>
@@ -19509,9 +19494,9 @@
       <c r="U213" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="V213" s="110"/>
-      <c r="W213" s="124"/>
-      <c r="X213" s="117"/>
+      <c r="V213" s="91"/>
+      <c r="W213" s="125"/>
+      <c r="X213" s="90"/>
     </row>
     <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" t="s">
@@ -19521,22 +19506,19 @@
         <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>1811</v>
+        <v>1784</v>
+      </c>
+      <c r="D214" t="s">
+        <v>784</v>
       </c>
       <c r="F214" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>1793</v>
+        <v>1</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1834</v>
+        <v>1841</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1854</v>
+        <v>1894</v>
       </c>
       <c r="J214" s="3" t="s">
         <v>30</v>
@@ -19583,31 +19565,22 @@
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D215" t="s">
-        <v>784</v>
+        <v>820</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>813</v>
       </c>
       <c r="F215" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1841</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>1894</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>31</v>
+        <v>1842</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M215" s="3" t="s">
-        <v>33</v>
+      <c r="M215" t="s">
+        <v>556</v>
       </c>
       <c r="O215" s="68" t="s">
         <v>34</v>
@@ -19642,22 +19615,25 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>820</v>
+        <v>1896</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F216" s="1" t="b">
+        <v>1853</v>
+      </c>
+      <c r="F216" s="70" t="b">
         <v>0</v>
       </c>
-      <c r="H216" s="3" t="s">
-        <v>1842</v>
+      <c r="H216" s="67" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I216" s="67" t="s">
+        <v>1889</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M216" t="s">
-        <v>556</v>
+      <c r="M216" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="O216" s="68" t="s">
         <v>34</v>
@@ -19691,26 +19667,23 @@
       <c r="B217" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C217" t="s">
-        <v>1896</v>
+      <c r="C217" s="67" t="s">
+        <v>1843</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="F217" s="70" t="b">
         <v>0</v>
       </c>
-      <c r="H217" s="67" t="s">
-        <v>1846</v>
-      </c>
-      <c r="I217" s="67" t="s">
-        <v>1889</v>
+      <c r="H217" s="3" t="s">
+        <v>1844</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M217" s="3" t="s">
-        <v>33</v>
+      <c r="M217" t="s">
+        <v>69</v>
       </c>
       <c r="O217" s="68" t="s">
         <v>34</v>
@@ -19745,43 +19718,49 @@
         <v>25</v>
       </c>
       <c r="C218" s="67" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>1848</v>
+        <v>1795</v>
+      </c>
+      <c r="D218" s="67" t="s">
+        <v>1849</v>
       </c>
       <c r="F218" s="70" t="b">
         <v>0</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>1844</v>
+      <c r="H218" s="67" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K218" t="s">
+        <v>271</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M218" t="s">
-        <v>69</v>
-      </c>
-      <c r="O218" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="P218" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q218" s="153" t="s">
-        <v>34</v>
-      </c>
-      <c r="R218" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="S218" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="T218" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="U218" s="109" t="s">
-        <v>34</v>
+      <c r="M218" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O218" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P218" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q218" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="R218" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S218" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="T218" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="U218" s="96" t="s">
+        <v>35</v>
       </c>
       <c r="V218" s="91"/>
       <c r="W218" s="125"/>
@@ -19795,16 +19774,16 @@
         <v>25</v>
       </c>
       <c r="C219" s="67" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D219" s="67" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="F219" s="70" t="b">
         <v>0</v>
       </c>
       <c r="H219" s="67" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>270</v>
@@ -19851,16 +19830,16 @@
         <v>25</v>
       </c>
       <c r="C220" s="67" t="s">
-        <v>1796</v>
+        <v>1809</v>
       </c>
       <c r="D220" s="67" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F220" s="70" t="b">
         <v>0</v>
       </c>
       <c r="H220" s="67" t="s">
-        <v>1836</v>
+        <v>1845</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>270</v>
@@ -19907,22 +19886,25 @@
         <v>25</v>
       </c>
       <c r="C221" s="67" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D221" s="67" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F221" s="70" t="b">
         <v>0</v>
       </c>
       <c r="H221" s="67" t="s">
-        <v>1845</v>
+        <v>1847</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K221" t="s">
-        <v>271</v>
+        <v>62</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>32</v>
@@ -19955,69 +19937,10 @@
       <c r="W221" s="125"/>
       <c r="X221" s="90"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A222" t="s">
-        <v>820</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C222" s="67" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D222" s="67" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F222" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222" s="67" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J222" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K222" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L222" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M222" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O222" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P222" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q222" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R222" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S222" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="T222" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U222" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="V222" s="91"/>
-      <c r="W222" s="125"/>
-      <c r="X222" s="90"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X195" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:X194" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R26:R30 S197:U222 O2:Q222 S2:X196" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R26:R30 S196:U221 S2:X195 O2:Q221" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
@@ -20034,42 +19957,42 @@
     <hyperlink ref="N29" r:id="rId12" xr:uid="{15DAC48D-D827-D441-A849-2DCD46C7727E}"/>
     <hyperlink ref="I38" r:id="rId13" xr:uid="{3B4F7CE8-BE25-304A-B016-276C8E72856B}"/>
     <hyperlink ref="I40" r:id="rId14" xr:uid="{5198B7B7-BC5C-8C4E-8AAB-925F44DC5644}"/>
-    <hyperlink ref="N68" r:id="rId15" xr:uid="{8711B354-63F4-0640-8C04-CEC22A8189A2}"/>
-    <hyperlink ref="N69" r:id="rId16" xr:uid="{31F33231-E8A3-0A48-80CA-4A5E9C6BB7C4}"/>
-    <hyperlink ref="N91" r:id="rId17" xr:uid="{4B3E0A87-6AFE-434E-AEC5-5C2D2AD42A61}"/>
-    <hyperlink ref="N92" r:id="rId18" xr:uid="{2B897FF5-7699-E94C-9D07-1F64585B86CE}"/>
-    <hyperlink ref="N93" r:id="rId19" xr:uid="{7E942435-C24B-3E4E-A811-61BA1E264C6A}"/>
-    <hyperlink ref="N94" r:id="rId20" xr:uid="{D3683220-3C97-1642-AE61-F4074FC9DB63}"/>
-    <hyperlink ref="N95" r:id="rId21" xr:uid="{F9A12983-3455-B943-BC89-A58FFF48C3EA}"/>
-    <hyperlink ref="N96" r:id="rId22" xr:uid="{8AFD62B3-CD65-B745-884A-F545AC326A9B}"/>
-    <hyperlink ref="N97" r:id="rId23" xr:uid="{EDA79A4B-F86A-BA43-BF99-AFC7D838F401}"/>
-    <hyperlink ref="N106" r:id="rId24" xr:uid="{6E0D56DC-7AC7-B84C-AF29-BB2E93C98B63}"/>
-    <hyperlink ref="N107" r:id="rId25" xr:uid="{5B078FD9-6B96-BD44-A34F-18EFC5301D7F}"/>
-    <hyperlink ref="N108" r:id="rId26" xr:uid="{8D22E22F-F062-7C4B-A0D3-4A638902D7B6}"/>
-    <hyperlink ref="N113" r:id="rId27" xr:uid="{2B3B5AB2-9159-D949-825C-1359704FBB11}"/>
-    <hyperlink ref="N114" r:id="rId28" xr:uid="{1CCCD347-50F9-A14E-84D9-C500E54BD35A}"/>
-    <hyperlink ref="N115" r:id="rId29" xr:uid="{04C2D66F-65C2-234F-AFAF-582DB7850D46}"/>
-    <hyperlink ref="N116" r:id="rId30" xr:uid="{FB5C56E2-3FE3-224C-B0C4-A3AF87B6804E}"/>
-    <hyperlink ref="N117" r:id="rId31" xr:uid="{54F7A2A1-618C-AA40-904E-1D7FA3332093}"/>
-    <hyperlink ref="N118" r:id="rId32" xr:uid="{CD975141-6CD4-BE47-B168-C408FF9C90F5}"/>
-    <hyperlink ref="N119" r:id="rId33" xr:uid="{9ABF356B-DA78-0346-AAE3-71BB267214AF}"/>
-    <hyperlink ref="N120" r:id="rId34" xr:uid="{2E04666B-5147-C34C-B617-A254B02F4F25}"/>
-    <hyperlink ref="N121" r:id="rId35" xr:uid="{D939B93C-4711-F24D-9AE6-580F92ABA808}"/>
-    <hyperlink ref="N122" r:id="rId36" xr:uid="{D68BFC74-59B2-2F44-BCB6-0904202F3122}"/>
-    <hyperlink ref="N123" r:id="rId37" xr:uid="{F9641A35-0E55-A649-851C-DF4AC94D9C8B}"/>
-    <hyperlink ref="N144" r:id="rId38" xr:uid="{A8A423FB-EA40-EA4A-A259-ABB67062AA35}"/>
-    <hyperlink ref="N145" r:id="rId39" xr:uid="{70352B68-E800-6F4D-8B73-942B2C7FCE63}"/>
-    <hyperlink ref="N146" r:id="rId40" xr:uid="{B974C912-29D1-2B46-A000-B7A26D93580B}"/>
-    <hyperlink ref="N147" r:id="rId41" xr:uid="{5177E89C-2763-E942-A495-4F42C9D02D56}"/>
-    <hyperlink ref="N148" r:id="rId42" xr:uid="{1D4A2350-303E-8A46-9E67-A50B779D6073}"/>
-    <hyperlink ref="N149" r:id="rId43" xr:uid="{3DF64B38-F987-A84F-95DE-5031ABB39637}"/>
-    <hyperlink ref="N150" r:id="rId44" xr:uid="{1564279A-0545-4D4E-B714-B8AE9A60E3C0}"/>
-    <hyperlink ref="N151" r:id="rId45" xr:uid="{0203B6F0-82EA-D548-8D54-4D71EACFD805}"/>
-    <hyperlink ref="I152" r:id="rId46" xr:uid="{C35C290A-2B4A-6145-80A7-17A673662BB7}"/>
-    <hyperlink ref="N152" r:id="rId47" xr:uid="{862C6C0F-6E79-8148-BC5F-91811FCCDE10}"/>
-    <hyperlink ref="N109" r:id="rId48" xr:uid="{8D97978A-13BA-4F77-B721-AC8CC2BDF829}"/>
-    <hyperlink ref="N44" r:id="rId49" display="http://purl.obolibrary.org/obo/CL_0000000 " xr:uid="{3561CD4E-D6E7-E045-BB6A-DA688D2F2235}"/>
-    <hyperlink ref="N98" r:id="rId50" xr:uid="{E71D2A3B-4C50-3446-B164-D2CE8F5B2540}"/>
+    <hyperlink ref="N67" r:id="rId15" xr:uid="{8711B354-63F4-0640-8C04-CEC22A8189A2}"/>
+    <hyperlink ref="N68" r:id="rId16" xr:uid="{31F33231-E8A3-0A48-80CA-4A5E9C6BB7C4}"/>
+    <hyperlink ref="N90" r:id="rId17" xr:uid="{4B3E0A87-6AFE-434E-AEC5-5C2D2AD42A61}"/>
+    <hyperlink ref="N91" r:id="rId18" xr:uid="{2B897FF5-7699-E94C-9D07-1F64585B86CE}"/>
+    <hyperlink ref="N92" r:id="rId19" xr:uid="{7E942435-C24B-3E4E-A811-61BA1E264C6A}"/>
+    <hyperlink ref="N93" r:id="rId20" xr:uid="{D3683220-3C97-1642-AE61-F4074FC9DB63}"/>
+    <hyperlink ref="N94" r:id="rId21" xr:uid="{F9A12983-3455-B943-BC89-A58FFF48C3EA}"/>
+    <hyperlink ref="N95" r:id="rId22" xr:uid="{8AFD62B3-CD65-B745-884A-F545AC326A9B}"/>
+    <hyperlink ref="N96" r:id="rId23" xr:uid="{EDA79A4B-F86A-BA43-BF99-AFC7D838F401}"/>
+    <hyperlink ref="N105" r:id="rId24" xr:uid="{6E0D56DC-7AC7-B84C-AF29-BB2E93C98B63}"/>
+    <hyperlink ref="N106" r:id="rId25" xr:uid="{5B078FD9-6B96-BD44-A34F-18EFC5301D7F}"/>
+    <hyperlink ref="N107" r:id="rId26" xr:uid="{8D22E22F-F062-7C4B-A0D3-4A638902D7B6}"/>
+    <hyperlink ref="N112" r:id="rId27" xr:uid="{2B3B5AB2-9159-D949-825C-1359704FBB11}"/>
+    <hyperlink ref="N113" r:id="rId28" xr:uid="{1CCCD347-50F9-A14E-84D9-C500E54BD35A}"/>
+    <hyperlink ref="N114" r:id="rId29" xr:uid="{04C2D66F-65C2-234F-AFAF-582DB7850D46}"/>
+    <hyperlink ref="N115" r:id="rId30" xr:uid="{FB5C56E2-3FE3-224C-B0C4-A3AF87B6804E}"/>
+    <hyperlink ref="N116" r:id="rId31" xr:uid="{54F7A2A1-618C-AA40-904E-1D7FA3332093}"/>
+    <hyperlink ref="N117" r:id="rId32" xr:uid="{CD975141-6CD4-BE47-B168-C408FF9C90F5}"/>
+    <hyperlink ref="N118" r:id="rId33" xr:uid="{9ABF356B-DA78-0346-AAE3-71BB267214AF}"/>
+    <hyperlink ref="N119" r:id="rId34" xr:uid="{2E04666B-5147-C34C-B617-A254B02F4F25}"/>
+    <hyperlink ref="N120" r:id="rId35" xr:uid="{D939B93C-4711-F24D-9AE6-580F92ABA808}"/>
+    <hyperlink ref="N121" r:id="rId36" xr:uid="{D68BFC74-59B2-2F44-BCB6-0904202F3122}"/>
+    <hyperlink ref="N122" r:id="rId37" xr:uid="{F9641A35-0E55-A649-851C-DF4AC94D9C8B}"/>
+    <hyperlink ref="N143" r:id="rId38" xr:uid="{A8A423FB-EA40-EA4A-A259-ABB67062AA35}"/>
+    <hyperlink ref="N144" r:id="rId39" xr:uid="{70352B68-E800-6F4D-8B73-942B2C7FCE63}"/>
+    <hyperlink ref="N145" r:id="rId40" xr:uid="{B974C912-29D1-2B46-A000-B7A26D93580B}"/>
+    <hyperlink ref="N146" r:id="rId41" xr:uid="{5177E89C-2763-E942-A495-4F42C9D02D56}"/>
+    <hyperlink ref="N147" r:id="rId42" xr:uid="{1D4A2350-303E-8A46-9E67-A50B779D6073}"/>
+    <hyperlink ref="N148" r:id="rId43" xr:uid="{3DF64B38-F987-A84F-95DE-5031ABB39637}"/>
+    <hyperlink ref="N149" r:id="rId44" xr:uid="{1564279A-0545-4D4E-B714-B8AE9A60E3C0}"/>
+    <hyperlink ref="N150" r:id="rId45" xr:uid="{0203B6F0-82EA-D548-8D54-4D71EACFD805}"/>
+    <hyperlink ref="I151" r:id="rId46" xr:uid="{C35C290A-2B4A-6145-80A7-17A673662BB7}"/>
+    <hyperlink ref="N151" r:id="rId47" xr:uid="{862C6C0F-6E79-8148-BC5F-91811FCCDE10}"/>
+    <hyperlink ref="N108" r:id="rId48" xr:uid="{8D97978A-13BA-4F77-B721-AC8CC2BDF829}"/>
+    <hyperlink ref="N43" r:id="rId49" display="http://purl.obolibrary.org/obo/CL_0000000 " xr:uid="{3561CD4E-D6E7-E045-BB6A-DA688D2F2235}"/>
+    <hyperlink ref="N97" r:id="rId50" xr:uid="{E71D2A3B-4C50-3446-B164-D2CE8F5B2540}"/>
     <hyperlink ref="N21" r:id="rId51" xr:uid="{A58E6FC1-1C35-D840-8A06-8FC26464E9DF}"/>
     <hyperlink ref="N24" r:id="rId52" xr:uid="{8613F765-3842-A94A-9054-F5BF25A788F4}"/>
     <hyperlink ref="N23" r:id="rId53" xr:uid="{A4DBEF14-A5AE-4745-AB94-523B6D5EE1B4}"/>
@@ -20077,232 +20000,14 @@
     <hyperlink ref="I22" r:id="rId55" xr:uid="{2D38C7B1-C57C-4D62-A463-032B117407B3}"/>
     <hyperlink ref="N22" r:id="rId56" xr:uid="{BF91FAF0-BAD3-40C2-8DBE-448231649BC5}"/>
     <hyperlink ref="I39" r:id="rId57" xr:uid="{641DCDA6-12A3-44F1-96D1-1EACA7591B2E}"/>
-    <hyperlink ref="N43" r:id="rId58" display="http://purl.obolibrary.org/obo/CL_0000000 " xr:uid="{C4BA36DB-C494-374B-851C-D8CC1E6C6F7C}"/>
-    <hyperlink ref="N30" r:id="rId59" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
+    <hyperlink ref="N30" r:id="rId58" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId60"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61BC52-895A-1744-9DF4-5BBE85D8EAF1}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B7" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId59"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E218A6-E35E-7841-A9F4-5F9B5685FD07}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="161" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B1" s="161" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://schema.org/" xr:uid="{82CB647B-9A84-AE4F-B3D1-49CE64B562BE}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{A7B4F042-1ACD-B647-9F10-DAA9436AA257}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9392399-E361-44B1-B712-1D0CF2B8FDF9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -39345,7 +39050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E63A9F4-1E9B-D446-8908-F86954E02135}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
@@ -39556,7 +39261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB178E1A-3883-B241-A24C-68A6E70B024D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -39723,7 +39428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36364-7FDF-1E4B-B566-201F8E4C079F}">
   <sheetPr>
     <tabColor rgb="FFF5FF33"/>
@@ -39768,7 +39473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B3E19-31EE-401E-8E14-DBEF7BC74F95}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -40388,7 +40093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1731BDE7-D3D2-B24C-8C00-9BE8D4ACD573}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -40450,7 +40155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8D2169-BF61-6A4A-A47F-DB8A87EB8145}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -40505,4 +40210,162 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61BC52-895A-1744-9DF4-5BBE85D8EAF1}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>